--- a/create_defaults/template.xlsx
+++ b/create_defaults/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\TEST\create_defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BEE5AC-95BF-47CF-91C6-11B928BC8D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20FC7F4-B15F-4606-9F5F-6E3E045D7ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C0516283-7CFC-4E92-8F0B-F8DC43661E92}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$276</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet5!$A$1:$T$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet6!$A$1:$B$40</definedName>
   </definedNames>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6270" uniqueCount="1449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6933" uniqueCount="1659">
   <si>
     <t>key_name</t>
   </si>
@@ -4392,6 +4392,636 @@
   </si>
   <si>
     <t>#9F878C</t>
+  </si>
+  <si>
+    <t>#0.png</t>
+  </si>
+  <si>
+    <t>AHC.png</t>
+  </si>
+  <si>
+    <t>Alibi.png</t>
+  </si>
+  <si>
+    <t>Atresplayer Premium.png</t>
+  </si>
+  <si>
+    <t>Audience.png</t>
+  </si>
+  <si>
+    <t>AXN.png</t>
+  </si>
+  <si>
+    <t>Azteca Uno.png</t>
+  </si>
+  <si>
+    <t>BBC iPlayer.png</t>
+  </si>
+  <si>
+    <t>C More.png</t>
+  </si>
+  <si>
+    <t>Canale 5.png</t>
+  </si>
+  <si>
+    <t>CHCH-DT.png</t>
+  </si>
+  <si>
+    <t>Crackle.png</t>
+  </si>
+  <si>
+    <t>Cuatro.png</t>
+  </si>
+  <si>
+    <t>DC Universe.png</t>
+  </si>
+  <si>
+    <t>DR1.png</t>
+  </si>
+  <si>
+    <t>Eden.png</t>
+  </si>
+  <si>
+    <t>Elisa Viihde Viaplay.png</t>
+  </si>
+  <si>
+    <t>Elisa Viihde.png</t>
+  </si>
+  <si>
+    <t>Facebook Watch.png</t>
+  </si>
+  <si>
+    <t>Ficción Producciones.png</t>
+  </si>
+  <si>
+    <t>Flooxer.png</t>
+  </si>
+  <si>
+    <t>France 2.png</t>
+  </si>
+  <si>
+    <t>GAİN.png</t>
+  </si>
+  <si>
+    <t>HOT3.png</t>
+  </si>
+  <si>
+    <t>ICTV.png</t>
+  </si>
+  <si>
+    <t>joyn.png</t>
+  </si>
+  <si>
+    <t>Kan 11.png</t>
+  </si>
+  <si>
+    <t>La 1.png</t>
+  </si>
+  <si>
+    <t>La Une.png</t>
+  </si>
+  <si>
+    <t>Lionsgate+.png</t>
+  </si>
+  <si>
+    <t>Logo.png</t>
+  </si>
+  <si>
+    <t>M-Net.png</t>
+  </si>
+  <si>
+    <t>mitele.png</t>
+  </si>
+  <si>
+    <t>Movistar Plus+.png</t>
+  </si>
+  <si>
+    <t>NHK.png</t>
+  </si>
+  <si>
+    <t>Nine Network.png</t>
+  </si>
+  <si>
+    <t>NRK1.png</t>
+  </si>
+  <si>
+    <t>OCS City.png</t>
+  </si>
+  <si>
+    <t>OCS Max.png</t>
+  </si>
+  <si>
+    <t>ORF.png</t>
+  </si>
+  <si>
+    <t>Pantaya.png</t>
+  </si>
+  <si>
+    <t>Planète+ A&amp;E.png</t>
+  </si>
+  <si>
+    <t>Rai 1.png</t>
+  </si>
+  <si>
+    <t>ReelzChannel.png</t>
+  </si>
+  <si>
+    <t>RTÉ One.png</t>
+  </si>
+  <si>
+    <t>RTL Télé.png</t>
+  </si>
+  <si>
+    <t>RTP1.png</t>
+  </si>
+  <si>
+    <t>RÚV.png</t>
+  </si>
+  <si>
+    <t>S4C.png</t>
+  </si>
+  <si>
+    <t>SAT.1.png</t>
+  </si>
+  <si>
+    <t>Science.png</t>
+  </si>
+  <si>
+    <t>Showmax.png</t>
+  </si>
+  <si>
+    <t>Space.png</t>
+  </si>
+  <si>
+    <t>Spectrum.png</t>
+  </si>
+  <si>
+    <t>STAR+.png</t>
+  </si>
+  <si>
+    <t>Syndication.png</t>
+  </si>
+  <si>
+    <t>Telecinco.png</t>
+  </si>
+  <si>
+    <t>Telefe.png</t>
+  </si>
+  <si>
+    <t>Televisión de Galicia.png</t>
+  </si>
+  <si>
+    <t>Televisión Pública Argentina.png</t>
+  </si>
+  <si>
+    <t>The Roku Channel.png</t>
+  </si>
+  <si>
+    <t>TV4.png</t>
+  </si>
+  <si>
+    <t>TVNZ 1.png</t>
+  </si>
+  <si>
+    <t>TVP1.png</t>
+  </si>
+  <si>
+    <t>Universal TV.png</t>
+  </si>
+  <si>
+    <t>Virgin Media One.png</t>
+  </si>
+  <si>
+    <t>ViX+.png</t>
+  </si>
+  <si>
+    <t>VRT 1.png</t>
+  </si>
+  <si>
+    <t>VTM.png</t>
+  </si>
+  <si>
+    <t>W.png</t>
+  </si>
+  <si>
+    <t>YLE.png</t>
+  </si>
+  <si>
+    <t>#0</t>
+  </si>
+  <si>
+    <t>AHC</t>
+  </si>
+  <si>
+    <t>AXN</t>
+  </si>
+  <si>
+    <t>#2EF8CB</t>
+  </si>
+  <si>
+    <t>Alibi</t>
+  </si>
+  <si>
+    <t>#5E6CC2</t>
+  </si>
+  <si>
+    <t>Atresplayer Premium</t>
+  </si>
+  <si>
+    <t>#822AC4</t>
+  </si>
+  <si>
+    <t>Audience</t>
+  </si>
+  <si>
+    <t>#EE7706</t>
+  </si>
+  <si>
+    <t>Azteca Uno</t>
+  </si>
+  <si>
+    <t>#F70AC3</t>
+  </si>
+  <si>
+    <t>BBC iPlayer</t>
+  </si>
+  <si>
+    <t>#467CE9</t>
+  </si>
+  <si>
+    <t>C More</t>
+  </si>
+  <si>
+    <t>CHCH-DT</t>
+  </si>
+  <si>
+    <t>#F75C5A</t>
+  </si>
+  <si>
+    <t>Canale 5</t>
+  </si>
+  <si>
+    <t>#A02124</t>
+  </si>
+  <si>
+    <t>Crackle</t>
+  </si>
+  <si>
+    <t>#88D6B9</t>
+  </si>
+  <si>
+    <t>Cuatro</t>
+  </si>
+  <si>
+    <t>#D46CD7</t>
+  </si>
+  <si>
+    <t>DC Universe</t>
+  </si>
+  <si>
+    <t>#9B0221</t>
+  </si>
+  <si>
+    <t>DR1</t>
+  </si>
+  <si>
+    <t>#DEFF1E</t>
+  </si>
+  <si>
+    <t>Eden</t>
+  </si>
+  <si>
+    <t>#D1A72C</t>
+  </si>
+  <si>
+    <t>Elisa Viihde Viaplay</t>
+  </si>
+  <si>
+    <t>#692C72</t>
+  </si>
+  <si>
+    <t>Elisa Viihde</t>
+  </si>
+  <si>
+    <t>#1DF3B7</t>
+  </si>
+  <si>
+    <t>Facebook Watch</t>
+  </si>
+  <si>
+    <t>#E7F7B1</t>
+  </si>
+  <si>
+    <t>Ficción Producciones</t>
+  </si>
+  <si>
+    <t>#DE282F</t>
+  </si>
+  <si>
+    <t>Flooxer</t>
+  </si>
+  <si>
+    <t>#AD128E</t>
+  </si>
+  <si>
+    <t>France 2</t>
+  </si>
+  <si>
+    <t>#A17059</t>
+  </si>
+  <si>
+    <t>GAİN</t>
+  </si>
+  <si>
+    <t>#EA8897</t>
+  </si>
+  <si>
+    <t>HOT3</t>
+  </si>
+  <si>
+    <t>#934C19</t>
+  </si>
+  <si>
+    <t>ICTV</t>
+  </si>
+  <si>
+    <t>#6AF88D</t>
+  </si>
+  <si>
+    <t>Kan 11</t>
+  </si>
+  <si>
+    <t>#F73F64</t>
+  </si>
+  <si>
+    <t>La 1</t>
+  </si>
+  <si>
+    <t>#21FEF9</t>
+  </si>
+  <si>
+    <t>La Une</t>
+  </si>
+  <si>
+    <t>#E8AD81</t>
+  </si>
+  <si>
+    <t>Lionsgate+</t>
+  </si>
+  <si>
+    <t>#F627E7</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>#E5DA88</t>
+  </si>
+  <si>
+    <t>M-Net</t>
+  </si>
+  <si>
+    <t>#29C617</t>
+  </si>
+  <si>
+    <t>Movistar Plus+</t>
+  </si>
+  <si>
+    <t>#A6C708</t>
+  </si>
+  <si>
+    <t>NHK</t>
+  </si>
+  <si>
+    <t>#F3D015</t>
+  </si>
+  <si>
+    <t>NRK1</t>
+  </si>
+  <si>
+    <t>#8C17EF</t>
+  </si>
+  <si>
+    <t>Nine Network</t>
+  </si>
+  <si>
+    <t>OCS City</t>
+  </si>
+  <si>
+    <t>#806AA6</t>
+  </si>
+  <si>
+    <t>OCS Max</t>
+  </si>
+  <si>
+    <t>#CCCC46</t>
+  </si>
+  <si>
+    <t>ORF</t>
+  </si>
+  <si>
+    <t>#11EA47</t>
+  </si>
+  <si>
+    <t>Pantaya</t>
+  </si>
+  <si>
+    <t>Planète+ A&amp;E</t>
+  </si>
+  <si>
+    <t>#038502</t>
+  </si>
+  <si>
+    <t>RTL Télé</t>
+  </si>
+  <si>
+    <t>#6790B5</t>
+  </si>
+  <si>
+    <t>RTP1</t>
+  </si>
+  <si>
+    <t>RTÉ One</t>
+  </si>
+  <si>
+    <t>#8F2C48</t>
+  </si>
+  <si>
+    <t>Rai 1</t>
+  </si>
+  <si>
+    <t>#BC1E71</t>
+  </si>
+  <si>
+    <t>ReelzChannel</t>
+  </si>
+  <si>
+    <t>#0C1668</t>
+  </si>
+  <si>
+    <t>RÚV</t>
+  </si>
+  <si>
+    <t>#773351</t>
+  </si>
+  <si>
+    <t>S4C</t>
+  </si>
+  <si>
+    <t>#E105D9</t>
+  </si>
+  <si>
+    <t>SAT.1</t>
+  </si>
+  <si>
+    <t>#E1847D</t>
+  </si>
+  <si>
+    <t>STAR+</t>
+  </si>
+  <si>
+    <t>#B263B8</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>#DA2988</t>
+  </si>
+  <si>
+    <t>Showmax</t>
+  </si>
+  <si>
+    <t>#22D2D6</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Spectrum</t>
+  </si>
+  <si>
+    <t>#0997E1</t>
+  </si>
+  <si>
+    <t>Syndication</t>
+  </si>
+  <si>
+    <t>#523E40</t>
+  </si>
+  <si>
+    <t>TV4</t>
+  </si>
+  <si>
+    <t>#82E7BF</t>
+  </si>
+  <si>
+    <t>TVNZ 1</t>
+  </si>
+  <si>
+    <t>#BF8B82</t>
+  </si>
+  <si>
+    <t>TVP1</t>
+  </si>
+  <si>
+    <t>#412AF2</t>
+  </si>
+  <si>
+    <t>Telecinco</t>
+  </si>
+  <si>
+    <t>#190874</t>
+  </si>
+  <si>
+    <t>Telefe</t>
+  </si>
+  <si>
+    <t>#D6DBFC</t>
+  </si>
+  <si>
+    <t>Televisión Pública Argentina</t>
+  </si>
+  <si>
+    <t>#F47B8E</t>
+  </si>
+  <si>
+    <t>Televisión de Galicia</t>
+  </si>
+  <si>
+    <t>The Roku Channel</t>
+  </si>
+  <si>
+    <t>Universal TV</t>
+  </si>
+  <si>
+    <t>#29D252</t>
+  </si>
+  <si>
+    <t>VRT 1</t>
+  </si>
+  <si>
+    <t>#680F46</t>
+  </si>
+  <si>
+    <t>VTM</t>
+  </si>
+  <si>
+    <t>#9164A7</t>
+  </si>
+  <si>
+    <t>ViX+</t>
+  </si>
+  <si>
+    <t>#00AA96</t>
+  </si>
+  <si>
+    <t>Virgin Media One</t>
+  </si>
+  <si>
+    <t>#79095A</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>#E60A55</t>
+  </si>
+  <si>
+    <t>YLE</t>
+  </si>
+  <si>
+    <t>joyn</t>
+  </si>
+  <si>
+    <t>#D35503</t>
+  </si>
+  <si>
+    <t>mitele</t>
+  </si>
+  <si>
+    <t>#DAF0CE</t>
+  </si>
+  <si>
+    <t>#7BE7A1</t>
+  </si>
+  <si>
+    <t>#36623E</t>
+  </si>
+  <si>
+    <t>#64C78B</t>
+  </si>
+  <si>
+    <t>#990BA9</t>
+  </si>
+  <si>
+    <t>#156A6E</t>
+  </si>
+  <si>
+    <t>#4C5C75</t>
+  </si>
+  <si>
+    <t>#3A8722</t>
   </si>
 </sst>
 </file>
@@ -4413,7 +5043,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4423,6 +5053,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4448,7 +5084,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -4456,6 +5092,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4801,10 +5438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185220E8-1934-454F-B9D7-C7470B861D27}">
-  <dimension ref="A1:S178"/>
+  <dimension ref="A1:S276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159"/>
+    <sheetView tabSelected="1" topLeftCell="E176" workbookViewId="0">
+      <selection activeCell="S249" sqref="S179:S249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14624,8 +15261,4578 @@
         <v>'WESTERN_AFRICAN| Western African.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Western African| #9F878C| 1| 1| 0| 0',</v>
       </c>
     </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>623</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>1600</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179" t="s">
+        <v>18</v>
+      </c>
+      <c r="H179" t="s">
+        <v>19</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>15</v>
+      </c>
+      <c r="K179" t="s">
+        <v>19</v>
+      </c>
+      <c r="M179" s="2" t="str">
+        <f>SUBSTITUTE(B179,".png","")</f>
+        <v>#0</v>
+      </c>
+      <c r="N179" t="str">
+        <f>VLOOKUP(B179,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#7BE7A1</v>
+      </c>
+      <c r="O179">
+        <v>1</v>
+      </c>
+      <c r="P179">
+        <v>1</v>
+      </c>
+      <c r="Q179">
+        <v>0</v>
+      </c>
+      <c r="R179" t="s">
+        <v>20</v>
+      </c>
+      <c r="S179" t="str">
+        <f t="shared" ref="S179:S242" si="1">"'"&amp;MID(A179,FIND(MID(TRIM(A179),1,1),A179),LEN(A179))&amp;"| "&amp;MID(B179,FIND(MID(TRIM(B179),1,1),B179),LEN(B179))&amp;"| +"&amp;C179&amp;"| "&amp;D179&amp;"| +"&amp;E179&amp;"| "&amp;MID(F179,FIND(MID(TRIM(F179),1,1),F179),LEN(F179))&amp;"| "&amp;G179&amp;"| "&amp;MID(H179,FIND(MID(TRIM(H179),1,1),H179),LEN(H179))&amp;"| "&amp;I179&amp;"| "&amp;J179&amp;"| "&amp;MID(K179,FIND(MID(TRIM(K179),1,1),K179),LEN(K179))&amp;"| "&amp;L179&amp;"| "&amp;MID(M179,FIND(MID(TRIM(M179),1,1),M179),LEN(M179))&amp;"| "&amp;MID(N179,FIND(MID(TRIM(N179),1,1),N179),LEN(N179))&amp;"| "&amp;MID(O179,FIND(MID(TRIM(O179),1,1),O179),LEN(O179))&amp;"| "&amp;MID(P179,FIND(MID(TRIM(P179),1,1),P179),LEN(P179))&amp;"| "&amp;MID(Q179,FIND(MID(TRIM(Q179),1,1),Q179),LEN(Q179))&amp;"| "&amp;MID(R179,FIND(MID(TRIM(R179),1,1),R179),LEN(R179))</f>
+        <v>' | #0.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | #0| #7BE7A1| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>623</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>1600</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180" t="s">
+        <v>18</v>
+      </c>
+      <c r="H180" t="s">
+        <v>19</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>15</v>
+      </c>
+      <c r="K180" t="s">
+        <v>19</v>
+      </c>
+      <c r="M180" s="7" t="str">
+        <f t="shared" ref="M180:M243" si="2">SUBSTITUTE(B180,".png","")</f>
+        <v>AHC</v>
+      </c>
+      <c r="N180">
+        <f>VLOOKUP(B180,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O180">
+        <v>1</v>
+      </c>
+      <c r="P180">
+        <v>1</v>
+      </c>
+      <c r="Q180">
+        <v>0</v>
+      </c>
+      <c r="R180" t="s">
+        <v>20</v>
+      </c>
+      <c r="S180" t="str">
+        <f t="shared" si="1"/>
+        <v>' | AHC.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | AHC| 0| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>623</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>1600</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181" t="s">
+        <v>18</v>
+      </c>
+      <c r="H181" t="s">
+        <v>19</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>15</v>
+      </c>
+      <c r="K181" t="s">
+        <v>19</v>
+      </c>
+      <c r="M181" t="str">
+        <f t="shared" si="2"/>
+        <v>Alibi</v>
+      </c>
+      <c r="N181" t="str">
+        <f>VLOOKUP(B181,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#5E6CC2</v>
+      </c>
+      <c r="O181">
+        <v>1</v>
+      </c>
+      <c r="P181">
+        <v>1</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181" t="s">
+        <v>20</v>
+      </c>
+      <c r="S181" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Alibi.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Alibi| #5E6CC2| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>623</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>1600</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182" t="s">
+        <v>18</v>
+      </c>
+      <c r="H182" t="s">
+        <v>19</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>15</v>
+      </c>
+      <c r="K182" t="s">
+        <v>19</v>
+      </c>
+      <c r="M182" t="str">
+        <f t="shared" si="2"/>
+        <v>Atresplayer Premium</v>
+      </c>
+      <c r="N182" t="str">
+        <f>VLOOKUP(B182,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#822AC4</v>
+      </c>
+      <c r="O182">
+        <v>1</v>
+      </c>
+      <c r="P182">
+        <v>1</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182" t="s">
+        <v>20</v>
+      </c>
+      <c r="S182" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Atresplayer Premium.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Atresplayer Premium| #822AC4| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>623</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>1600</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183" t="s">
+        <v>18</v>
+      </c>
+      <c r="H183" t="s">
+        <v>19</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>15</v>
+      </c>
+      <c r="K183" t="s">
+        <v>19</v>
+      </c>
+      <c r="M183" t="str">
+        <f t="shared" si="2"/>
+        <v>Audience</v>
+      </c>
+      <c r="N183" t="str">
+        <f>VLOOKUP(B183,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#EE7706</v>
+      </c>
+      <c r="O183">
+        <v>1</v>
+      </c>
+      <c r="P183">
+        <v>1</v>
+      </c>
+      <c r="Q183">
+        <v>0</v>
+      </c>
+      <c r="R183" t="s">
+        <v>20</v>
+      </c>
+      <c r="S183" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Audience.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Audience| #EE7706| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>623</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>1600</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184" t="s">
+        <v>18</v>
+      </c>
+      <c r="H184" t="s">
+        <v>19</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>15</v>
+      </c>
+      <c r="K184" t="s">
+        <v>19</v>
+      </c>
+      <c r="M184" t="str">
+        <f t="shared" si="2"/>
+        <v>AXN</v>
+      </c>
+      <c r="N184" t="str">
+        <f>VLOOKUP(B184,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#2EF8CB</v>
+      </c>
+      <c r="O184">
+        <v>1</v>
+      </c>
+      <c r="P184">
+        <v>1</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184" t="s">
+        <v>20</v>
+      </c>
+      <c r="S184" t="str">
+        <f t="shared" si="1"/>
+        <v>' | AXN.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | AXN| #2EF8CB| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>623</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>1600</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185" t="s">
+        <v>18</v>
+      </c>
+      <c r="H185" t="s">
+        <v>19</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>15</v>
+      </c>
+      <c r="K185" t="s">
+        <v>19</v>
+      </c>
+      <c r="M185" t="str">
+        <f t="shared" si="2"/>
+        <v>Azteca Uno</v>
+      </c>
+      <c r="N185" t="str">
+        <f>VLOOKUP(B185,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#F70AC3</v>
+      </c>
+      <c r="O185">
+        <v>1</v>
+      </c>
+      <c r="P185">
+        <v>1</v>
+      </c>
+      <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="R185" t="s">
+        <v>20</v>
+      </c>
+      <c r="S185" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Azteca Uno.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Azteca Uno| #F70AC3| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>623</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>1600</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186" t="s">
+        <v>18</v>
+      </c>
+      <c r="H186" t="s">
+        <v>19</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>15</v>
+      </c>
+      <c r="K186" t="s">
+        <v>19</v>
+      </c>
+      <c r="M186" t="str">
+        <f t="shared" si="2"/>
+        <v>BBC iPlayer</v>
+      </c>
+      <c r="N186" t="str">
+        <f>VLOOKUP(B186,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#467CE9</v>
+      </c>
+      <c r="O186">
+        <v>1</v>
+      </c>
+      <c r="P186">
+        <v>1</v>
+      </c>
+      <c r="Q186">
+        <v>0</v>
+      </c>
+      <c r="R186" t="s">
+        <v>20</v>
+      </c>
+      <c r="S186" t="str">
+        <f t="shared" si="1"/>
+        <v>' | BBC iPlayer.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | BBC iPlayer| #467CE9| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>623</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>1600</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187" t="s">
+        <v>18</v>
+      </c>
+      <c r="H187" t="s">
+        <v>19</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>15</v>
+      </c>
+      <c r="K187" t="s">
+        <v>19</v>
+      </c>
+      <c r="M187" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>C More</v>
+      </c>
+      <c r="N187" t="str">
+        <f>VLOOKUP(B187,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#36623E</v>
+      </c>
+      <c r="O187">
+        <v>1</v>
+      </c>
+      <c r="P187">
+        <v>1</v>
+      </c>
+      <c r="Q187">
+        <v>0</v>
+      </c>
+      <c r="R187" t="s">
+        <v>20</v>
+      </c>
+      <c r="S187" t="str">
+        <f t="shared" si="1"/>
+        <v>' | C More.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | C More| #36623E| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>623</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>1600</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188" t="s">
+        <v>18</v>
+      </c>
+      <c r="H188" t="s">
+        <v>19</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>15</v>
+      </c>
+      <c r="K188" t="s">
+        <v>19</v>
+      </c>
+      <c r="M188" t="str">
+        <f t="shared" si="2"/>
+        <v>Canale 5</v>
+      </c>
+      <c r="N188" t="str">
+        <f>VLOOKUP(B188,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#A02124</v>
+      </c>
+      <c r="O188">
+        <v>1</v>
+      </c>
+      <c r="P188">
+        <v>1</v>
+      </c>
+      <c r="Q188">
+        <v>0</v>
+      </c>
+      <c r="R188" t="s">
+        <v>20</v>
+      </c>
+      <c r="S188" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Canale 5.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Canale 5| #A02124| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>623</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>1600</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189" t="s">
+        <v>18</v>
+      </c>
+      <c r="H189" t="s">
+        <v>19</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>15</v>
+      </c>
+      <c r="K189" t="s">
+        <v>19</v>
+      </c>
+      <c r="M189" t="str">
+        <f t="shared" si="2"/>
+        <v>CHCH-DT</v>
+      </c>
+      <c r="N189" t="str">
+        <f>VLOOKUP(B189,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#F75C5A</v>
+      </c>
+      <c r="O189">
+        <v>1</v>
+      </c>
+      <c r="P189">
+        <v>1</v>
+      </c>
+      <c r="Q189">
+        <v>0</v>
+      </c>
+      <c r="R189" t="s">
+        <v>20</v>
+      </c>
+      <c r="S189" t="str">
+        <f t="shared" si="1"/>
+        <v>' | CHCH-DT.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | CHCH-DT| #F75C5A| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>623</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>1600</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190" t="s">
+        <v>18</v>
+      </c>
+      <c r="H190" t="s">
+        <v>19</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>15</v>
+      </c>
+      <c r="K190" t="s">
+        <v>19</v>
+      </c>
+      <c r="M190" t="str">
+        <f t="shared" si="2"/>
+        <v>Crackle</v>
+      </c>
+      <c r="N190" t="str">
+        <f>VLOOKUP(B190,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#88D6B9</v>
+      </c>
+      <c r="O190">
+        <v>1</v>
+      </c>
+      <c r="P190">
+        <v>1</v>
+      </c>
+      <c r="Q190">
+        <v>0</v>
+      </c>
+      <c r="R190" t="s">
+        <v>20</v>
+      </c>
+      <c r="S190" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Crackle.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Crackle| #88D6B9| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>623</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>1600</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191" t="s">
+        <v>18</v>
+      </c>
+      <c r="H191" t="s">
+        <v>19</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>15</v>
+      </c>
+      <c r="K191" t="s">
+        <v>19</v>
+      </c>
+      <c r="M191" t="str">
+        <f t="shared" si="2"/>
+        <v>Cuatro</v>
+      </c>
+      <c r="N191" t="str">
+        <f>VLOOKUP(B191,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#D46CD7</v>
+      </c>
+      <c r="O191">
+        <v>1</v>
+      </c>
+      <c r="P191">
+        <v>1</v>
+      </c>
+      <c r="Q191">
+        <v>0</v>
+      </c>
+      <c r="R191" t="s">
+        <v>20</v>
+      </c>
+      <c r="S191" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Cuatro.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Cuatro| #D46CD7| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>623</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>1600</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192" t="s">
+        <v>18</v>
+      </c>
+      <c r="H192" t="s">
+        <v>19</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>15</v>
+      </c>
+      <c r="K192" t="s">
+        <v>19</v>
+      </c>
+      <c r="M192" t="str">
+        <f t="shared" si="2"/>
+        <v>DC Universe</v>
+      </c>
+      <c r="N192" t="str">
+        <f>VLOOKUP(B192,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#9B0221</v>
+      </c>
+      <c r="O192">
+        <v>1</v>
+      </c>
+      <c r="P192">
+        <v>1</v>
+      </c>
+      <c r="Q192">
+        <v>0</v>
+      </c>
+      <c r="R192" t="s">
+        <v>20</v>
+      </c>
+      <c r="S192" t="str">
+        <f t="shared" si="1"/>
+        <v>' | DC Universe.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | DC Universe| #9B0221| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>623</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>1600</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193" t="s">
+        <v>18</v>
+      </c>
+      <c r="H193" t="s">
+        <v>19</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>15</v>
+      </c>
+      <c r="K193" t="s">
+        <v>19</v>
+      </c>
+      <c r="M193" t="str">
+        <f t="shared" si="2"/>
+        <v>DR1</v>
+      </c>
+      <c r="N193" t="str">
+        <f>VLOOKUP(B193,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#DEFF1E</v>
+      </c>
+      <c r="O193">
+        <v>1</v>
+      </c>
+      <c r="P193">
+        <v>1</v>
+      </c>
+      <c r="Q193">
+        <v>0</v>
+      </c>
+      <c r="R193" t="s">
+        <v>20</v>
+      </c>
+      <c r="S193" t="str">
+        <f t="shared" si="1"/>
+        <v>' | DR1.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | DR1| #DEFF1E| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>623</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>1600</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194" t="s">
+        <v>18</v>
+      </c>
+      <c r="H194" t="s">
+        <v>19</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>15</v>
+      </c>
+      <c r="K194" t="s">
+        <v>19</v>
+      </c>
+      <c r="M194" t="str">
+        <f t="shared" si="2"/>
+        <v>Eden</v>
+      </c>
+      <c r="N194" t="str">
+        <f>VLOOKUP(B194,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#D1A72C</v>
+      </c>
+      <c r="O194">
+        <v>1</v>
+      </c>
+      <c r="P194">
+        <v>1</v>
+      </c>
+      <c r="Q194">
+        <v>0</v>
+      </c>
+      <c r="R194" t="s">
+        <v>20</v>
+      </c>
+      <c r="S194" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Eden.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Eden| #D1A72C| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>623</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>1600</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195" t="s">
+        <v>18</v>
+      </c>
+      <c r="H195" t="s">
+        <v>19</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>15</v>
+      </c>
+      <c r="K195" t="s">
+        <v>19</v>
+      </c>
+      <c r="M195" t="str">
+        <f t="shared" si="2"/>
+        <v>Elisa Viihde Viaplay</v>
+      </c>
+      <c r="N195" t="str">
+        <f>VLOOKUP(B195,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#692C72</v>
+      </c>
+      <c r="O195">
+        <v>1</v>
+      </c>
+      <c r="P195">
+        <v>1</v>
+      </c>
+      <c r="Q195">
+        <v>0</v>
+      </c>
+      <c r="R195" t="s">
+        <v>20</v>
+      </c>
+      <c r="S195" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Elisa Viihde Viaplay.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Elisa Viihde Viaplay| #692C72| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>623</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>1600</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196" t="s">
+        <v>18</v>
+      </c>
+      <c r="H196" t="s">
+        <v>19</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>15</v>
+      </c>
+      <c r="K196" t="s">
+        <v>19</v>
+      </c>
+      <c r="M196" t="str">
+        <f t="shared" si="2"/>
+        <v>Elisa Viihde</v>
+      </c>
+      <c r="N196" t="str">
+        <f>VLOOKUP(B196,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#1DF3B7</v>
+      </c>
+      <c r="O196">
+        <v>1</v>
+      </c>
+      <c r="P196">
+        <v>1</v>
+      </c>
+      <c r="Q196">
+        <v>0</v>
+      </c>
+      <c r="R196" t="s">
+        <v>20</v>
+      </c>
+      <c r="S196" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Elisa Viihde.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Elisa Viihde| #1DF3B7| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>623</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>1600</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197" t="s">
+        <v>18</v>
+      </c>
+      <c r="H197" t="s">
+        <v>19</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>15</v>
+      </c>
+      <c r="K197" t="s">
+        <v>19</v>
+      </c>
+      <c r="M197" t="str">
+        <f t="shared" si="2"/>
+        <v>Facebook Watch</v>
+      </c>
+      <c r="N197" t="str">
+        <f>VLOOKUP(B197,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#E7F7B1</v>
+      </c>
+      <c r="O197">
+        <v>1</v>
+      </c>
+      <c r="P197">
+        <v>1</v>
+      </c>
+      <c r="Q197">
+        <v>0</v>
+      </c>
+      <c r="R197" t="s">
+        <v>20</v>
+      </c>
+      <c r="S197" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Facebook Watch.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Facebook Watch| #E7F7B1| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>623</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>1600</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198" t="s">
+        <v>18</v>
+      </c>
+      <c r="H198" t="s">
+        <v>19</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>15</v>
+      </c>
+      <c r="K198" t="s">
+        <v>19</v>
+      </c>
+      <c r="M198" t="str">
+        <f t="shared" si="2"/>
+        <v>Ficción Producciones</v>
+      </c>
+      <c r="N198" t="str">
+        <f>VLOOKUP(B198,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#DE282F</v>
+      </c>
+      <c r="O198">
+        <v>1</v>
+      </c>
+      <c r="P198">
+        <v>1</v>
+      </c>
+      <c r="Q198">
+        <v>0</v>
+      </c>
+      <c r="R198" t="s">
+        <v>20</v>
+      </c>
+      <c r="S198" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Ficción Producciones.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Ficción Producciones| #DE282F| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>623</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>1600</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199" t="s">
+        <v>18</v>
+      </c>
+      <c r="H199" t="s">
+        <v>19</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>15</v>
+      </c>
+      <c r="K199" t="s">
+        <v>19</v>
+      </c>
+      <c r="M199" t="str">
+        <f t="shared" si="2"/>
+        <v>Flooxer</v>
+      </c>
+      <c r="N199" t="str">
+        <f>VLOOKUP(B199,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#AD128E</v>
+      </c>
+      <c r="O199">
+        <v>1</v>
+      </c>
+      <c r="P199">
+        <v>1</v>
+      </c>
+      <c r="Q199">
+        <v>0</v>
+      </c>
+      <c r="R199" t="s">
+        <v>20</v>
+      </c>
+      <c r="S199" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Flooxer.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Flooxer| #AD128E| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>623</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>1600</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200" t="s">
+        <v>18</v>
+      </c>
+      <c r="H200" t="s">
+        <v>19</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>15</v>
+      </c>
+      <c r="K200" t="s">
+        <v>19</v>
+      </c>
+      <c r="M200" t="str">
+        <f t="shared" si="2"/>
+        <v>France 2</v>
+      </c>
+      <c r="N200" t="str">
+        <f>VLOOKUP(B200,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#A17059</v>
+      </c>
+      <c r="O200">
+        <v>1</v>
+      </c>
+      <c r="P200">
+        <v>1</v>
+      </c>
+      <c r="Q200">
+        <v>0</v>
+      </c>
+      <c r="R200" t="s">
+        <v>20</v>
+      </c>
+      <c r="S200" t="str">
+        <f t="shared" si="1"/>
+        <v>' | France 2.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | France 2| #A17059| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>623</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>1600</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201" t="s">
+        <v>18</v>
+      </c>
+      <c r="H201" t="s">
+        <v>19</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>15</v>
+      </c>
+      <c r="K201" t="s">
+        <v>19</v>
+      </c>
+      <c r="M201" t="str">
+        <f t="shared" si="2"/>
+        <v>GAİN</v>
+      </c>
+      <c r="N201" t="str">
+        <f>VLOOKUP(B201,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#EA8897</v>
+      </c>
+      <c r="O201">
+        <v>1</v>
+      </c>
+      <c r="P201">
+        <v>1</v>
+      </c>
+      <c r="Q201">
+        <v>0</v>
+      </c>
+      <c r="R201" t="s">
+        <v>20</v>
+      </c>
+      <c r="S201" t="str">
+        <f t="shared" si="1"/>
+        <v>' | GAİN.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | GAİN| #EA8897| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>623</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>1600</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202" t="s">
+        <v>18</v>
+      </c>
+      <c r="H202" t="s">
+        <v>19</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>15</v>
+      </c>
+      <c r="K202" t="s">
+        <v>19</v>
+      </c>
+      <c r="M202" t="str">
+        <f t="shared" si="2"/>
+        <v>HOT3</v>
+      </c>
+      <c r="N202" t="str">
+        <f>VLOOKUP(B202,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#934C19</v>
+      </c>
+      <c r="O202">
+        <v>1</v>
+      </c>
+      <c r="P202">
+        <v>1</v>
+      </c>
+      <c r="Q202">
+        <v>0</v>
+      </c>
+      <c r="R202" t="s">
+        <v>20</v>
+      </c>
+      <c r="S202" t="str">
+        <f t="shared" si="1"/>
+        <v>' | HOT3.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | HOT3| #934C19| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>623</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>1600</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203" t="s">
+        <v>18</v>
+      </c>
+      <c r="H203" t="s">
+        <v>19</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>15</v>
+      </c>
+      <c r="K203" t="s">
+        <v>19</v>
+      </c>
+      <c r="M203" t="str">
+        <f t="shared" si="2"/>
+        <v>ICTV</v>
+      </c>
+      <c r="N203" t="str">
+        <f>VLOOKUP(B203,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#6AF88D</v>
+      </c>
+      <c r="O203">
+        <v>1</v>
+      </c>
+      <c r="P203">
+        <v>1</v>
+      </c>
+      <c r="Q203">
+        <v>0</v>
+      </c>
+      <c r="R203" t="s">
+        <v>20</v>
+      </c>
+      <c r="S203" t="str">
+        <f t="shared" si="1"/>
+        <v>' | ICTV.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | ICTV| #6AF88D| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>623</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>1600</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204" t="s">
+        <v>18</v>
+      </c>
+      <c r="H204" t="s">
+        <v>19</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>15</v>
+      </c>
+      <c r="K204" t="s">
+        <v>19</v>
+      </c>
+      <c r="M204" t="str">
+        <f t="shared" si="2"/>
+        <v>joyn</v>
+      </c>
+      <c r="N204" t="str">
+        <f>VLOOKUP(B204,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#D35503</v>
+      </c>
+      <c r="O204">
+        <v>1</v>
+      </c>
+      <c r="P204">
+        <v>1</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204" t="s">
+        <v>20</v>
+      </c>
+      <c r="S204" t="str">
+        <f t="shared" si="1"/>
+        <v>' | joyn.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | joyn| #D35503| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>623</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>1600</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205" t="s">
+        <v>18</v>
+      </c>
+      <c r="H205" t="s">
+        <v>19</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>15</v>
+      </c>
+      <c r="K205" t="s">
+        <v>19</v>
+      </c>
+      <c r="M205" t="str">
+        <f t="shared" si="2"/>
+        <v>Kan 11</v>
+      </c>
+      <c r="N205" t="str">
+        <f>VLOOKUP(B205,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#F73F64</v>
+      </c>
+      <c r="O205">
+        <v>1</v>
+      </c>
+      <c r="P205">
+        <v>1</v>
+      </c>
+      <c r="Q205">
+        <v>0</v>
+      </c>
+      <c r="R205" t="s">
+        <v>20</v>
+      </c>
+      <c r="S205" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Kan 11.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Kan 11| #F73F64| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>623</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>1600</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206" t="s">
+        <v>18</v>
+      </c>
+      <c r="H206" t="s">
+        <v>19</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>15</v>
+      </c>
+      <c r="K206" t="s">
+        <v>19</v>
+      </c>
+      <c r="M206" t="str">
+        <f t="shared" si="2"/>
+        <v>La 1</v>
+      </c>
+      <c r="N206" t="str">
+        <f>VLOOKUP(B206,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#21FEF9</v>
+      </c>
+      <c r="O206">
+        <v>1</v>
+      </c>
+      <c r="P206">
+        <v>1</v>
+      </c>
+      <c r="Q206">
+        <v>0</v>
+      </c>
+      <c r="R206" t="s">
+        <v>20</v>
+      </c>
+      <c r="S206" t="str">
+        <f t="shared" si="1"/>
+        <v>' | La 1.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | La 1| #21FEF9| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>623</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>1600</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207" t="s">
+        <v>18</v>
+      </c>
+      <c r="H207" t="s">
+        <v>19</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>15</v>
+      </c>
+      <c r="K207" t="s">
+        <v>19</v>
+      </c>
+      <c r="M207" t="str">
+        <f t="shared" si="2"/>
+        <v>La Une</v>
+      </c>
+      <c r="N207" t="str">
+        <f>VLOOKUP(B207,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#E8AD81</v>
+      </c>
+      <c r="O207">
+        <v>1</v>
+      </c>
+      <c r="P207">
+        <v>1</v>
+      </c>
+      <c r="Q207">
+        <v>0</v>
+      </c>
+      <c r="R207" t="s">
+        <v>20</v>
+      </c>
+      <c r="S207" t="str">
+        <f t="shared" si="1"/>
+        <v>' | La Une.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | La Une| #E8AD81| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>623</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>1600</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208" t="s">
+        <v>18</v>
+      </c>
+      <c r="H208" t="s">
+        <v>19</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>15</v>
+      </c>
+      <c r="K208" t="s">
+        <v>19</v>
+      </c>
+      <c r="M208" t="str">
+        <f t="shared" si="2"/>
+        <v>Lionsgate+</v>
+      </c>
+      <c r="N208" t="str">
+        <f>VLOOKUP(B208,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#F627E7</v>
+      </c>
+      <c r="O208">
+        <v>1</v>
+      </c>
+      <c r="P208">
+        <v>1</v>
+      </c>
+      <c r="Q208">
+        <v>0</v>
+      </c>
+      <c r="R208" t="s">
+        <v>20</v>
+      </c>
+      <c r="S208" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Lionsgate+.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Lionsgate+| #F627E7| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>623</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>1600</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209" t="s">
+        <v>18</v>
+      </c>
+      <c r="H209" t="s">
+        <v>19</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>15</v>
+      </c>
+      <c r="K209" t="s">
+        <v>19</v>
+      </c>
+      <c r="M209" t="str">
+        <f t="shared" si="2"/>
+        <v>Logo</v>
+      </c>
+      <c r="N209" t="str">
+        <f>VLOOKUP(B209,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#E5DA88</v>
+      </c>
+      <c r="O209">
+        <v>1</v>
+      </c>
+      <c r="P209">
+        <v>1</v>
+      </c>
+      <c r="Q209">
+        <v>0</v>
+      </c>
+      <c r="R209" t="s">
+        <v>20</v>
+      </c>
+      <c r="S209" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Logo.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Logo| #E5DA88| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>623</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>1600</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210" t="s">
+        <v>18</v>
+      </c>
+      <c r="H210" t="s">
+        <v>19</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>15</v>
+      </c>
+      <c r="K210" t="s">
+        <v>19</v>
+      </c>
+      <c r="M210" t="str">
+        <f t="shared" si="2"/>
+        <v>M-Net</v>
+      </c>
+      <c r="N210" t="str">
+        <f>VLOOKUP(B210,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#29C617</v>
+      </c>
+      <c r="O210">
+        <v>1</v>
+      </c>
+      <c r="P210">
+        <v>1</v>
+      </c>
+      <c r="Q210">
+        <v>0</v>
+      </c>
+      <c r="R210" t="s">
+        <v>20</v>
+      </c>
+      <c r="S210" t="str">
+        <f t="shared" si="1"/>
+        <v>' | M-Net.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | M-Net| #29C617| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>623</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>1600</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211" t="s">
+        <v>18</v>
+      </c>
+      <c r="H211" t="s">
+        <v>19</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>15</v>
+      </c>
+      <c r="K211" t="s">
+        <v>19</v>
+      </c>
+      <c r="M211" t="str">
+        <f t="shared" si="2"/>
+        <v>mitele</v>
+      </c>
+      <c r="N211" t="str">
+        <f>VLOOKUP(B211,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#DAF0CE</v>
+      </c>
+      <c r="O211">
+        <v>1</v>
+      </c>
+      <c r="P211">
+        <v>1</v>
+      </c>
+      <c r="Q211">
+        <v>0</v>
+      </c>
+      <c r="R211" t="s">
+        <v>20</v>
+      </c>
+      <c r="S211" t="str">
+        <f t="shared" si="1"/>
+        <v>' | mitele.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | mitele| #DAF0CE| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>623</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>1600</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212" t="s">
+        <v>18</v>
+      </c>
+      <c r="H212" t="s">
+        <v>19</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>15</v>
+      </c>
+      <c r="K212" t="s">
+        <v>19</v>
+      </c>
+      <c r="M212" t="str">
+        <f t="shared" si="2"/>
+        <v>Movistar Plus+</v>
+      </c>
+      <c r="N212" t="str">
+        <f>VLOOKUP(B212,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#A6C708</v>
+      </c>
+      <c r="O212">
+        <v>1</v>
+      </c>
+      <c r="P212">
+        <v>1</v>
+      </c>
+      <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212" t="s">
+        <v>20</v>
+      </c>
+      <c r="S212" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Movistar Plus+.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Movistar Plus+| #A6C708| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>623</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>1600</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213" t="s">
+        <v>18</v>
+      </c>
+      <c r="H213" t="s">
+        <v>19</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>15</v>
+      </c>
+      <c r="K213" t="s">
+        <v>19</v>
+      </c>
+      <c r="M213" t="str">
+        <f t="shared" si="2"/>
+        <v>NHK</v>
+      </c>
+      <c r="N213" t="str">
+        <f>VLOOKUP(B213,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#F3D015</v>
+      </c>
+      <c r="O213">
+        <v>1</v>
+      </c>
+      <c r="P213">
+        <v>1</v>
+      </c>
+      <c r="Q213">
+        <v>0</v>
+      </c>
+      <c r="R213" t="s">
+        <v>20</v>
+      </c>
+      <c r="S213" t="str">
+        <f t="shared" si="1"/>
+        <v>' | NHK.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | NHK| #F3D015| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>623</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>1600</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214" t="s">
+        <v>18</v>
+      </c>
+      <c r="H214" t="s">
+        <v>19</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>15</v>
+      </c>
+      <c r="K214" t="s">
+        <v>19</v>
+      </c>
+      <c r="M214" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Nine Network</v>
+      </c>
+      <c r="N214">
+        <f>VLOOKUP(B214,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O214">
+        <v>1</v>
+      </c>
+      <c r="P214">
+        <v>1</v>
+      </c>
+      <c r="Q214">
+        <v>0</v>
+      </c>
+      <c r="R214" t="s">
+        <v>20</v>
+      </c>
+      <c r="S214" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Nine Network.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Nine Network| 0| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>623</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>1600</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215" t="s">
+        <v>18</v>
+      </c>
+      <c r="H215" t="s">
+        <v>19</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>15</v>
+      </c>
+      <c r="K215" t="s">
+        <v>19</v>
+      </c>
+      <c r="M215" t="str">
+        <f t="shared" si="2"/>
+        <v>NRK1</v>
+      </c>
+      <c r="N215" t="str">
+        <f>VLOOKUP(B215,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#8C17EF</v>
+      </c>
+      <c r="O215">
+        <v>1</v>
+      </c>
+      <c r="P215">
+        <v>1</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215" t="s">
+        <v>20</v>
+      </c>
+      <c r="S215" t="str">
+        <f t="shared" si="1"/>
+        <v>' | NRK1.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | NRK1| #8C17EF| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>623</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>1600</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216" t="s">
+        <v>18</v>
+      </c>
+      <c r="H216" t="s">
+        <v>19</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>15</v>
+      </c>
+      <c r="K216" t="s">
+        <v>19</v>
+      </c>
+      <c r="M216" t="str">
+        <f t="shared" si="2"/>
+        <v>OCS City</v>
+      </c>
+      <c r="N216" t="str">
+        <f>VLOOKUP(B216,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#806AA6</v>
+      </c>
+      <c r="O216">
+        <v>1</v>
+      </c>
+      <c r="P216">
+        <v>1</v>
+      </c>
+      <c r="Q216">
+        <v>0</v>
+      </c>
+      <c r="R216" t="s">
+        <v>20</v>
+      </c>
+      <c r="S216" t="str">
+        <f t="shared" si="1"/>
+        <v>' | OCS City.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | OCS City| #806AA6| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>623</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>1600</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217" t="s">
+        <v>18</v>
+      </c>
+      <c r="H217" t="s">
+        <v>19</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>15</v>
+      </c>
+      <c r="K217" t="s">
+        <v>19</v>
+      </c>
+      <c r="M217" t="str">
+        <f t="shared" si="2"/>
+        <v>OCS Max</v>
+      </c>
+      <c r="N217" t="str">
+        <f>VLOOKUP(B217,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#CCCC46</v>
+      </c>
+      <c r="O217">
+        <v>1</v>
+      </c>
+      <c r="P217">
+        <v>1</v>
+      </c>
+      <c r="Q217">
+        <v>0</v>
+      </c>
+      <c r="R217" t="s">
+        <v>20</v>
+      </c>
+      <c r="S217" t="str">
+        <f t="shared" si="1"/>
+        <v>' | OCS Max.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | OCS Max| #CCCC46| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>623</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>1600</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218" t="s">
+        <v>18</v>
+      </c>
+      <c r="H218" t="s">
+        <v>19</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>15</v>
+      </c>
+      <c r="K218" t="s">
+        <v>19</v>
+      </c>
+      <c r="M218" t="str">
+        <f t="shared" si="2"/>
+        <v>ORF</v>
+      </c>
+      <c r="N218" t="str">
+        <f>VLOOKUP(B218,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#11EA47</v>
+      </c>
+      <c r="O218">
+        <v>1</v>
+      </c>
+      <c r="P218">
+        <v>1</v>
+      </c>
+      <c r="Q218">
+        <v>0</v>
+      </c>
+      <c r="R218" t="s">
+        <v>20</v>
+      </c>
+      <c r="S218" t="str">
+        <f t="shared" si="1"/>
+        <v>' | ORF.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | ORF| #11EA47| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>623</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>1600</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219" t="s">
+        <v>18</v>
+      </c>
+      <c r="H219" t="s">
+        <v>19</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>15</v>
+      </c>
+      <c r="K219" t="s">
+        <v>19</v>
+      </c>
+      <c r="M219" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Pantaya</v>
+      </c>
+      <c r="N219" t="str">
+        <f>VLOOKUP(B219,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#64C78B</v>
+      </c>
+      <c r="O219">
+        <v>1</v>
+      </c>
+      <c r="P219">
+        <v>1</v>
+      </c>
+      <c r="Q219">
+        <v>0</v>
+      </c>
+      <c r="R219" t="s">
+        <v>20</v>
+      </c>
+      <c r="S219" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Pantaya.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Pantaya| #64C78B| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>623</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>1600</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220" t="s">
+        <v>18</v>
+      </c>
+      <c r="H220" t="s">
+        <v>19</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>15</v>
+      </c>
+      <c r="K220" t="s">
+        <v>19</v>
+      </c>
+      <c r="M220" t="str">
+        <f t="shared" si="2"/>
+        <v>Planète+ A&amp;E</v>
+      </c>
+      <c r="N220" t="str">
+        <f>VLOOKUP(B220,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#038502</v>
+      </c>
+      <c r="O220">
+        <v>1</v>
+      </c>
+      <c r="P220">
+        <v>1</v>
+      </c>
+      <c r="Q220">
+        <v>0</v>
+      </c>
+      <c r="R220" t="s">
+        <v>20</v>
+      </c>
+      <c r="S220" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Planète+ A&amp;E.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Planète+ A&amp;E| #038502| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>623</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>1600</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221" t="s">
+        <v>18</v>
+      </c>
+      <c r="H221" t="s">
+        <v>19</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>15</v>
+      </c>
+      <c r="K221" t="s">
+        <v>19</v>
+      </c>
+      <c r="M221" t="str">
+        <f t="shared" si="2"/>
+        <v>Rai 1</v>
+      </c>
+      <c r="N221" t="str">
+        <f>VLOOKUP(B221,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#BC1E71</v>
+      </c>
+      <c r="O221">
+        <v>1</v>
+      </c>
+      <c r="P221">
+        <v>1</v>
+      </c>
+      <c r="Q221">
+        <v>0</v>
+      </c>
+      <c r="R221" t="s">
+        <v>20</v>
+      </c>
+      <c r="S221" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Rai 1.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Rai 1| #BC1E71| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>623</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1600</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222" t="s">
+        <v>18</v>
+      </c>
+      <c r="H222" t="s">
+        <v>19</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>15</v>
+      </c>
+      <c r="K222" t="s">
+        <v>19</v>
+      </c>
+      <c r="M222" t="str">
+        <f t="shared" si="2"/>
+        <v>ReelzChannel</v>
+      </c>
+      <c r="N222" t="str">
+        <f>VLOOKUP(B222,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#0C1668</v>
+      </c>
+      <c r="O222">
+        <v>1</v>
+      </c>
+      <c r="P222">
+        <v>1</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222" t="s">
+        <v>20</v>
+      </c>
+      <c r="S222" t="str">
+        <f t="shared" si="1"/>
+        <v>' | ReelzChannel.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | ReelzChannel| #0C1668| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>623</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1600</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223" t="s">
+        <v>18</v>
+      </c>
+      <c r="H223" t="s">
+        <v>19</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>15</v>
+      </c>
+      <c r="K223" t="s">
+        <v>19</v>
+      </c>
+      <c r="M223" t="str">
+        <f t="shared" si="2"/>
+        <v>RTÉ One</v>
+      </c>
+      <c r="N223" t="str">
+        <f>VLOOKUP(B223,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#8F2C48</v>
+      </c>
+      <c r="O223">
+        <v>1</v>
+      </c>
+      <c r="P223">
+        <v>1</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223" t="s">
+        <v>20</v>
+      </c>
+      <c r="S223" t="str">
+        <f t="shared" si="1"/>
+        <v>' | RTÉ One.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | RTÉ One| #8F2C48| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>623</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1600</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224" t="s">
+        <v>18</v>
+      </c>
+      <c r="H224" t="s">
+        <v>19</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>15</v>
+      </c>
+      <c r="K224" t="s">
+        <v>19</v>
+      </c>
+      <c r="M224" t="str">
+        <f t="shared" si="2"/>
+        <v>RTL Télé</v>
+      </c>
+      <c r="N224" t="str">
+        <f>VLOOKUP(B224,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#6790B5</v>
+      </c>
+      <c r="O224">
+        <v>1</v>
+      </c>
+      <c r="P224">
+        <v>1</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224" t="s">
+        <v>20</v>
+      </c>
+      <c r="S224" t="str">
+        <f t="shared" si="1"/>
+        <v>' | RTL Télé.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | RTL Télé| #6790B5| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>623</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1600</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225" t="s">
+        <v>18</v>
+      </c>
+      <c r="H225" t="s">
+        <v>19</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>15</v>
+      </c>
+      <c r="K225" t="s">
+        <v>19</v>
+      </c>
+      <c r="M225" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>RTP1</v>
+      </c>
+      <c r="N225">
+        <f>VLOOKUP(B225,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>1</v>
+      </c>
+      <c r="P225">
+        <v>1</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225" t="s">
+        <v>20</v>
+      </c>
+      <c r="S225" t="str">
+        <f t="shared" si="1"/>
+        <v>' | RTP1.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | RTP1| 0| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>623</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1600</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226" t="s">
+        <v>18</v>
+      </c>
+      <c r="H226" t="s">
+        <v>19</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>15</v>
+      </c>
+      <c r="K226" t="s">
+        <v>19</v>
+      </c>
+      <c r="M226" t="str">
+        <f t="shared" si="2"/>
+        <v>RÚV</v>
+      </c>
+      <c r="N226" t="str">
+        <f>VLOOKUP(B226,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#773351</v>
+      </c>
+      <c r="O226">
+        <v>1</v>
+      </c>
+      <c r="P226">
+        <v>1</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226" t="s">
+        <v>20</v>
+      </c>
+      <c r="S226" t="str">
+        <f t="shared" si="1"/>
+        <v>' | RÚV.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | RÚV| #773351| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>623</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1600</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227" t="s">
+        <v>18</v>
+      </c>
+      <c r="H227" t="s">
+        <v>19</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>15</v>
+      </c>
+      <c r="K227" t="s">
+        <v>19</v>
+      </c>
+      <c r="M227" t="str">
+        <f t="shared" si="2"/>
+        <v>S4C</v>
+      </c>
+      <c r="N227" t="str">
+        <f>VLOOKUP(B227,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#E105D9</v>
+      </c>
+      <c r="O227">
+        <v>1</v>
+      </c>
+      <c r="P227">
+        <v>1</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227" t="s">
+        <v>20</v>
+      </c>
+      <c r="S227" t="str">
+        <f t="shared" si="1"/>
+        <v>' | S4C.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | S4C| #E105D9| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>623</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1600</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228" t="s">
+        <v>18</v>
+      </c>
+      <c r="H228" t="s">
+        <v>19</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>15</v>
+      </c>
+      <c r="K228" t="s">
+        <v>19</v>
+      </c>
+      <c r="M228" t="str">
+        <f t="shared" si="2"/>
+        <v>SAT.1</v>
+      </c>
+      <c r="N228" t="str">
+        <f>VLOOKUP(B228,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#E1847D</v>
+      </c>
+      <c r="O228">
+        <v>1</v>
+      </c>
+      <c r="P228">
+        <v>1</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228" t="s">
+        <v>20</v>
+      </c>
+      <c r="S228" t="str">
+        <f t="shared" si="1"/>
+        <v>' | SAT.1.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | SAT.1| #E1847D| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>623</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1600</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229" t="s">
+        <v>18</v>
+      </c>
+      <c r="H229" t="s">
+        <v>19</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>15</v>
+      </c>
+      <c r="K229" t="s">
+        <v>19</v>
+      </c>
+      <c r="M229" t="str">
+        <f t="shared" si="2"/>
+        <v>Science</v>
+      </c>
+      <c r="N229" t="str">
+        <f>VLOOKUP(B229,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#DA2988</v>
+      </c>
+      <c r="O229">
+        <v>1</v>
+      </c>
+      <c r="P229">
+        <v>1</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229" t="s">
+        <v>20</v>
+      </c>
+      <c r="S229" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Science.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Science| #DA2988| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>623</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1600</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230" t="s">
+        <v>18</v>
+      </c>
+      <c r="H230" t="s">
+        <v>19</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>15</v>
+      </c>
+      <c r="K230" t="s">
+        <v>19</v>
+      </c>
+      <c r="M230" t="str">
+        <f t="shared" si="2"/>
+        <v>Showmax</v>
+      </c>
+      <c r="N230" t="str">
+        <f>VLOOKUP(B230,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#22D2D6</v>
+      </c>
+      <c r="O230">
+        <v>1</v>
+      </c>
+      <c r="P230">
+        <v>1</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230" t="s">
+        <v>20</v>
+      </c>
+      <c r="S230" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Showmax.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Showmax| #22D2D6| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>623</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1600</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231" t="s">
+        <v>18</v>
+      </c>
+      <c r="H231" t="s">
+        <v>19</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>15</v>
+      </c>
+      <c r="K231" t="s">
+        <v>19</v>
+      </c>
+      <c r="M231" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Space</v>
+      </c>
+      <c r="N231" t="str">
+        <f>VLOOKUP(B231,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#990BA9</v>
+      </c>
+      <c r="O231">
+        <v>1</v>
+      </c>
+      <c r="P231">
+        <v>1</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231" t="s">
+        <v>20</v>
+      </c>
+      <c r="S231" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Space.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Space| #990BA9| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>623</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1600</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232" t="s">
+        <v>18</v>
+      </c>
+      <c r="H232" t="s">
+        <v>19</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>15</v>
+      </c>
+      <c r="K232" t="s">
+        <v>19</v>
+      </c>
+      <c r="M232" t="str">
+        <f t="shared" si="2"/>
+        <v>Spectrum</v>
+      </c>
+      <c r="N232" t="str">
+        <f>VLOOKUP(B232,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#0997E1</v>
+      </c>
+      <c r="O232">
+        <v>1</v>
+      </c>
+      <c r="P232">
+        <v>1</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232" t="s">
+        <v>20</v>
+      </c>
+      <c r="S232" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Spectrum.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Spectrum| #0997E1| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>623</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1600</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233" t="s">
+        <v>18</v>
+      </c>
+      <c r="H233" t="s">
+        <v>19</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>15</v>
+      </c>
+      <c r="K233" t="s">
+        <v>19</v>
+      </c>
+      <c r="M233" t="str">
+        <f t="shared" si="2"/>
+        <v>STAR+</v>
+      </c>
+      <c r="N233" t="str">
+        <f>VLOOKUP(B233,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#B263B8</v>
+      </c>
+      <c r="O233">
+        <v>1</v>
+      </c>
+      <c r="P233">
+        <v>1</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233" t="s">
+        <v>20</v>
+      </c>
+      <c r="S233" t="str">
+        <f t="shared" si="1"/>
+        <v>' | STAR+.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | STAR+| #B263B8| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>623</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>1600</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234" t="s">
+        <v>18</v>
+      </c>
+      <c r="H234" t="s">
+        <v>19</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>15</v>
+      </c>
+      <c r="K234" t="s">
+        <v>19</v>
+      </c>
+      <c r="M234" t="str">
+        <f t="shared" si="2"/>
+        <v>Syndication</v>
+      </c>
+      <c r="N234" t="str">
+        <f>VLOOKUP(B234,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#523E40</v>
+      </c>
+      <c r="O234">
+        <v>1</v>
+      </c>
+      <c r="P234">
+        <v>1</v>
+      </c>
+      <c r="Q234">
+        <v>0</v>
+      </c>
+      <c r="R234" t="s">
+        <v>20</v>
+      </c>
+      <c r="S234" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Syndication.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Syndication| #523E40| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>623</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>1600</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235" t="s">
+        <v>18</v>
+      </c>
+      <c r="H235" t="s">
+        <v>19</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>15</v>
+      </c>
+      <c r="K235" t="s">
+        <v>19</v>
+      </c>
+      <c r="M235" t="str">
+        <f t="shared" si="2"/>
+        <v>Telecinco</v>
+      </c>
+      <c r="N235" t="str">
+        <f>VLOOKUP(B235,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#190874</v>
+      </c>
+      <c r="O235">
+        <v>1</v>
+      </c>
+      <c r="P235">
+        <v>1</v>
+      </c>
+      <c r="Q235">
+        <v>0</v>
+      </c>
+      <c r="R235" t="s">
+        <v>20</v>
+      </c>
+      <c r="S235" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Telecinco.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Telecinco| #190874| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>623</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>1600</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236" t="s">
+        <v>18</v>
+      </c>
+      <c r="H236" t="s">
+        <v>19</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>15</v>
+      </c>
+      <c r="K236" t="s">
+        <v>19</v>
+      </c>
+      <c r="M236" t="str">
+        <f t="shared" si="2"/>
+        <v>Telefe</v>
+      </c>
+      <c r="N236" t="str">
+        <f>VLOOKUP(B236,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#D6DBFC</v>
+      </c>
+      <c r="O236">
+        <v>1</v>
+      </c>
+      <c r="P236">
+        <v>1</v>
+      </c>
+      <c r="Q236">
+        <v>0</v>
+      </c>
+      <c r="R236" t="s">
+        <v>20</v>
+      </c>
+      <c r="S236" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Telefe.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Telefe| #D6DBFC| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>623</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>1600</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237" t="s">
+        <v>18</v>
+      </c>
+      <c r="H237" t="s">
+        <v>19</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>15</v>
+      </c>
+      <c r="K237" t="s">
+        <v>19</v>
+      </c>
+      <c r="M237" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Televisión de Galicia</v>
+      </c>
+      <c r="N237" t="str">
+        <f>VLOOKUP(B237,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#156A6E</v>
+      </c>
+      <c r="O237">
+        <v>1</v>
+      </c>
+      <c r="P237">
+        <v>1</v>
+      </c>
+      <c r="Q237">
+        <v>0</v>
+      </c>
+      <c r="R237" t="s">
+        <v>20</v>
+      </c>
+      <c r="S237" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Televisión de Galicia.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Televisión de Galicia| #156A6E| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>623</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>1600</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238" t="s">
+        <v>18</v>
+      </c>
+      <c r="H238" t="s">
+        <v>19</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>15</v>
+      </c>
+      <c r="K238" t="s">
+        <v>19</v>
+      </c>
+      <c r="M238" t="str">
+        <f t="shared" si="2"/>
+        <v>Televisión Pública Argentina</v>
+      </c>
+      <c r="N238" t="str">
+        <f>VLOOKUP(B238,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#F47B8E</v>
+      </c>
+      <c r="O238">
+        <v>1</v>
+      </c>
+      <c r="P238">
+        <v>1</v>
+      </c>
+      <c r="Q238">
+        <v>0</v>
+      </c>
+      <c r="R238" t="s">
+        <v>20</v>
+      </c>
+      <c r="S238" t="str">
+        <f t="shared" si="1"/>
+        <v>' | Televisión Pública Argentina.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Televisión Pública Argentina| #F47B8E| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>623</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>1600</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239" t="s">
+        <v>18</v>
+      </c>
+      <c r="H239" t="s">
+        <v>19</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>15</v>
+      </c>
+      <c r="K239" t="s">
+        <v>19</v>
+      </c>
+      <c r="M239" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>The Roku Channel</v>
+      </c>
+      <c r="N239" t="str">
+        <f>VLOOKUP(B239,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#4C5C75</v>
+      </c>
+      <c r="O239">
+        <v>1</v>
+      </c>
+      <c r="P239">
+        <v>1</v>
+      </c>
+      <c r="Q239">
+        <v>0</v>
+      </c>
+      <c r="R239" t="s">
+        <v>20</v>
+      </c>
+      <c r="S239" t="str">
+        <f t="shared" si="1"/>
+        <v>' | The Roku Channel.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | The Roku Channel| #4C5C75| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>623</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>1600</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240" t="s">
+        <v>18</v>
+      </c>
+      <c r="H240" t="s">
+        <v>19</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>15</v>
+      </c>
+      <c r="K240" t="s">
+        <v>19</v>
+      </c>
+      <c r="M240" t="str">
+        <f t="shared" si="2"/>
+        <v>TV4</v>
+      </c>
+      <c r="N240" t="str">
+        <f>VLOOKUP(B240,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#82E7BF</v>
+      </c>
+      <c r="O240">
+        <v>1</v>
+      </c>
+      <c r="P240">
+        <v>1</v>
+      </c>
+      <c r="Q240">
+        <v>0</v>
+      </c>
+      <c r="R240" t="s">
+        <v>20</v>
+      </c>
+      <c r="S240" t="str">
+        <f t="shared" si="1"/>
+        <v>' | TV4.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | TV4| #82E7BF| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>623</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>1600</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241" t="s">
+        <v>18</v>
+      </c>
+      <c r="H241" t="s">
+        <v>19</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>15</v>
+      </c>
+      <c r="K241" t="s">
+        <v>19</v>
+      </c>
+      <c r="M241" t="str">
+        <f t="shared" si="2"/>
+        <v>TVNZ 1</v>
+      </c>
+      <c r="N241" t="str">
+        <f>VLOOKUP(B241,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#BF8B82</v>
+      </c>
+      <c r="O241">
+        <v>1</v>
+      </c>
+      <c r="P241">
+        <v>1</v>
+      </c>
+      <c r="Q241">
+        <v>0</v>
+      </c>
+      <c r="R241" t="s">
+        <v>20</v>
+      </c>
+      <c r="S241" t="str">
+        <f t="shared" si="1"/>
+        <v>' | TVNZ 1.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | TVNZ 1| #BF8B82| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>623</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>1600</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242" t="s">
+        <v>18</v>
+      </c>
+      <c r="H242" t="s">
+        <v>19</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>15</v>
+      </c>
+      <c r="K242" t="s">
+        <v>19</v>
+      </c>
+      <c r="M242" t="str">
+        <f t="shared" si="2"/>
+        <v>TVP1</v>
+      </c>
+      <c r="N242" t="str">
+        <f>VLOOKUP(B242,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#412AF2</v>
+      </c>
+      <c r="O242">
+        <v>1</v>
+      </c>
+      <c r="P242">
+        <v>1</v>
+      </c>
+      <c r="Q242">
+        <v>0</v>
+      </c>
+      <c r="R242" t="s">
+        <v>20</v>
+      </c>
+      <c r="S242" t="str">
+        <f t="shared" si="1"/>
+        <v>' | TVP1.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | TVP1| #412AF2| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>623</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>1600</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243" t="s">
+        <v>18</v>
+      </c>
+      <c r="H243" t="s">
+        <v>19</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>15</v>
+      </c>
+      <c r="K243" t="s">
+        <v>19</v>
+      </c>
+      <c r="M243" t="str">
+        <f t="shared" si="2"/>
+        <v>Universal TV</v>
+      </c>
+      <c r="N243" t="str">
+        <f>VLOOKUP(B243,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#29D252</v>
+      </c>
+      <c r="O243">
+        <v>1</v>
+      </c>
+      <c r="P243">
+        <v>1</v>
+      </c>
+      <c r="Q243">
+        <v>0</v>
+      </c>
+      <c r="R243" t="s">
+        <v>20</v>
+      </c>
+      <c r="S243" t="str">
+        <f t="shared" ref="S243:S276" si="3">"'"&amp;MID(A243,FIND(MID(TRIM(A243),1,1),A243),LEN(A243))&amp;"| "&amp;MID(B243,FIND(MID(TRIM(B243),1,1),B243),LEN(B243))&amp;"| +"&amp;C243&amp;"| "&amp;D243&amp;"| +"&amp;E243&amp;"| "&amp;MID(F243,FIND(MID(TRIM(F243),1,1),F243),LEN(F243))&amp;"| "&amp;G243&amp;"| "&amp;MID(H243,FIND(MID(TRIM(H243),1,1),H243),LEN(H243))&amp;"| "&amp;I243&amp;"| "&amp;J243&amp;"| "&amp;MID(K243,FIND(MID(TRIM(K243),1,1),K243),LEN(K243))&amp;"| "&amp;L243&amp;"| "&amp;MID(M243,FIND(MID(TRIM(M243),1,1),M243),LEN(M243))&amp;"| "&amp;MID(N243,FIND(MID(TRIM(N243),1,1),N243),LEN(N243))&amp;"| "&amp;MID(O243,FIND(MID(TRIM(O243),1,1),O243),LEN(O243))&amp;"| "&amp;MID(P243,FIND(MID(TRIM(P243),1,1),P243),LEN(P243))&amp;"| "&amp;MID(Q243,FIND(MID(TRIM(Q243),1,1),Q243),LEN(Q243))&amp;"| "&amp;MID(R243,FIND(MID(TRIM(R243),1,1),R243),LEN(R243))</f>
+        <v>' | Universal TV.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Universal TV| #29D252| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>623</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>1600</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244" t="s">
+        <v>18</v>
+      </c>
+      <c r="H244" t="s">
+        <v>19</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>15</v>
+      </c>
+      <c r="K244" t="s">
+        <v>19</v>
+      </c>
+      <c r="M244" t="str">
+        <f t="shared" ref="M244:M249" si="4">SUBSTITUTE(B244,".png","")</f>
+        <v>Virgin Media One</v>
+      </c>
+      <c r="N244" t="str">
+        <f>VLOOKUP(B244,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#79095A</v>
+      </c>
+      <c r="O244">
+        <v>1</v>
+      </c>
+      <c r="P244">
+        <v>1</v>
+      </c>
+      <c r="Q244">
+        <v>0</v>
+      </c>
+      <c r="R244" t="s">
+        <v>20</v>
+      </c>
+      <c r="S244" t="str">
+        <f t="shared" si="3"/>
+        <v>' | Virgin Media One.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Virgin Media One| #79095A| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>623</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>1600</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245" t="s">
+        <v>18</v>
+      </c>
+      <c r="H245" t="s">
+        <v>19</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>15</v>
+      </c>
+      <c r="K245" t="s">
+        <v>19</v>
+      </c>
+      <c r="M245" t="str">
+        <f t="shared" si="4"/>
+        <v>ViX+</v>
+      </c>
+      <c r="N245" t="str">
+        <f>VLOOKUP(B245,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#00AA96</v>
+      </c>
+      <c r="O245">
+        <v>1</v>
+      </c>
+      <c r="P245">
+        <v>1</v>
+      </c>
+      <c r="Q245">
+        <v>0</v>
+      </c>
+      <c r="R245" t="s">
+        <v>20</v>
+      </c>
+      <c r="S245" t="str">
+        <f t="shared" si="3"/>
+        <v>' | ViX+.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | ViX+| #00AA96| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>623</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>1600</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246" t="s">
+        <v>18</v>
+      </c>
+      <c r="H246" t="s">
+        <v>19</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>15</v>
+      </c>
+      <c r="K246" t="s">
+        <v>19</v>
+      </c>
+      <c r="M246" t="str">
+        <f t="shared" si="4"/>
+        <v>VRT 1</v>
+      </c>
+      <c r="N246" t="str">
+        <f>VLOOKUP(B246,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#680F46</v>
+      </c>
+      <c r="O246">
+        <v>1</v>
+      </c>
+      <c r="P246">
+        <v>1</v>
+      </c>
+      <c r="Q246">
+        <v>0</v>
+      </c>
+      <c r="R246" t="s">
+        <v>20</v>
+      </c>
+      <c r="S246" t="str">
+        <f t="shared" si="3"/>
+        <v>' | VRT 1.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | VRT 1| #680F46| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>623</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>1600</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247" t="s">
+        <v>18</v>
+      </c>
+      <c r="H247" t="s">
+        <v>19</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>15</v>
+      </c>
+      <c r="K247" t="s">
+        <v>19</v>
+      </c>
+      <c r="M247" t="str">
+        <f t="shared" si="4"/>
+        <v>VTM</v>
+      </c>
+      <c r="N247" t="str">
+        <f>VLOOKUP(B247,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#9164A7</v>
+      </c>
+      <c r="O247">
+        <v>1</v>
+      </c>
+      <c r="P247">
+        <v>1</v>
+      </c>
+      <c r="Q247">
+        <v>0</v>
+      </c>
+      <c r="R247" t="s">
+        <v>20</v>
+      </c>
+      <c r="S247" t="str">
+        <f t="shared" si="3"/>
+        <v>' | VTM.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | VTM| #9164A7| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>623</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>1600</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248" t="s">
+        <v>18</v>
+      </c>
+      <c r="H248" t="s">
+        <v>19</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>15</v>
+      </c>
+      <c r="K248" t="s">
+        <v>19</v>
+      </c>
+      <c r="M248" t="str">
+        <f t="shared" si="4"/>
+        <v>W</v>
+      </c>
+      <c r="N248" t="str">
+        <f>VLOOKUP(B248,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#E60A55</v>
+      </c>
+      <c r="O248">
+        <v>1</v>
+      </c>
+      <c r="P248">
+        <v>1</v>
+      </c>
+      <c r="Q248">
+        <v>0</v>
+      </c>
+      <c r="R248" t="s">
+        <v>20</v>
+      </c>
+      <c r="S248" t="str">
+        <f t="shared" si="3"/>
+        <v>' | W.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | W| #E60A55| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>623</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>1600</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249" t="s">
+        <v>18</v>
+      </c>
+      <c r="H249" t="s">
+        <v>19</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>15</v>
+      </c>
+      <c r="K249" t="s">
+        <v>19</v>
+      </c>
+      <c r="M249" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>YLE</v>
+      </c>
+      <c r="N249" t="str">
+        <f>VLOOKUP(B249,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#3A8722</v>
+      </c>
+      <c r="O249">
+        <v>1</v>
+      </c>
+      <c r="P249">
+        <v>1</v>
+      </c>
+      <c r="Q249">
+        <v>0</v>
+      </c>
+      <c r="R249" t="s">
+        <v>20</v>
+      </c>
+      <c r="S249" t="str">
+        <f t="shared" si="3"/>
+        <v>' | YLE.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | YLE| #3A8722| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N250" t="e">
+        <f>VLOOKUP(B250,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O250">
+        <v>1</v>
+      </c>
+      <c r="P250">
+        <v>1</v>
+      </c>
+      <c r="Q250">
+        <v>0</v>
+      </c>
+      <c r="R250" t="s">
+        <v>20</v>
+      </c>
+      <c r="S250" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N251" t="e">
+        <f>VLOOKUP(B251,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O251">
+        <v>1</v>
+      </c>
+      <c r="P251">
+        <v>1</v>
+      </c>
+      <c r="Q251">
+        <v>0</v>
+      </c>
+      <c r="R251" t="s">
+        <v>20</v>
+      </c>
+      <c r="S251" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N252" t="e">
+        <f>VLOOKUP(B252,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O252">
+        <v>1</v>
+      </c>
+      <c r="P252">
+        <v>1</v>
+      </c>
+      <c r="Q252">
+        <v>0</v>
+      </c>
+      <c r="R252" t="s">
+        <v>20</v>
+      </c>
+      <c r="S252" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N253" t="e">
+        <f>VLOOKUP(B253,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O253">
+        <v>1</v>
+      </c>
+      <c r="P253">
+        <v>1</v>
+      </c>
+      <c r="Q253">
+        <v>0</v>
+      </c>
+      <c r="R253" t="s">
+        <v>20</v>
+      </c>
+      <c r="S253" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N254" t="e">
+        <f>VLOOKUP(B254,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O254">
+        <v>1</v>
+      </c>
+      <c r="P254">
+        <v>1</v>
+      </c>
+      <c r="Q254">
+        <v>0</v>
+      </c>
+      <c r="R254" t="s">
+        <v>20</v>
+      </c>
+      <c r="S254" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N255" t="e">
+        <f>VLOOKUP(B255,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O255">
+        <v>1</v>
+      </c>
+      <c r="P255">
+        <v>1</v>
+      </c>
+      <c r="Q255">
+        <v>0</v>
+      </c>
+      <c r="R255" t="s">
+        <v>20</v>
+      </c>
+      <c r="S255" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N256" t="e">
+        <f>VLOOKUP(B256,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O256">
+        <v>1</v>
+      </c>
+      <c r="P256">
+        <v>1</v>
+      </c>
+      <c r="Q256">
+        <v>0</v>
+      </c>
+      <c r="R256" t="s">
+        <v>20</v>
+      </c>
+      <c r="S256" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="257" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N257" t="e">
+        <f>VLOOKUP(B257,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O257">
+        <v>1</v>
+      </c>
+      <c r="P257">
+        <v>1</v>
+      </c>
+      <c r="Q257">
+        <v>0</v>
+      </c>
+      <c r="R257" t="s">
+        <v>20</v>
+      </c>
+      <c r="S257" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="258" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N258" t="e">
+        <f>VLOOKUP(B258,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O258">
+        <v>1</v>
+      </c>
+      <c r="P258">
+        <v>1</v>
+      </c>
+      <c r="Q258">
+        <v>0</v>
+      </c>
+      <c r="R258" t="s">
+        <v>20</v>
+      </c>
+      <c r="S258" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="259" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N259" t="e">
+        <f>VLOOKUP(B259,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O259">
+        <v>1</v>
+      </c>
+      <c r="P259">
+        <v>1</v>
+      </c>
+      <c r="Q259">
+        <v>0</v>
+      </c>
+      <c r="R259" t="s">
+        <v>20</v>
+      </c>
+      <c r="S259" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="260" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N260" t="e">
+        <f>VLOOKUP(B260,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O260">
+        <v>1</v>
+      </c>
+      <c r="P260">
+        <v>1</v>
+      </c>
+      <c r="Q260">
+        <v>0</v>
+      </c>
+      <c r="R260" t="s">
+        <v>20</v>
+      </c>
+      <c r="S260" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="261" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N261" t="e">
+        <f>VLOOKUP(B261,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O261">
+        <v>1</v>
+      </c>
+      <c r="P261">
+        <v>1</v>
+      </c>
+      <c r="Q261">
+        <v>0</v>
+      </c>
+      <c r="R261" t="s">
+        <v>20</v>
+      </c>
+      <c r="S261" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="262" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N262" t="e">
+        <f>VLOOKUP(B262,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O262">
+        <v>1</v>
+      </c>
+      <c r="P262">
+        <v>1</v>
+      </c>
+      <c r="Q262">
+        <v>0</v>
+      </c>
+      <c r="R262" t="s">
+        <v>20</v>
+      </c>
+      <c r="S262" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="263" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N263" t="e">
+        <f>VLOOKUP(B263,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O263">
+        <v>1</v>
+      </c>
+      <c r="P263">
+        <v>1</v>
+      </c>
+      <c r="Q263">
+        <v>0</v>
+      </c>
+      <c r="R263" t="s">
+        <v>20</v>
+      </c>
+      <c r="S263" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="264" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N264" t="e">
+        <f>VLOOKUP(B264,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O264">
+        <v>1</v>
+      </c>
+      <c r="P264">
+        <v>1</v>
+      </c>
+      <c r="Q264">
+        <v>0</v>
+      </c>
+      <c r="R264" t="s">
+        <v>20</v>
+      </c>
+      <c r="S264" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="265" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N265" t="e">
+        <f>VLOOKUP(B265,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O265">
+        <v>1</v>
+      </c>
+      <c r="P265">
+        <v>1</v>
+      </c>
+      <c r="Q265">
+        <v>0</v>
+      </c>
+      <c r="R265" t="s">
+        <v>20</v>
+      </c>
+      <c r="S265" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="266" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N266" t="e">
+        <f>VLOOKUP(B266,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O266">
+        <v>1</v>
+      </c>
+      <c r="P266">
+        <v>1</v>
+      </c>
+      <c r="Q266">
+        <v>0</v>
+      </c>
+      <c r="R266" t="s">
+        <v>20</v>
+      </c>
+      <c r="S266" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="267" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N267" t="e">
+        <f>VLOOKUP(B267,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O267">
+        <v>1</v>
+      </c>
+      <c r="P267">
+        <v>1</v>
+      </c>
+      <c r="Q267">
+        <v>0</v>
+      </c>
+      <c r="R267" t="s">
+        <v>20</v>
+      </c>
+      <c r="S267" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="268" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N268" t="e">
+        <f>VLOOKUP(B268,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O268">
+        <v>1</v>
+      </c>
+      <c r="P268">
+        <v>1</v>
+      </c>
+      <c r="Q268">
+        <v>0</v>
+      </c>
+      <c r="R268" t="s">
+        <v>20</v>
+      </c>
+      <c r="S268" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="269" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N269" t="e">
+        <f>VLOOKUP(B269,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O269">
+        <v>1</v>
+      </c>
+      <c r="P269">
+        <v>1</v>
+      </c>
+      <c r="Q269">
+        <v>0</v>
+      </c>
+      <c r="R269" t="s">
+        <v>20</v>
+      </c>
+      <c r="S269" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="270" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N270" t="e">
+        <f>VLOOKUP(B270,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O270">
+        <v>1</v>
+      </c>
+      <c r="P270">
+        <v>1</v>
+      </c>
+      <c r="Q270">
+        <v>0</v>
+      </c>
+      <c r="R270" t="s">
+        <v>20</v>
+      </c>
+      <c r="S270" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="271" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N271" t="e">
+        <f>VLOOKUP(B271,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O271">
+        <v>1</v>
+      </c>
+      <c r="P271">
+        <v>1</v>
+      </c>
+      <c r="Q271">
+        <v>0</v>
+      </c>
+      <c r="R271" t="s">
+        <v>20</v>
+      </c>
+      <c r="S271" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="272" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N272" t="e">
+        <f>VLOOKUP(B272,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O272">
+        <v>1</v>
+      </c>
+      <c r="P272">
+        <v>1</v>
+      </c>
+      <c r="Q272">
+        <v>0</v>
+      </c>
+      <c r="R272" t="s">
+        <v>20</v>
+      </c>
+      <c r="S272" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="273" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N273" t="e">
+        <f>VLOOKUP(B273,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O273">
+        <v>1</v>
+      </c>
+      <c r="P273">
+        <v>1</v>
+      </c>
+      <c r="Q273">
+        <v>0</v>
+      </c>
+      <c r="R273" t="s">
+        <v>20</v>
+      </c>
+      <c r="S273" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="274" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N274" t="e">
+        <f>VLOOKUP(B274,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O274">
+        <v>1</v>
+      </c>
+      <c r="P274">
+        <v>1</v>
+      </c>
+      <c r="Q274">
+        <v>0</v>
+      </c>
+      <c r="R274" t="s">
+        <v>20</v>
+      </c>
+      <c r="S274" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="275" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N275" t="e">
+        <f>VLOOKUP(B275,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O275">
+        <v>1</v>
+      </c>
+      <c r="P275">
+        <v>1</v>
+      </c>
+      <c r="Q275">
+        <v>0</v>
+      </c>
+      <c r="R275" t="s">
+        <v>20</v>
+      </c>
+      <c r="S275" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="276" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N276" t="e">
+        <f>VLOOKUP(B276,Sheet6!$A$41:$C$111,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O276">
+        <v>1</v>
+      </c>
+      <c r="P276">
+        <v>1</v>
+      </c>
+      <c r="Q276">
+        <v>0</v>
+      </c>
+      <c r="R276" t="s">
+        <v>20</v>
+      </c>
+      <c r="S276" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:S144" xr:uid="{185220E8-1934-454F-B9D7-C7470B861D27}">
+  <autoFilter ref="A1:S276" xr:uid="{185220E8-1934-454F-B9D7-C7470B861D27}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S144">
       <sortCondition ref="B1:B144"/>
     </sortState>
@@ -17148,7 +22355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6200E9-CEA8-4731-90C9-DABDBA046934}">
   <dimension ref="A2:R238"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -30448,11 +35655,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38768033-9AE9-460B-9E80-170D125A9D1D}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A2:E40"/>
+  <dimension ref="A2:E111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C40"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30464,7 +35670,7 @@
     <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1205</v>
       </c>
@@ -30536,7 +35742,7 @@
         <v>BALKAN</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1209</v>
       </c>
@@ -30587,7 +35793,7 @@
         <v>CANADIAN</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1212</v>
       </c>
@@ -30995,7 +36201,7 @@
         <v>MIDDLE_EASTERN</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1232</v>
       </c>
@@ -31130,7 +36336,7 @@
         <v>SOUTHERN_AFRICAN</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1239</v>
       </c>
@@ -31223,14 +36429,780 @@
         <v>WESTERN_AFRICAN</v>
       </c>
     </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1622</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B40" xr:uid="{38768033-9AE9-460B-9E80-170D125A9D1D}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="#N/A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:B40" xr:uid="{38768033-9AE9-460B-9E80-170D125A9D1D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/create_defaults/template.xlsx
+++ b/create_defaults/template.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\TEST\create_defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8240A67-6420-40AB-A00B-CA655061D200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC8DBC1-9809-4E69-ACC8-B961BB3418EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="13620" xr2:uid="{C0516283-7CFC-4E92-8F0B-F8DC43661E92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26880" windowHeight="12465" activeTab="1" xr2:uid="{C0516283-7CFC-4E92-8F0B-F8DC43661E92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$276</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet5!$A$1:$T$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet6!$A$1:$B$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet5!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet6!$A$1:$B$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7346" uniqueCount="1855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8512" uniqueCount="2226">
   <si>
     <t>key_name</t>
   </si>
@@ -5610,6 +5611,1119 @@
   </si>
   <si>
     <t>#FCC7A3</t>
+  </si>
+  <si>
+    <t>Absurdism.png</t>
+  </si>
+  <si>
+    <t>Adult Cartoon.png</t>
+  </si>
+  <si>
+    <t>Alien.png</t>
+  </si>
+  <si>
+    <t>Alternate History.png</t>
+  </si>
+  <si>
+    <t>Animal.png</t>
+  </si>
+  <si>
+    <t>Animated Short.png</t>
+  </si>
+  <si>
+    <t>Anthology.png</t>
+  </si>
+  <si>
+    <t>Anti-Hero.png</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence.png</t>
+  </si>
+  <si>
+    <t>Betrayal.png</t>
+  </si>
+  <si>
+    <t>Boxing.png</t>
+  </si>
+  <si>
+    <t>Bug.png</t>
+  </si>
+  <si>
+    <t>Caper.png</t>
+  </si>
+  <si>
+    <t>Chick Flick.png</t>
+  </si>
+  <si>
+    <t>Coming of Age.png</t>
+  </si>
+  <si>
+    <t>Cop.png</t>
+  </si>
+  <si>
+    <t>Costume Drama.png</t>
+  </si>
+  <si>
+    <t>Courtroom.png</t>
+  </si>
+  <si>
+    <t>Cyberpunk.png</t>
+  </si>
+  <si>
+    <t>Dark Fantasy.png</t>
+  </si>
+  <si>
+    <t>Detective.png</t>
+  </si>
+  <si>
+    <t>Dinosaur.png</t>
+  </si>
+  <si>
+    <t>Dragon.png</t>
+  </si>
+  <si>
+    <t>Dramedy.png</t>
+  </si>
+  <si>
+    <t>Engineering Disaster.png</t>
+  </si>
+  <si>
+    <t>Epic.png</t>
+  </si>
+  <si>
+    <t>Espionage.png</t>
+  </si>
+  <si>
+    <t>Experimental.png</t>
+  </si>
+  <si>
+    <t>Fairy Tale.png</t>
+  </si>
+  <si>
+    <t>Foreign.png</t>
+  </si>
+  <si>
+    <t>Fugitive.png</t>
+  </si>
+  <si>
+    <t>Ghost.png</t>
+  </si>
+  <si>
+    <t>Gothic.png</t>
+  </si>
+  <si>
+    <t>Heartbreak.png</t>
+  </si>
+  <si>
+    <t>Historical Event.png</t>
+  </si>
+  <si>
+    <t>Historical Fiction.png</t>
+  </si>
+  <si>
+    <t>Hostage.png</t>
+  </si>
+  <si>
+    <t>Hustle.png</t>
+  </si>
+  <si>
+    <t>Melodrama.png</t>
+  </si>
+  <si>
+    <t>Mockumentary.png</t>
+  </si>
+  <si>
+    <t>Monster.png</t>
+  </si>
+  <si>
+    <t>Mythology.png</t>
+  </si>
+  <si>
+    <t>Naval.png</t>
+  </si>
+  <si>
+    <t>Ninja.png</t>
+  </si>
+  <si>
+    <t>Occult.png</t>
+  </si>
+  <si>
+    <t>Outlaw.png</t>
+  </si>
+  <si>
+    <t>Period Drama.png</t>
+  </si>
+  <si>
+    <t>Philosophy.png</t>
+  </si>
+  <si>
+    <t>Plant.png</t>
+  </si>
+  <si>
+    <t>Prehistoric.png</t>
+  </si>
+  <si>
+    <t>Religion.png</t>
+  </si>
+  <si>
+    <t>Remake.png</t>
+  </si>
+  <si>
+    <t>Revenge.png</t>
+  </si>
+  <si>
+    <t>Robot.png</t>
+  </si>
+  <si>
+    <t>Satire.png</t>
+  </si>
+  <si>
+    <t>Space Opera.png</t>
+  </si>
+  <si>
+    <t>Spaghetti Western.png</t>
+  </si>
+  <si>
+    <t>Splatter.png</t>
+  </si>
+  <si>
+    <t>Steampunk.png</t>
+  </si>
+  <si>
+    <t>Stop-Motion.png</t>
+  </si>
+  <si>
+    <t>Surrealism.png</t>
+  </si>
+  <si>
+    <t>Swashbuckler.png</t>
+  </si>
+  <si>
+    <t>Sword &amp; Sandal.png</t>
+  </si>
+  <si>
+    <t>Time Travel.png</t>
+  </si>
+  <si>
+    <t>Treasure Hunt.png</t>
+  </si>
+  <si>
+    <t>True Crime.png</t>
+  </si>
+  <si>
+    <t>Urban Fantasy.png</t>
+  </si>
+  <si>
+    <t>Utopia.png</t>
+  </si>
+  <si>
+    <t>Werewolf.png</t>
+  </si>
+  <si>
+    <t>Whodunit.png</t>
+  </si>
+  <si>
+    <t>Wizardry &amp; Witchcraft.png</t>
+  </si>
+  <si>
+    <t>World War.png</t>
+  </si>
+  <si>
+    <t>Children''s Cartoon.png</t>
+  </si>
+  <si>
+    <t>ABSURDISM</t>
+  </si>
+  <si>
+    <t>ADULT_CARTOON</t>
+  </si>
+  <si>
+    <t>ALIEN</t>
+  </si>
+  <si>
+    <t>ALTERNATE_HISTORY</t>
+  </si>
+  <si>
+    <t>ANIMAL</t>
+  </si>
+  <si>
+    <t>ANIMATED_SHORT</t>
+  </si>
+  <si>
+    <t>ANTHOLOGY</t>
+  </si>
+  <si>
+    <t>ANTI-HERO</t>
+  </si>
+  <si>
+    <t>ARTIFICIAL_INTELLIGENCE</t>
+  </si>
+  <si>
+    <t>BETRAYAL</t>
+  </si>
+  <si>
+    <t>BOXING</t>
+  </si>
+  <si>
+    <t>BUG</t>
+  </si>
+  <si>
+    <t>CAPER</t>
+  </si>
+  <si>
+    <t>CHICK_FLICK</t>
+  </si>
+  <si>
+    <t>CHILDREN''S_CARTOON</t>
+  </si>
+  <si>
+    <t>COMING_OF_AGE</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>COSTUME_DRAMA</t>
+  </si>
+  <si>
+    <t>COURTROOM</t>
+  </si>
+  <si>
+    <t>CYBERPUNK</t>
+  </si>
+  <si>
+    <t>DARK_FANTASY</t>
+  </si>
+  <si>
+    <t>DETECTIVE</t>
+  </si>
+  <si>
+    <t>DINOSAUR</t>
+  </si>
+  <si>
+    <t>DRAGON</t>
+  </si>
+  <si>
+    <t>DRAMEDY</t>
+  </si>
+  <si>
+    <t>ENGINEERING_DISASTER</t>
+  </si>
+  <si>
+    <t>EPIC</t>
+  </si>
+  <si>
+    <t>ESPIONAGE</t>
+  </si>
+  <si>
+    <t>EXPERIMENTAL</t>
+  </si>
+  <si>
+    <t>FAIRY_TALE</t>
+  </si>
+  <si>
+    <t>FOREIGN</t>
+  </si>
+  <si>
+    <t>FUGITIVE</t>
+  </si>
+  <si>
+    <t>GHOST</t>
+  </si>
+  <si>
+    <t>GOTHIC</t>
+  </si>
+  <si>
+    <t>HEARTBREAK</t>
+  </si>
+  <si>
+    <t>HISTORICAL_EVENT</t>
+  </si>
+  <si>
+    <t>HISTORICAL_FICTION</t>
+  </si>
+  <si>
+    <t>HOSTAGE</t>
+  </si>
+  <si>
+    <t>HUSTLE</t>
+  </si>
+  <si>
+    <t>MELODRAMA</t>
+  </si>
+  <si>
+    <t>MOCKUMENTARY</t>
+  </si>
+  <si>
+    <t>MONSTER</t>
+  </si>
+  <si>
+    <t>MYTHOLOGY</t>
+  </si>
+  <si>
+    <t>NAVAL</t>
+  </si>
+  <si>
+    <t>NINJA</t>
+  </si>
+  <si>
+    <t>OCCULT</t>
+  </si>
+  <si>
+    <t>OUTLAW</t>
+  </si>
+  <si>
+    <t>PERIOD_DRAMA</t>
+  </si>
+  <si>
+    <t>PHILOSOPHY</t>
+  </si>
+  <si>
+    <t>PLANT</t>
+  </si>
+  <si>
+    <t>PREHISTORIC</t>
+  </si>
+  <si>
+    <t>RELIGION</t>
+  </si>
+  <si>
+    <t>REMAKE</t>
+  </si>
+  <si>
+    <t>REVENGE</t>
+  </si>
+  <si>
+    <t>ROBOT</t>
+  </si>
+  <si>
+    <t>SATIRE</t>
+  </si>
+  <si>
+    <t>SPACE_OPERA</t>
+  </si>
+  <si>
+    <t>SPAGHETTI_WESTERN</t>
+  </si>
+  <si>
+    <t>SPLATTER</t>
+  </si>
+  <si>
+    <t>STEAMPUNK</t>
+  </si>
+  <si>
+    <t>STOP-MOTION</t>
+  </si>
+  <si>
+    <t>SURREALISM</t>
+  </si>
+  <si>
+    <t>SWASHBUCKLER</t>
+  </si>
+  <si>
+    <t>SWORD_&amp;_SANDAL</t>
+  </si>
+  <si>
+    <t>TIME_TRAVEL</t>
+  </si>
+  <si>
+    <t>TREASURE_HUNT</t>
+  </si>
+  <si>
+    <t>TRUE_CRIME</t>
+  </si>
+  <si>
+    <t>URBAN_FANTASY</t>
+  </si>
+  <si>
+    <t>UTOPIA</t>
+  </si>
+  <si>
+    <t>WEREWOLF</t>
+  </si>
+  <si>
+    <t>WHODUNIT</t>
+  </si>
+  <si>
+    <t>WIZARDRY_&amp;_WITCHCRAFT</t>
+  </si>
+  <si>
+    <t>WORLD_WAR</t>
+  </si>
+  <si>
+    <t>absurdism</t>
+  </si>
+  <si>
+    <t>adult_cartoon</t>
+  </si>
+  <si>
+    <t>alien</t>
+  </si>
+  <si>
+    <t>alternate_history</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>animated_short</t>
+  </si>
+  <si>
+    <t>anthology</t>
+  </si>
+  <si>
+    <t>anti-hero</t>
+  </si>
+  <si>
+    <t>artificial_intelligence</t>
+  </si>
+  <si>
+    <t>betrayal</t>
+  </si>
+  <si>
+    <t>boxing</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>caper</t>
+  </si>
+  <si>
+    <t>chick_flick</t>
+  </si>
+  <si>
+    <t>coming_of_age</t>
+  </si>
+  <si>
+    <t>cop</t>
+  </si>
+  <si>
+    <t>costume_drama</t>
+  </si>
+  <si>
+    <t>courtroom</t>
+  </si>
+  <si>
+    <t>cyberpunk</t>
+  </si>
+  <si>
+    <t>dark_fantasy</t>
+  </si>
+  <si>
+    <t>detective</t>
+  </si>
+  <si>
+    <t>dinosaur</t>
+  </si>
+  <si>
+    <t>dragon</t>
+  </si>
+  <si>
+    <t>dramedy</t>
+  </si>
+  <si>
+    <t>engineering_disaster</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>espionage</t>
+  </si>
+  <si>
+    <t>experimental</t>
+  </si>
+  <si>
+    <t>fairy_tale</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>fugitive</t>
+  </si>
+  <si>
+    <t>ghost</t>
+  </si>
+  <si>
+    <t>gothic</t>
+  </si>
+  <si>
+    <t>heartbreak</t>
+  </si>
+  <si>
+    <t>historical_event</t>
+  </si>
+  <si>
+    <t>historical_fiction</t>
+  </si>
+  <si>
+    <t>hostage</t>
+  </si>
+  <si>
+    <t>hustle</t>
+  </si>
+  <si>
+    <t>melodrama</t>
+  </si>
+  <si>
+    <t>mockumentary</t>
+  </si>
+  <si>
+    <t>monster</t>
+  </si>
+  <si>
+    <t>mythology</t>
+  </si>
+  <si>
+    <t>naval</t>
+  </si>
+  <si>
+    <t>ninja</t>
+  </si>
+  <si>
+    <t>occult</t>
+  </si>
+  <si>
+    <t>outlaw</t>
+  </si>
+  <si>
+    <t>period_drama</t>
+  </si>
+  <si>
+    <t>philosophy</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>prehistoric</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>remake</t>
+  </si>
+  <si>
+    <t>revenge</t>
+  </si>
+  <si>
+    <t>robot</t>
+  </si>
+  <si>
+    <t>satire</t>
+  </si>
+  <si>
+    <t>space_opera</t>
+  </si>
+  <si>
+    <t>spaghetti_western</t>
+  </si>
+  <si>
+    <t>splatter</t>
+  </si>
+  <si>
+    <t>steampunk</t>
+  </si>
+  <si>
+    <t>stop-motion</t>
+  </si>
+  <si>
+    <t>surrealism</t>
+  </si>
+  <si>
+    <t>swashbuckler</t>
+  </si>
+  <si>
+    <t>time_travel</t>
+  </si>
+  <si>
+    <t>treasure_hunt</t>
+  </si>
+  <si>
+    <t>true_crime</t>
+  </si>
+  <si>
+    <t>urban_fantasy</t>
+  </si>
+  <si>
+    <t>utopia</t>
+  </si>
+  <si>
+    <t>werewolf</t>
+  </si>
+  <si>
+    <t>whodunit</t>
+  </si>
+  <si>
+    <t>world_war</t>
+  </si>
+  <si>
+    <t>Absurdism</t>
+  </si>
+  <si>
+    <t>Adult Cartoon</t>
+  </si>
+  <si>
+    <t>Alien</t>
+  </si>
+  <si>
+    <t>Alternate History</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>Animated Short</t>
+  </si>
+  <si>
+    <t>Anthology</t>
+  </si>
+  <si>
+    <t>Anti-Hero</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Betrayal</t>
+  </si>
+  <si>
+    <t>Boxing</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Caper</t>
+  </si>
+  <si>
+    <t>Chick Flick</t>
+  </si>
+  <si>
+    <t>Coming of Age</t>
+  </si>
+  <si>
+    <t>Cop</t>
+  </si>
+  <si>
+    <t>Costume Drama</t>
+  </si>
+  <si>
+    <t>Courtroom</t>
+  </si>
+  <si>
+    <t>Cyberpunk</t>
+  </si>
+  <si>
+    <t>Dark Fantasy</t>
+  </si>
+  <si>
+    <t>Detective</t>
+  </si>
+  <si>
+    <t>Dinosaur</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Dramedy</t>
+  </si>
+  <si>
+    <t>Engineering Disaster</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Espionage</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Fairy Tale</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>Fugitive</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>Gothic</t>
+  </si>
+  <si>
+    <t>Heartbreak</t>
+  </si>
+  <si>
+    <t>Historical Event</t>
+  </si>
+  <si>
+    <t>Historical Fiction</t>
+  </si>
+  <si>
+    <t>Hostage</t>
+  </si>
+  <si>
+    <t>Hustle</t>
+  </si>
+  <si>
+    <t>Melodrama</t>
+  </si>
+  <si>
+    <t>Mockumentary</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>Mythology</t>
+  </si>
+  <si>
+    <t>Naval</t>
+  </si>
+  <si>
+    <t>Ninja</t>
+  </si>
+  <si>
+    <t>Occult</t>
+  </si>
+  <si>
+    <t>Outlaw</t>
+  </si>
+  <si>
+    <t>Period Drama</t>
+  </si>
+  <si>
+    <t>Philosophy</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>Prehistoric</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Remake</t>
+  </si>
+  <si>
+    <t>Revenge</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Satire</t>
+  </si>
+  <si>
+    <t>Space Opera</t>
+  </si>
+  <si>
+    <t>Spaghetti Western</t>
+  </si>
+  <si>
+    <t>Splatter</t>
+  </si>
+  <si>
+    <t>Steampunk</t>
+  </si>
+  <si>
+    <t>Stop-Motion</t>
+  </si>
+  <si>
+    <t>Surrealism</t>
+  </si>
+  <si>
+    <t>Swashbuckler</t>
+  </si>
+  <si>
+    <t>Sword &amp; Sandal</t>
+  </si>
+  <si>
+    <t>Time Travel</t>
+  </si>
+  <si>
+    <t>Treasure Hunt</t>
+  </si>
+  <si>
+    <t>True Crime</t>
+  </si>
+  <si>
+    <t>Urban Fantasy</t>
+  </si>
+  <si>
+    <t>Utopia</t>
+  </si>
+  <si>
+    <t>Werewolf</t>
+  </si>
+  <si>
+    <t>Whodunit</t>
+  </si>
+  <si>
+    <t>Wizardry &amp; Witchcraft</t>
+  </si>
+  <si>
+    <t>World War</t>
+  </si>
+  <si>
+    <t>,"Action &amp; Adventure","Action &amp; Adventure","","False","key_names-&gt;action_adventure","",""</t>
+  </si>
+  <si>
+    <t>"","</t>
+  </si>
+  <si>
+    <t>","</t>
+  </si>
+  <si>
+    <t>","","False","key_names-&gt;</t>
+  </si>
+  <si>
+    <t>Children's Cartoon</t>
+  </si>
+  <si>
+    <t>childrens_cartoon</t>
+  </si>
+  <si>
+    <t>sword_sandal</t>
+  </si>
+  <si>
+    <t>wizardry_witchcraft</t>
+  </si>
+  <si>
+    <t>","",""</t>
+  </si>
+  <si>
+    <t>Absurdism.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Absurdism| #032E2E| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Adult Cartoon.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Adult Cartoon| #D49BD5| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Alien.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Alien| #88C9B2| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Alternate History.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Alternate History| #8C47AA| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Animal.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Animal| #04E7FE| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Animated Short.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Animated Short| #F60AD3| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Anthology.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Anthology| #BF413F| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Anti-Hero.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Anti-Hero| #2B319B| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Artificial Intelligence| #299206| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Betrayal.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Betrayal| #06CE03| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Boxing.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Boxing| #3DB73F| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Bug.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Bug| #5C4D4F| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Caper.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Caper| #C575C1| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Chick Flick.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Chick Flick| #7992F1| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Children's Cartoon.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Children's Cartoon| #A65AB7| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Coming of Age.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Coming of Age| #A57660| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Cop.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Cop| #6E5902| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Costume Drama.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Costume Drama| #482B67| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Courtroom.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Courtroom| #91EAF0| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Cyberpunk.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Cyberpunk| #0A0D7E| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Dark Fantasy.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Dark Fantasy| #CAC96E| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Detective.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Detective| #611FEF| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Dinosaur.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Dinosaur| #38129E| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Dragon.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Dragon| #9EB798| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Dramedy.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Dramedy| #CF5A61| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Engineering Disaster.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Engineering Disaster| #E82CB5| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Epic.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Epic| #7FE464| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Espionage.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Espionage| #35E254| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Experimental.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Experimental| #4BB407| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Fairy Tale.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Fairy Tale| #FF8BBA| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Foreign.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Foreign| #F5D4C7| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Fugitive.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Fugitive| #00B8C2| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Ghost.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Ghost| #4362D3| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Gothic.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Gothic| #EDFAE9| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Heartbreak.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Heartbreak| #73A493| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Historical Event.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Historical Event| #44C099| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Historical Fiction.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Historical Fiction| #549503| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Hostage.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Hostage| #11C755| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Hustle.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Hustle| #FAE67F| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Melodrama.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Melodrama| #6F4D62| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Mockumentary.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Mockumentary| #5994A0| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Monster.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Monster| #E8A33C| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Mythology.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Mythology| #EEC389| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Naval.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Naval| #ECF6FA| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Ninja.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Ninja| #ADFFD3| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Occult.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Occult| #8AA22C| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Outlaw.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Outlaw| #E4F4E8| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Period Drama.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Period Drama| #B7A3A8| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Philosophy.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Philosophy| #B30B6B| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Plant.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Plant| #EE7B1A| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Prehistoric.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Prehistoric| #CB5825| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Religion.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Religion| #7F8D16| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Remake.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Remake| #2496B3| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Revenge.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Revenge| #8484E1| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Robot.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Robot| #B1050D| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Satire.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Satire| #0E8E35| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Space Opera.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Space Opera| #D2522B| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Spaghetti Western.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Spaghetti Western| #2ABAB3| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Splatter.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Splatter| #416939| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Steampunk.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Steampunk| #B102D8| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Stop-Motion.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Stop-Motion| #277D79| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Surrealism.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Surrealism| #F66626| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Swashbuckler.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Swashbuckler| #E74867| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Sword &amp; Sandal.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Sword &amp; Sandal| #BD8DDB| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Time Travel.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Time Travel| #2C3294| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Treasure Hunt.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Treasure Hunt| #AFBE09| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>True Crime.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | True Crime| #C706DE| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Urban Fantasy.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Urban Fantasy| #0E7018| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Utopia.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Utopia| #81E8E5| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Werewolf.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Werewolf| #836CB6| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Whodunit.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Whodunit| #2E4DA9| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>Wizardry &amp; Witchcraft.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Wizardry &amp; Witchcraft| #77E0AA| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t>World War.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | World War| #336188| 1| 1| 0| 1',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| </t>
   </si>
 </sst>
 </file>
@@ -5684,17 +6798,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6035,10 +7139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185220E8-1934-454F-B9D7-C7470B861D27}">
-  <dimension ref="A1:S295"/>
+  <dimension ref="A1:S366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S277" workbookViewId="0">
-      <selection activeCell="S250" sqref="S250:S293"/>
+    <sheetView topLeftCell="G291" workbookViewId="0">
+      <selection activeCell="S366" sqref="S294:S366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13214,7 +14318,7 @@
         <v>20</v>
       </c>
       <c r="S130" t="str">
-        <f t="shared" ref="S130:S161" si="4">"'"&amp;MID(A130,FIND(MID(TRIM(A130),1,1),A130),LEN(A130))&amp;"| "&amp;MID(B130,FIND(MID(TRIM(B130),1,1),B130),LEN(B130))&amp;"| +"&amp;C130&amp;"| "&amp;D130&amp;"| +"&amp;E130&amp;"| "&amp;MID(F130,FIND(MID(TRIM(F130),1,1),F130),LEN(F130))&amp;"| "&amp;G130&amp;"| "&amp;MID(H130,FIND(MID(TRIM(H130),1,1),H130),LEN(H130))&amp;"| "&amp;I130&amp;"| "&amp;J130&amp;"| "&amp;MID(K130,FIND(MID(TRIM(K130),1,1),K130),LEN(K130))&amp;"| "&amp;L130&amp;"| "&amp;MID(M130,FIND(MID(TRIM(M130),1,1),M130),LEN(M130))&amp;"| "&amp;MID(N130,FIND(MID(TRIM(N130),1,1),N130),LEN(N130))&amp;"| "&amp;MID(O130,FIND(MID(TRIM(O130),1,1),O130),LEN(O130))&amp;"| "&amp;MID(P130,FIND(MID(TRIM(P130),1,1),P130),LEN(P130))&amp;"| "&amp;MID(Q130,FIND(MID(TRIM(Q130),1,1),Q130),LEN(Q130))&amp;"| "&amp;MID(R130,FIND(MID(TRIM(R130),1,1),R130),LEN(R130))</f>
+        <f t="shared" ref="S130:S144" si="4">"'"&amp;MID(A130,FIND(MID(TRIM(A130),1,1),A130),LEN(A130))&amp;"| "&amp;MID(B130,FIND(MID(TRIM(B130),1,1),B130),LEN(B130))&amp;"| +"&amp;C130&amp;"| "&amp;D130&amp;"| +"&amp;E130&amp;"| "&amp;MID(F130,FIND(MID(TRIM(F130),1,1),F130),LEN(F130))&amp;"| "&amp;G130&amp;"| "&amp;MID(H130,FIND(MID(TRIM(H130),1,1),H130),LEN(H130))&amp;"| "&amp;I130&amp;"| "&amp;J130&amp;"| "&amp;MID(K130,FIND(MID(TRIM(K130),1,1),K130),LEN(K130))&amp;"| "&amp;L130&amp;"| "&amp;MID(M130,FIND(MID(TRIM(M130),1,1),M130),LEN(M130))&amp;"| "&amp;MID(N130,FIND(MID(TRIM(N130),1,1),N130),LEN(N130))&amp;"| "&amp;MID(O130,FIND(MID(TRIM(O130),1,1),O130),LEN(O130))&amp;"| "&amp;MID(P130,FIND(MID(TRIM(P130),1,1),P130),LEN(P130))&amp;"| "&amp;MID(Q130,FIND(MID(TRIM(Q130),1,1),Q130),LEN(Q130))&amp;"| "&amp;MID(R130,FIND(MID(TRIM(R130),1,1),R130),LEN(R130))</f>
         <v>'TURKMENISTAN| tm.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Turkmenistan| #FC3E09| 1| 1| 0| 0',</v>
       </c>
     </row>
@@ -19494,7 +20598,7 @@
         <v>20</v>
       </c>
       <c r="S243" t="str">
-        <f t="shared" ref="S243:S276" si="8">"'"&amp;MID(A243,FIND(MID(TRIM(A243),1,1),A243),LEN(A243))&amp;"| "&amp;MID(B243,FIND(MID(TRIM(B243),1,1),B243),LEN(B243))&amp;"| +"&amp;C243&amp;"| "&amp;D243&amp;"| +"&amp;E243&amp;"| "&amp;MID(F243,FIND(MID(TRIM(F243),1,1),F243),LEN(F243))&amp;"| "&amp;G243&amp;"| "&amp;MID(H243,FIND(MID(TRIM(H243),1,1),H243),LEN(H243))&amp;"| "&amp;I243&amp;"| "&amp;J243&amp;"| "&amp;MID(K243,FIND(MID(TRIM(K243),1,1),K243),LEN(K243))&amp;"| "&amp;L243&amp;"| "&amp;MID(M243,FIND(MID(TRIM(M243),1,1),M243),LEN(M243))&amp;"| "&amp;MID(N243,FIND(MID(TRIM(N243),1,1),N243),LEN(N243))&amp;"| "&amp;MID(O243,FIND(MID(TRIM(O243),1,1),O243),LEN(O243))&amp;"| "&amp;MID(P243,FIND(MID(TRIM(P243),1,1),P243),LEN(P243))&amp;"| "&amp;MID(Q243,FIND(MID(TRIM(Q243),1,1),Q243),LEN(Q243))&amp;"| "&amp;MID(R243,FIND(MID(TRIM(R243),1,1),R243),LEN(R243))</f>
+        <f t="shared" ref="S243:S249" si="8">"'"&amp;MID(A243,FIND(MID(TRIM(A243),1,1),A243),LEN(A243))&amp;"| "&amp;MID(B243,FIND(MID(TRIM(B243),1,1),B243),LEN(B243))&amp;"| +"&amp;C243&amp;"| "&amp;D243&amp;"| +"&amp;E243&amp;"| "&amp;MID(F243,FIND(MID(TRIM(F243),1,1),F243),LEN(F243))&amp;"| "&amp;G243&amp;"| "&amp;MID(H243,FIND(MID(TRIM(H243),1,1),H243),LEN(H243))&amp;"| "&amp;I243&amp;"| "&amp;J243&amp;"| "&amp;MID(K243,FIND(MID(TRIM(K243),1,1),K243),LEN(K243))&amp;"| "&amp;L243&amp;"| "&amp;MID(M243,FIND(MID(TRIM(M243),1,1),M243),LEN(M243))&amp;"| "&amp;MID(N243,FIND(MID(TRIM(N243),1,1),N243),LEN(N243))&amp;"| "&amp;MID(O243,FIND(MID(TRIM(O243),1,1),O243),LEN(O243))&amp;"| "&amp;MID(P243,FIND(MID(TRIM(P243),1,1),P243),LEN(P243))&amp;"| "&amp;MID(Q243,FIND(MID(TRIM(Q243),1,1),Q243),LEN(Q243))&amp;"| "&amp;MID(R243,FIND(MID(TRIM(R243),1,1),R243),LEN(R243))</f>
         <v>' | Universal TV.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Universal TV| #29D252| 1| 1| 0| 0',</v>
       </c>
     </row>
@@ -22298,15 +23402,73 @@
         <v>'WITCH| Witch.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Witch| #C958AC| 1| 1| 0| 1',</v>
       </c>
     </row>
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C294">
+        <v>-500</v>
+      </c>
+      <c r="D294">
+        <v>1800</v>
+      </c>
+      <c r="E294">
+        <v>850</v>
+      </c>
+      <c r="F294" t="s">
+        <v>18</v>
+      </c>
+      <c r="H294" t="s">
+        <v>19</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>15</v>
+      </c>
+      <c r="K294" t="s">
+        <v>19</v>
+      </c>
+      <c r="M294" s="2" t="str">
+        <f t="shared" ref="M294:M357" si="12">SUBSTITUTE(B294,".png","")</f>
+        <v>Absurdism</v>
+      </c>
+      <c r="O294">
+        <v>1</v>
+      </c>
+      <c r="P294">
+        <v>1</v>
+      </c>
+      <c r="Q294">
+        <v>0</v>
+      </c>
+      <c r="R294" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S294" t="str">
+        <f t="shared" ref="S294:S357" si="13">"'"&amp;MID(A294,FIND(MID(TRIM(A294),1,1),A294),LEN(A294))&amp;"| "&amp;MID(B294,FIND(MID(TRIM(B294),1,1),B294),LEN(B294))&amp;"| +"&amp;C294&amp;"| "&amp;D294&amp;"| +"&amp;E294&amp;"| "&amp;MID(F294,FIND(MID(TRIM(F294),1,1),F294),LEN(F294))&amp;"| "&amp;G294&amp;"| "&amp;MID(H294,FIND(MID(TRIM(H294),1,1),H294),LEN(H294))&amp;"| "&amp;I294&amp;"| "&amp;J294&amp;"| "&amp;MID(K294,FIND(MID(TRIM(K294),1,1),K294),LEN(K294))&amp;"| "&amp;L294&amp;"| "&amp;MID(M294,FIND(MID(TRIM(M294),1,1),M294),LEN(M294))&amp;"| "&amp;MID(N294,FIND(MID(TRIM(N294),1,1),N294),LEN(N294))&amp;"| "&amp;MID(O294,FIND(MID(TRIM(O294),1,1),O294),LEN(O294))&amp;"| "&amp;MID(P294,FIND(MID(TRIM(P294),1,1),P294),LEN(P294))&amp;"| "&amp;MID(Q294,FIND(MID(TRIM(Q294),1,1),Q294),LEN(Q294))&amp;"| "&amp;MID(R294,FIND(MID(TRIM(R294),1,1),R294),LEN(R294))</f>
+        <v>'ABSURDISM| Absurdism.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Absurdism| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
     <row r="295" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1856</v>
+      </c>
       <c r="C295">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D295">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="E295">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="F295" t="s">
         <v>18</v>
@@ -22324,8 +23486,8 @@
         <v>19</v>
       </c>
       <c r="M295" s="2" t="str">
-        <f t="shared" ref="M295" si="12">SUBSTITUTE(B295,".png","")</f>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>Adult Cartoon</v>
       </c>
       <c r="O295">
         <v>1</v>
@@ -22337,11 +23499,3703 @@
         <v>0</v>
       </c>
       <c r="R295" t="s">
-        <v>20</v>
+        <v>1747</v>
       </c>
       <c r="S295" t="str">
-        <f t="shared" ref="S295" si="13">"'"&amp;MID(A295,FIND(MID(TRIM(A295),1,1),A295),LEN(A295))&amp;"| "&amp;MID(B295,FIND(MID(TRIM(B295),1,1),B295),LEN(B295))&amp;"| +"&amp;C295&amp;"| "&amp;D295&amp;"| +"&amp;E295&amp;"| "&amp;MID(F295,FIND(MID(TRIM(F295),1,1),F295),LEN(F295))&amp;"| "&amp;G295&amp;"| "&amp;MID(H295,FIND(MID(TRIM(H295),1,1),H295),LEN(H295))&amp;"| "&amp;I295&amp;"| "&amp;J295&amp;"| "&amp;MID(K295,FIND(MID(TRIM(K295),1,1),K295),LEN(K295))&amp;"| "&amp;L295&amp;"| "&amp;MID(M295,FIND(MID(TRIM(M295),1,1),M295),LEN(M295))&amp;"| "&amp;MID(N295,FIND(MID(TRIM(N295),1,1),N295),LEN(N295))&amp;"| "&amp;MID(O295,FIND(MID(TRIM(O295),1,1),O295),LEN(O295))&amp;"| "&amp;MID(P295,FIND(MID(TRIM(P295),1,1),P295),LEN(P295))&amp;"| "&amp;MID(Q295,FIND(MID(TRIM(Q295),1,1),Q295),LEN(Q295))&amp;"| "&amp;MID(R295,FIND(MID(TRIM(R295),1,1),R295),LEN(R295))</f>
-        <v>'| | +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | | | 1| 1| 0| 0',</v>
+        <f t="shared" si="13"/>
+        <v>'ADULT_CARTOON| Adult Cartoon.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Adult Cartoon| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C296">
+        <v>-500</v>
+      </c>
+      <c r="D296">
+        <v>1800</v>
+      </c>
+      <c r="E296">
+        <v>850</v>
+      </c>
+      <c r="F296" t="s">
+        <v>18</v>
+      </c>
+      <c r="H296" t="s">
+        <v>19</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>15</v>
+      </c>
+      <c r="K296" t="s">
+        <v>19</v>
+      </c>
+      <c r="M296" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Alien</v>
+      </c>
+      <c r="O296">
+        <v>1</v>
+      </c>
+      <c r="P296">
+        <v>1</v>
+      </c>
+      <c r="Q296">
+        <v>0</v>
+      </c>
+      <c r="R296" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S296" t="str">
+        <f t="shared" si="13"/>
+        <v>'ALIEN| Alien.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Alien| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C297">
+        <v>-500</v>
+      </c>
+      <c r="D297">
+        <v>1800</v>
+      </c>
+      <c r="E297">
+        <v>850</v>
+      </c>
+      <c r="F297" t="s">
+        <v>18</v>
+      </c>
+      <c r="H297" t="s">
+        <v>19</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>15</v>
+      </c>
+      <c r="K297" t="s">
+        <v>19</v>
+      </c>
+      <c r="M297" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Alternate History</v>
+      </c>
+      <c r="O297">
+        <v>1</v>
+      </c>
+      <c r="P297">
+        <v>1</v>
+      </c>
+      <c r="Q297">
+        <v>0</v>
+      </c>
+      <c r="R297" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S297" t="str">
+        <f t="shared" si="13"/>
+        <v>'ALTERNATE_HISTORY| Alternate History.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Alternate History| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C298">
+        <v>-500</v>
+      </c>
+      <c r="D298">
+        <v>1800</v>
+      </c>
+      <c r="E298">
+        <v>850</v>
+      </c>
+      <c r="F298" t="s">
+        <v>18</v>
+      </c>
+      <c r="H298" t="s">
+        <v>19</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>15</v>
+      </c>
+      <c r="K298" t="s">
+        <v>19</v>
+      </c>
+      <c r="M298" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Animal</v>
+      </c>
+      <c r="O298">
+        <v>1</v>
+      </c>
+      <c r="P298">
+        <v>1</v>
+      </c>
+      <c r="Q298">
+        <v>0</v>
+      </c>
+      <c r="R298" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S298" t="str">
+        <f t="shared" si="13"/>
+        <v>'ANIMAL| Animal.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Animal| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C299">
+        <v>-500</v>
+      </c>
+      <c r="D299">
+        <v>1800</v>
+      </c>
+      <c r="E299">
+        <v>850</v>
+      </c>
+      <c r="F299" t="s">
+        <v>18</v>
+      </c>
+      <c r="H299" t="s">
+        <v>19</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>15</v>
+      </c>
+      <c r="K299" t="s">
+        <v>19</v>
+      </c>
+      <c r="M299" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Animated Short</v>
+      </c>
+      <c r="O299">
+        <v>1</v>
+      </c>
+      <c r="P299">
+        <v>1</v>
+      </c>
+      <c r="Q299">
+        <v>0</v>
+      </c>
+      <c r="R299" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S299" t="str">
+        <f t="shared" si="13"/>
+        <v>'ANIMATED_SHORT| Animated Short.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Animated Short| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C300">
+        <v>-500</v>
+      </c>
+      <c r="D300">
+        <v>1800</v>
+      </c>
+      <c r="E300">
+        <v>850</v>
+      </c>
+      <c r="F300" t="s">
+        <v>18</v>
+      </c>
+      <c r="H300" t="s">
+        <v>19</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>15</v>
+      </c>
+      <c r="K300" t="s">
+        <v>19</v>
+      </c>
+      <c r="M300" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Anthology</v>
+      </c>
+      <c r="O300">
+        <v>1</v>
+      </c>
+      <c r="P300">
+        <v>1</v>
+      </c>
+      <c r="Q300">
+        <v>0</v>
+      </c>
+      <c r="R300" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S300" t="str">
+        <f t="shared" si="13"/>
+        <v>'ANTHOLOGY| Anthology.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Anthology| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C301">
+        <v>-500</v>
+      </c>
+      <c r="D301">
+        <v>1800</v>
+      </c>
+      <c r="E301">
+        <v>850</v>
+      </c>
+      <c r="F301" t="s">
+        <v>18</v>
+      </c>
+      <c r="H301" t="s">
+        <v>19</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>15</v>
+      </c>
+      <c r="K301" t="s">
+        <v>19</v>
+      </c>
+      <c r="M301" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Anti-Hero</v>
+      </c>
+      <c r="O301">
+        <v>1</v>
+      </c>
+      <c r="P301">
+        <v>1</v>
+      </c>
+      <c r="Q301">
+        <v>0</v>
+      </c>
+      <c r="R301" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S301" t="str">
+        <f t="shared" si="13"/>
+        <v>'ANTI-HERO| Anti-Hero.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Anti-Hero| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C302">
+        <v>-500</v>
+      </c>
+      <c r="D302">
+        <v>1800</v>
+      </c>
+      <c r="E302">
+        <v>850</v>
+      </c>
+      <c r="F302" t="s">
+        <v>18</v>
+      </c>
+      <c r="H302" t="s">
+        <v>19</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>15</v>
+      </c>
+      <c r="K302" t="s">
+        <v>19</v>
+      </c>
+      <c r="M302" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Artificial Intelligence</v>
+      </c>
+      <c r="O302">
+        <v>1</v>
+      </c>
+      <c r="P302">
+        <v>1</v>
+      </c>
+      <c r="Q302">
+        <v>0</v>
+      </c>
+      <c r="R302" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S302" t="str">
+        <f t="shared" si="13"/>
+        <v>'ARTIFICIAL_INTELLIGENCE| Artificial Intelligence.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Artificial Intelligence| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C303">
+        <v>-500</v>
+      </c>
+      <c r="D303">
+        <v>1800</v>
+      </c>
+      <c r="E303">
+        <v>850</v>
+      </c>
+      <c r="F303" t="s">
+        <v>18</v>
+      </c>
+      <c r="H303" t="s">
+        <v>19</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>15</v>
+      </c>
+      <c r="K303" t="s">
+        <v>19</v>
+      </c>
+      <c r="M303" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Betrayal</v>
+      </c>
+      <c r="O303">
+        <v>1</v>
+      </c>
+      <c r="P303">
+        <v>1</v>
+      </c>
+      <c r="Q303">
+        <v>0</v>
+      </c>
+      <c r="R303" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S303" t="str">
+        <f t="shared" si="13"/>
+        <v>'BETRAYAL| Betrayal.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Betrayal| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C304">
+        <v>-500</v>
+      </c>
+      <c r="D304">
+        <v>1800</v>
+      </c>
+      <c r="E304">
+        <v>850</v>
+      </c>
+      <c r="F304" t="s">
+        <v>18</v>
+      </c>
+      <c r="H304" t="s">
+        <v>19</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>15</v>
+      </c>
+      <c r="K304" t="s">
+        <v>19</v>
+      </c>
+      <c r="M304" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Boxing</v>
+      </c>
+      <c r="O304">
+        <v>1</v>
+      </c>
+      <c r="P304">
+        <v>1</v>
+      </c>
+      <c r="Q304">
+        <v>0</v>
+      </c>
+      <c r="R304" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S304" t="str">
+        <f t="shared" si="13"/>
+        <v>'BOXING| Boxing.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Boxing| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C305">
+        <v>-500</v>
+      </c>
+      <c r="D305">
+        <v>1800</v>
+      </c>
+      <c r="E305">
+        <v>850</v>
+      </c>
+      <c r="F305" t="s">
+        <v>18</v>
+      </c>
+      <c r="H305" t="s">
+        <v>19</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>15</v>
+      </c>
+      <c r="K305" t="s">
+        <v>19</v>
+      </c>
+      <c r="M305" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Bug</v>
+      </c>
+      <c r="O305">
+        <v>1</v>
+      </c>
+      <c r="P305">
+        <v>1</v>
+      </c>
+      <c r="Q305">
+        <v>0</v>
+      </c>
+      <c r="R305" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S305" t="str">
+        <f t="shared" si="13"/>
+        <v>'BUG| Bug.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Bug| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C306">
+        <v>-500</v>
+      </c>
+      <c r="D306">
+        <v>1800</v>
+      </c>
+      <c r="E306">
+        <v>850</v>
+      </c>
+      <c r="F306" t="s">
+        <v>18</v>
+      </c>
+      <c r="H306" t="s">
+        <v>19</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>15</v>
+      </c>
+      <c r="K306" t="s">
+        <v>19</v>
+      </c>
+      <c r="M306" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Caper</v>
+      </c>
+      <c r="O306">
+        <v>1</v>
+      </c>
+      <c r="P306">
+        <v>1</v>
+      </c>
+      <c r="Q306">
+        <v>0</v>
+      </c>
+      <c r="R306" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S306" t="str">
+        <f t="shared" si="13"/>
+        <v>'CAPER| Caper.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Caper| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C307">
+        <v>-500</v>
+      </c>
+      <c r="D307">
+        <v>1800</v>
+      </c>
+      <c r="E307">
+        <v>850</v>
+      </c>
+      <c r="F307" t="s">
+        <v>18</v>
+      </c>
+      <c r="H307" t="s">
+        <v>19</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>15</v>
+      </c>
+      <c r="K307" t="s">
+        <v>19</v>
+      </c>
+      <c r="M307" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Chick Flick</v>
+      </c>
+      <c r="O307">
+        <v>1</v>
+      </c>
+      <c r="P307">
+        <v>1</v>
+      </c>
+      <c r="Q307">
+        <v>0</v>
+      </c>
+      <c r="R307" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S307" t="str">
+        <f t="shared" si="13"/>
+        <v>'CHICK_FLICK| Chick Flick.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Chick Flick| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C308">
+        <v>-500</v>
+      </c>
+      <c r="D308">
+        <v>1800</v>
+      </c>
+      <c r="E308">
+        <v>850</v>
+      </c>
+      <c r="F308" t="s">
+        <v>18</v>
+      </c>
+      <c r="H308" t="s">
+        <v>19</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>15</v>
+      </c>
+      <c r="K308" t="s">
+        <v>19</v>
+      </c>
+      <c r="M308" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Children''s Cartoon</v>
+      </c>
+      <c r="O308">
+        <v>1</v>
+      </c>
+      <c r="P308">
+        <v>1</v>
+      </c>
+      <c r="Q308">
+        <v>0</v>
+      </c>
+      <c r="R308" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S308" t="str">
+        <f t="shared" si="13"/>
+        <v>'CHILDREN''S_CARTOON| Children''s Cartoon.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Children''s Cartoon| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C309">
+        <v>-500</v>
+      </c>
+      <c r="D309">
+        <v>1800</v>
+      </c>
+      <c r="E309">
+        <v>850</v>
+      </c>
+      <c r="F309" t="s">
+        <v>18</v>
+      </c>
+      <c r="H309" t="s">
+        <v>19</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>15</v>
+      </c>
+      <c r="K309" t="s">
+        <v>19</v>
+      </c>
+      <c r="M309" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Coming of Age</v>
+      </c>
+      <c r="O309">
+        <v>1</v>
+      </c>
+      <c r="P309">
+        <v>1</v>
+      </c>
+      <c r="Q309">
+        <v>0</v>
+      </c>
+      <c r="R309" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S309" t="str">
+        <f t="shared" si="13"/>
+        <v>'COMING_OF_AGE| Coming of Age.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Coming of Age| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C310">
+        <v>-500</v>
+      </c>
+      <c r="D310">
+        <v>1800</v>
+      </c>
+      <c r="E310">
+        <v>850</v>
+      </c>
+      <c r="F310" t="s">
+        <v>18</v>
+      </c>
+      <c r="H310" t="s">
+        <v>19</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>15</v>
+      </c>
+      <c r="K310" t="s">
+        <v>19</v>
+      </c>
+      <c r="M310" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Cop</v>
+      </c>
+      <c r="O310">
+        <v>1</v>
+      </c>
+      <c r="P310">
+        <v>1</v>
+      </c>
+      <c r="Q310">
+        <v>0</v>
+      </c>
+      <c r="R310" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S310" t="str">
+        <f t="shared" si="13"/>
+        <v>'COP| Cop.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Cop| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C311">
+        <v>-500</v>
+      </c>
+      <c r="D311">
+        <v>1800</v>
+      </c>
+      <c r="E311">
+        <v>850</v>
+      </c>
+      <c r="F311" t="s">
+        <v>18</v>
+      </c>
+      <c r="H311" t="s">
+        <v>19</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>15</v>
+      </c>
+      <c r="K311" t="s">
+        <v>19</v>
+      </c>
+      <c r="M311" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Costume Drama</v>
+      </c>
+      <c r="O311">
+        <v>1</v>
+      </c>
+      <c r="P311">
+        <v>1</v>
+      </c>
+      <c r="Q311">
+        <v>0</v>
+      </c>
+      <c r="R311" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S311" t="str">
+        <f t="shared" si="13"/>
+        <v>'COSTUME_DRAMA| Costume Drama.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Costume Drama| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C312">
+        <v>-500</v>
+      </c>
+      <c r="D312">
+        <v>1800</v>
+      </c>
+      <c r="E312">
+        <v>850</v>
+      </c>
+      <c r="F312" t="s">
+        <v>18</v>
+      </c>
+      <c r="H312" t="s">
+        <v>19</v>
+      </c>
+      <c r="I312">
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <v>15</v>
+      </c>
+      <c r="K312" t="s">
+        <v>19</v>
+      </c>
+      <c r="M312" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Courtroom</v>
+      </c>
+      <c r="O312">
+        <v>1</v>
+      </c>
+      <c r="P312">
+        <v>1</v>
+      </c>
+      <c r="Q312">
+        <v>0</v>
+      </c>
+      <c r="R312" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S312" t="str">
+        <f t="shared" si="13"/>
+        <v>'COURTROOM| Courtroom.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Courtroom| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C313">
+        <v>-500</v>
+      </c>
+      <c r="D313">
+        <v>1800</v>
+      </c>
+      <c r="E313">
+        <v>850</v>
+      </c>
+      <c r="F313" t="s">
+        <v>18</v>
+      </c>
+      <c r="H313" t="s">
+        <v>19</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>15</v>
+      </c>
+      <c r="K313" t="s">
+        <v>19</v>
+      </c>
+      <c r="M313" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Cyberpunk</v>
+      </c>
+      <c r="O313">
+        <v>1</v>
+      </c>
+      <c r="P313">
+        <v>1</v>
+      </c>
+      <c r="Q313">
+        <v>0</v>
+      </c>
+      <c r="R313" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S313" t="str">
+        <f t="shared" si="13"/>
+        <v>'CYBERPUNK| Cyberpunk.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Cyberpunk| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C314">
+        <v>-500</v>
+      </c>
+      <c r="D314">
+        <v>1800</v>
+      </c>
+      <c r="E314">
+        <v>850</v>
+      </c>
+      <c r="F314" t="s">
+        <v>18</v>
+      </c>
+      <c r="H314" t="s">
+        <v>19</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>15</v>
+      </c>
+      <c r="K314" t="s">
+        <v>19</v>
+      </c>
+      <c r="M314" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Dark Fantasy</v>
+      </c>
+      <c r="O314">
+        <v>1</v>
+      </c>
+      <c r="P314">
+        <v>1</v>
+      </c>
+      <c r="Q314">
+        <v>0</v>
+      </c>
+      <c r="R314" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S314" t="str">
+        <f t="shared" si="13"/>
+        <v>'DARK_FANTASY| Dark Fantasy.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Dark Fantasy| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C315">
+        <v>-500</v>
+      </c>
+      <c r="D315">
+        <v>1800</v>
+      </c>
+      <c r="E315">
+        <v>850</v>
+      </c>
+      <c r="F315" t="s">
+        <v>18</v>
+      </c>
+      <c r="H315" t="s">
+        <v>19</v>
+      </c>
+      <c r="I315">
+        <v>0</v>
+      </c>
+      <c r="J315">
+        <v>15</v>
+      </c>
+      <c r="K315" t="s">
+        <v>19</v>
+      </c>
+      <c r="M315" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Detective</v>
+      </c>
+      <c r="O315">
+        <v>1</v>
+      </c>
+      <c r="P315">
+        <v>1</v>
+      </c>
+      <c r="Q315">
+        <v>0</v>
+      </c>
+      <c r="R315" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S315" t="str">
+        <f t="shared" si="13"/>
+        <v>'DETECTIVE| Detective.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Detective| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C316">
+        <v>-500</v>
+      </c>
+      <c r="D316">
+        <v>1800</v>
+      </c>
+      <c r="E316">
+        <v>850</v>
+      </c>
+      <c r="F316" t="s">
+        <v>18</v>
+      </c>
+      <c r="H316" t="s">
+        <v>19</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>15</v>
+      </c>
+      <c r="K316" t="s">
+        <v>19</v>
+      </c>
+      <c r="M316" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Dinosaur</v>
+      </c>
+      <c r="O316">
+        <v>1</v>
+      </c>
+      <c r="P316">
+        <v>1</v>
+      </c>
+      <c r="Q316">
+        <v>0</v>
+      </c>
+      <c r="R316" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S316" t="str">
+        <f t="shared" si="13"/>
+        <v>'DINOSAUR| Dinosaur.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Dinosaur| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C317">
+        <v>-500</v>
+      </c>
+      <c r="D317">
+        <v>1800</v>
+      </c>
+      <c r="E317">
+        <v>850</v>
+      </c>
+      <c r="F317" t="s">
+        <v>18</v>
+      </c>
+      <c r="H317" t="s">
+        <v>19</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317">
+        <v>15</v>
+      </c>
+      <c r="K317" t="s">
+        <v>19</v>
+      </c>
+      <c r="M317" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Dragon</v>
+      </c>
+      <c r="O317">
+        <v>1</v>
+      </c>
+      <c r="P317">
+        <v>1</v>
+      </c>
+      <c r="Q317">
+        <v>0</v>
+      </c>
+      <c r="R317" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S317" t="str">
+        <f t="shared" si="13"/>
+        <v>'DRAGON| Dragon.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Dragon| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C318">
+        <v>-500</v>
+      </c>
+      <c r="D318">
+        <v>1800</v>
+      </c>
+      <c r="E318">
+        <v>850</v>
+      </c>
+      <c r="F318" t="s">
+        <v>18</v>
+      </c>
+      <c r="H318" t="s">
+        <v>19</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <v>15</v>
+      </c>
+      <c r="K318" t="s">
+        <v>19</v>
+      </c>
+      <c r="M318" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Dramedy</v>
+      </c>
+      <c r="O318">
+        <v>1</v>
+      </c>
+      <c r="P318">
+        <v>1</v>
+      </c>
+      <c r="Q318">
+        <v>0</v>
+      </c>
+      <c r="R318" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S318" t="str">
+        <f t="shared" si="13"/>
+        <v>'DRAMEDY| Dramedy.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Dramedy| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C319">
+        <v>-500</v>
+      </c>
+      <c r="D319">
+        <v>1800</v>
+      </c>
+      <c r="E319">
+        <v>850</v>
+      </c>
+      <c r="F319" t="s">
+        <v>18</v>
+      </c>
+      <c r="H319" t="s">
+        <v>19</v>
+      </c>
+      <c r="I319">
+        <v>0</v>
+      </c>
+      <c r="J319">
+        <v>15</v>
+      </c>
+      <c r="K319" t="s">
+        <v>19</v>
+      </c>
+      <c r="M319" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Engineering Disaster</v>
+      </c>
+      <c r="O319">
+        <v>1</v>
+      </c>
+      <c r="P319">
+        <v>1</v>
+      </c>
+      <c r="Q319">
+        <v>0</v>
+      </c>
+      <c r="R319" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S319" t="str">
+        <f t="shared" si="13"/>
+        <v>'ENGINEERING_DISASTER| Engineering Disaster.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Engineering Disaster| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C320">
+        <v>-500</v>
+      </c>
+      <c r="D320">
+        <v>1800</v>
+      </c>
+      <c r="E320">
+        <v>850</v>
+      </c>
+      <c r="F320" t="s">
+        <v>18</v>
+      </c>
+      <c r="H320" t="s">
+        <v>19</v>
+      </c>
+      <c r="I320">
+        <v>0</v>
+      </c>
+      <c r="J320">
+        <v>15</v>
+      </c>
+      <c r="K320" t="s">
+        <v>19</v>
+      </c>
+      <c r="M320" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Epic</v>
+      </c>
+      <c r="O320">
+        <v>1</v>
+      </c>
+      <c r="P320">
+        <v>1</v>
+      </c>
+      <c r="Q320">
+        <v>0</v>
+      </c>
+      <c r="R320" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S320" t="str">
+        <f t="shared" si="13"/>
+        <v>'EPIC| Epic.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Epic| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C321">
+        <v>-500</v>
+      </c>
+      <c r="D321">
+        <v>1800</v>
+      </c>
+      <c r="E321">
+        <v>850</v>
+      </c>
+      <c r="F321" t="s">
+        <v>18</v>
+      </c>
+      <c r="H321" t="s">
+        <v>19</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <v>15</v>
+      </c>
+      <c r="K321" t="s">
+        <v>19</v>
+      </c>
+      <c r="M321" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Espionage</v>
+      </c>
+      <c r="O321">
+        <v>1</v>
+      </c>
+      <c r="P321">
+        <v>1</v>
+      </c>
+      <c r="Q321">
+        <v>0</v>
+      </c>
+      <c r="R321" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S321" t="str">
+        <f t="shared" si="13"/>
+        <v>'ESPIONAGE| Espionage.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Espionage| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C322">
+        <v>-500</v>
+      </c>
+      <c r="D322">
+        <v>1800</v>
+      </c>
+      <c r="E322">
+        <v>850</v>
+      </c>
+      <c r="F322" t="s">
+        <v>18</v>
+      </c>
+      <c r="H322" t="s">
+        <v>19</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <v>15</v>
+      </c>
+      <c r="K322" t="s">
+        <v>19</v>
+      </c>
+      <c r="M322" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Experimental</v>
+      </c>
+      <c r="O322">
+        <v>1</v>
+      </c>
+      <c r="P322">
+        <v>1</v>
+      </c>
+      <c r="Q322">
+        <v>0</v>
+      </c>
+      <c r="R322" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S322" t="str">
+        <f t="shared" si="13"/>
+        <v>'EXPERIMENTAL| Experimental.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Experimental| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C323">
+        <v>-500</v>
+      </c>
+      <c r="D323">
+        <v>1800</v>
+      </c>
+      <c r="E323">
+        <v>850</v>
+      </c>
+      <c r="F323" t="s">
+        <v>18</v>
+      </c>
+      <c r="H323" t="s">
+        <v>19</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <v>15</v>
+      </c>
+      <c r="K323" t="s">
+        <v>19</v>
+      </c>
+      <c r="M323" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Fairy Tale</v>
+      </c>
+      <c r="O323">
+        <v>1</v>
+      </c>
+      <c r="P323">
+        <v>1</v>
+      </c>
+      <c r="Q323">
+        <v>0</v>
+      </c>
+      <c r="R323" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S323" t="str">
+        <f t="shared" si="13"/>
+        <v>'FAIRY_TALE| Fairy Tale.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Fairy Tale| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C324">
+        <v>-500</v>
+      </c>
+      <c r="D324">
+        <v>1800</v>
+      </c>
+      <c r="E324">
+        <v>850</v>
+      </c>
+      <c r="F324" t="s">
+        <v>18</v>
+      </c>
+      <c r="H324" t="s">
+        <v>19</v>
+      </c>
+      <c r="I324">
+        <v>0</v>
+      </c>
+      <c r="J324">
+        <v>15</v>
+      </c>
+      <c r="K324" t="s">
+        <v>19</v>
+      </c>
+      <c r="M324" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Foreign</v>
+      </c>
+      <c r="O324">
+        <v>1</v>
+      </c>
+      <c r="P324">
+        <v>1</v>
+      </c>
+      <c r="Q324">
+        <v>0</v>
+      </c>
+      <c r="R324" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S324" t="str">
+        <f t="shared" si="13"/>
+        <v>'FOREIGN| Foreign.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Foreign| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C325">
+        <v>-500</v>
+      </c>
+      <c r="D325">
+        <v>1800</v>
+      </c>
+      <c r="E325">
+        <v>850</v>
+      </c>
+      <c r="F325" t="s">
+        <v>18</v>
+      </c>
+      <c r="H325" t="s">
+        <v>19</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325">
+        <v>15</v>
+      </c>
+      <c r="K325" t="s">
+        <v>19</v>
+      </c>
+      <c r="M325" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Fugitive</v>
+      </c>
+      <c r="O325">
+        <v>1</v>
+      </c>
+      <c r="P325">
+        <v>1</v>
+      </c>
+      <c r="Q325">
+        <v>0</v>
+      </c>
+      <c r="R325" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S325" t="str">
+        <f t="shared" si="13"/>
+        <v>'FUGITIVE| Fugitive.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Fugitive| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C326">
+        <v>-500</v>
+      </c>
+      <c r="D326">
+        <v>1800</v>
+      </c>
+      <c r="E326">
+        <v>850</v>
+      </c>
+      <c r="F326" t="s">
+        <v>18</v>
+      </c>
+      <c r="H326" t="s">
+        <v>19</v>
+      </c>
+      <c r="I326">
+        <v>0</v>
+      </c>
+      <c r="J326">
+        <v>15</v>
+      </c>
+      <c r="K326" t="s">
+        <v>19</v>
+      </c>
+      <c r="M326" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Ghost</v>
+      </c>
+      <c r="O326">
+        <v>1</v>
+      </c>
+      <c r="P326">
+        <v>1</v>
+      </c>
+      <c r="Q326">
+        <v>0</v>
+      </c>
+      <c r="R326" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S326" t="str">
+        <f t="shared" si="13"/>
+        <v>'GHOST| Ghost.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Ghost| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C327">
+        <v>-500</v>
+      </c>
+      <c r="D327">
+        <v>1800</v>
+      </c>
+      <c r="E327">
+        <v>850</v>
+      </c>
+      <c r="F327" t="s">
+        <v>18</v>
+      </c>
+      <c r="H327" t="s">
+        <v>19</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327">
+        <v>15</v>
+      </c>
+      <c r="K327" t="s">
+        <v>19</v>
+      </c>
+      <c r="M327" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Gothic</v>
+      </c>
+      <c r="O327">
+        <v>1</v>
+      </c>
+      <c r="P327">
+        <v>1</v>
+      </c>
+      <c r="Q327">
+        <v>0</v>
+      </c>
+      <c r="R327" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S327" t="str">
+        <f t="shared" si="13"/>
+        <v>'GOTHIC| Gothic.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Gothic| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C328">
+        <v>-500</v>
+      </c>
+      <c r="D328">
+        <v>1800</v>
+      </c>
+      <c r="E328">
+        <v>850</v>
+      </c>
+      <c r="F328" t="s">
+        <v>18</v>
+      </c>
+      <c r="H328" t="s">
+        <v>19</v>
+      </c>
+      <c r="I328">
+        <v>0</v>
+      </c>
+      <c r="J328">
+        <v>15</v>
+      </c>
+      <c r="K328" t="s">
+        <v>19</v>
+      </c>
+      <c r="M328" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Heartbreak</v>
+      </c>
+      <c r="O328">
+        <v>1</v>
+      </c>
+      <c r="P328">
+        <v>1</v>
+      </c>
+      <c r="Q328">
+        <v>0</v>
+      </c>
+      <c r="R328" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S328" t="str">
+        <f t="shared" si="13"/>
+        <v>'HEARTBREAK| Heartbreak.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Heartbreak| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C329">
+        <v>-500</v>
+      </c>
+      <c r="D329">
+        <v>1800</v>
+      </c>
+      <c r="E329">
+        <v>850</v>
+      </c>
+      <c r="F329" t="s">
+        <v>18</v>
+      </c>
+      <c r="H329" t="s">
+        <v>19</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329">
+        <v>15</v>
+      </c>
+      <c r="K329" t="s">
+        <v>19</v>
+      </c>
+      <c r="M329" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Historical Event</v>
+      </c>
+      <c r="O329">
+        <v>1</v>
+      </c>
+      <c r="P329">
+        <v>1</v>
+      </c>
+      <c r="Q329">
+        <v>0</v>
+      </c>
+      <c r="R329" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S329" t="str">
+        <f t="shared" si="13"/>
+        <v>'HISTORICAL_EVENT| Historical Event.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Historical Event| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C330">
+        <v>-500</v>
+      </c>
+      <c r="D330">
+        <v>1800</v>
+      </c>
+      <c r="E330">
+        <v>850</v>
+      </c>
+      <c r="F330" t="s">
+        <v>18</v>
+      </c>
+      <c r="H330" t="s">
+        <v>19</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330">
+        <v>15</v>
+      </c>
+      <c r="K330" t="s">
+        <v>19</v>
+      </c>
+      <c r="M330" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Historical Fiction</v>
+      </c>
+      <c r="O330">
+        <v>1</v>
+      </c>
+      <c r="P330">
+        <v>1</v>
+      </c>
+      <c r="Q330">
+        <v>0</v>
+      </c>
+      <c r="R330" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S330" t="str">
+        <f t="shared" si="13"/>
+        <v>'HISTORICAL_FICTION| Historical Fiction.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Historical Fiction| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C331">
+        <v>-500</v>
+      </c>
+      <c r="D331">
+        <v>1800</v>
+      </c>
+      <c r="E331">
+        <v>850</v>
+      </c>
+      <c r="F331" t="s">
+        <v>18</v>
+      </c>
+      <c r="H331" t="s">
+        <v>19</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+      <c r="J331">
+        <v>15</v>
+      </c>
+      <c r="K331" t="s">
+        <v>19</v>
+      </c>
+      <c r="M331" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Hostage</v>
+      </c>
+      <c r="O331">
+        <v>1</v>
+      </c>
+      <c r="P331">
+        <v>1</v>
+      </c>
+      <c r="Q331">
+        <v>0</v>
+      </c>
+      <c r="R331" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S331" t="str">
+        <f t="shared" si="13"/>
+        <v>'HOSTAGE| Hostage.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Hostage| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C332">
+        <v>-500</v>
+      </c>
+      <c r="D332">
+        <v>1800</v>
+      </c>
+      <c r="E332">
+        <v>850</v>
+      </c>
+      <c r="F332" t="s">
+        <v>18</v>
+      </c>
+      <c r="H332" t="s">
+        <v>19</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <v>15</v>
+      </c>
+      <c r="K332" t="s">
+        <v>19</v>
+      </c>
+      <c r="M332" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Hustle</v>
+      </c>
+      <c r="O332">
+        <v>1</v>
+      </c>
+      <c r="P332">
+        <v>1</v>
+      </c>
+      <c r="Q332">
+        <v>0</v>
+      </c>
+      <c r="R332" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S332" t="str">
+        <f t="shared" si="13"/>
+        <v>'HUSTLE| Hustle.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Hustle| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C333">
+        <v>-500</v>
+      </c>
+      <c r="D333">
+        <v>1800</v>
+      </c>
+      <c r="E333">
+        <v>850</v>
+      </c>
+      <c r="F333" t="s">
+        <v>18</v>
+      </c>
+      <c r="H333" t="s">
+        <v>19</v>
+      </c>
+      <c r="I333">
+        <v>0</v>
+      </c>
+      <c r="J333">
+        <v>15</v>
+      </c>
+      <c r="K333" t="s">
+        <v>19</v>
+      </c>
+      <c r="M333" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Melodrama</v>
+      </c>
+      <c r="O333">
+        <v>1</v>
+      </c>
+      <c r="P333">
+        <v>1</v>
+      </c>
+      <c r="Q333">
+        <v>0</v>
+      </c>
+      <c r="R333" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S333" t="str">
+        <f t="shared" si="13"/>
+        <v>'MELODRAMA| Melodrama.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Melodrama| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C334">
+        <v>-500</v>
+      </c>
+      <c r="D334">
+        <v>1800</v>
+      </c>
+      <c r="E334">
+        <v>850</v>
+      </c>
+      <c r="F334" t="s">
+        <v>18</v>
+      </c>
+      <c r="H334" t="s">
+        <v>19</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+      <c r="J334">
+        <v>15</v>
+      </c>
+      <c r="K334" t="s">
+        <v>19</v>
+      </c>
+      <c r="M334" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Mockumentary</v>
+      </c>
+      <c r="O334">
+        <v>1</v>
+      </c>
+      <c r="P334">
+        <v>1</v>
+      </c>
+      <c r="Q334">
+        <v>0</v>
+      </c>
+      <c r="R334" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S334" t="str">
+        <f t="shared" si="13"/>
+        <v>'MOCKUMENTARY| Mockumentary.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Mockumentary| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C335">
+        <v>-500</v>
+      </c>
+      <c r="D335">
+        <v>1800</v>
+      </c>
+      <c r="E335">
+        <v>850</v>
+      </c>
+      <c r="F335" t="s">
+        <v>18</v>
+      </c>
+      <c r="H335" t="s">
+        <v>19</v>
+      </c>
+      <c r="I335">
+        <v>0</v>
+      </c>
+      <c r="J335">
+        <v>15</v>
+      </c>
+      <c r="K335" t="s">
+        <v>19</v>
+      </c>
+      <c r="M335" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Monster</v>
+      </c>
+      <c r="O335">
+        <v>1</v>
+      </c>
+      <c r="P335">
+        <v>1</v>
+      </c>
+      <c r="Q335">
+        <v>0</v>
+      </c>
+      <c r="R335" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S335" t="str">
+        <f t="shared" si="13"/>
+        <v>'MONSTER| Monster.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Monster| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C336">
+        <v>-500</v>
+      </c>
+      <c r="D336">
+        <v>1800</v>
+      </c>
+      <c r="E336">
+        <v>850</v>
+      </c>
+      <c r="F336" t="s">
+        <v>18</v>
+      </c>
+      <c r="H336" t="s">
+        <v>19</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336">
+        <v>15</v>
+      </c>
+      <c r="K336" t="s">
+        <v>19</v>
+      </c>
+      <c r="M336" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Mythology</v>
+      </c>
+      <c r="O336">
+        <v>1</v>
+      </c>
+      <c r="P336">
+        <v>1</v>
+      </c>
+      <c r="Q336">
+        <v>0</v>
+      </c>
+      <c r="R336" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S336" t="str">
+        <f t="shared" si="13"/>
+        <v>'MYTHOLOGY| Mythology.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Mythology| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C337">
+        <v>-500</v>
+      </c>
+      <c r="D337">
+        <v>1800</v>
+      </c>
+      <c r="E337">
+        <v>850</v>
+      </c>
+      <c r="F337" t="s">
+        <v>18</v>
+      </c>
+      <c r="H337" t="s">
+        <v>19</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <v>15</v>
+      </c>
+      <c r="K337" t="s">
+        <v>19</v>
+      </c>
+      <c r="M337" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Naval</v>
+      </c>
+      <c r="O337">
+        <v>1</v>
+      </c>
+      <c r="P337">
+        <v>1</v>
+      </c>
+      <c r="Q337">
+        <v>0</v>
+      </c>
+      <c r="R337" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S337" t="str">
+        <f t="shared" si="13"/>
+        <v>'NAVAL| Naval.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Naval| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C338">
+        <v>-500</v>
+      </c>
+      <c r="D338">
+        <v>1800</v>
+      </c>
+      <c r="E338">
+        <v>850</v>
+      </c>
+      <c r="F338" t="s">
+        <v>18</v>
+      </c>
+      <c r="H338" t="s">
+        <v>19</v>
+      </c>
+      <c r="I338">
+        <v>0</v>
+      </c>
+      <c r="J338">
+        <v>15</v>
+      </c>
+      <c r="K338" t="s">
+        <v>19</v>
+      </c>
+      <c r="M338" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Ninja</v>
+      </c>
+      <c r="O338">
+        <v>1</v>
+      </c>
+      <c r="P338">
+        <v>1</v>
+      </c>
+      <c r="Q338">
+        <v>0</v>
+      </c>
+      <c r="R338" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S338" t="str">
+        <f t="shared" si="13"/>
+        <v>'NINJA| Ninja.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Ninja| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C339">
+        <v>-500</v>
+      </c>
+      <c r="D339">
+        <v>1800</v>
+      </c>
+      <c r="E339">
+        <v>850</v>
+      </c>
+      <c r="F339" t="s">
+        <v>18</v>
+      </c>
+      <c r="H339" t="s">
+        <v>19</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>15</v>
+      </c>
+      <c r="K339" t="s">
+        <v>19</v>
+      </c>
+      <c r="M339" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Occult</v>
+      </c>
+      <c r="O339">
+        <v>1</v>
+      </c>
+      <c r="P339">
+        <v>1</v>
+      </c>
+      <c r="Q339">
+        <v>0</v>
+      </c>
+      <c r="R339" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S339" t="str">
+        <f t="shared" si="13"/>
+        <v>'OCCULT| Occult.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Occult| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C340">
+        <v>-500</v>
+      </c>
+      <c r="D340">
+        <v>1800</v>
+      </c>
+      <c r="E340">
+        <v>850</v>
+      </c>
+      <c r="F340" t="s">
+        <v>18</v>
+      </c>
+      <c r="H340" t="s">
+        <v>19</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>15</v>
+      </c>
+      <c r="K340" t="s">
+        <v>19</v>
+      </c>
+      <c r="M340" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Outlaw</v>
+      </c>
+      <c r="O340">
+        <v>1</v>
+      </c>
+      <c r="P340">
+        <v>1</v>
+      </c>
+      <c r="Q340">
+        <v>0</v>
+      </c>
+      <c r="R340" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S340" t="str">
+        <f t="shared" si="13"/>
+        <v>'OUTLAW| Outlaw.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Outlaw| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C341">
+        <v>-500</v>
+      </c>
+      <c r="D341">
+        <v>1800</v>
+      </c>
+      <c r="E341">
+        <v>850</v>
+      </c>
+      <c r="F341" t="s">
+        <v>18</v>
+      </c>
+      <c r="H341" t="s">
+        <v>19</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341">
+        <v>15</v>
+      </c>
+      <c r="K341" t="s">
+        <v>19</v>
+      </c>
+      <c r="M341" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Period Drama</v>
+      </c>
+      <c r="O341">
+        <v>1</v>
+      </c>
+      <c r="P341">
+        <v>1</v>
+      </c>
+      <c r="Q341">
+        <v>0</v>
+      </c>
+      <c r="R341" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S341" t="str">
+        <f t="shared" si="13"/>
+        <v>'PERIOD_DRAMA| Period Drama.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Period Drama| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C342">
+        <v>-500</v>
+      </c>
+      <c r="D342">
+        <v>1800</v>
+      </c>
+      <c r="E342">
+        <v>850</v>
+      </c>
+      <c r="F342" t="s">
+        <v>18</v>
+      </c>
+      <c r="H342" t="s">
+        <v>19</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <v>15</v>
+      </c>
+      <c r="K342" t="s">
+        <v>19</v>
+      </c>
+      <c r="M342" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Philosophy</v>
+      </c>
+      <c r="O342">
+        <v>1</v>
+      </c>
+      <c r="P342">
+        <v>1</v>
+      </c>
+      <c r="Q342">
+        <v>0</v>
+      </c>
+      <c r="R342" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S342" t="str">
+        <f t="shared" si="13"/>
+        <v>'PHILOSOPHY| Philosophy.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Philosophy| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C343">
+        <v>-500</v>
+      </c>
+      <c r="D343">
+        <v>1800</v>
+      </c>
+      <c r="E343">
+        <v>850</v>
+      </c>
+      <c r="F343" t="s">
+        <v>18</v>
+      </c>
+      <c r="H343" t="s">
+        <v>19</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <v>15</v>
+      </c>
+      <c r="K343" t="s">
+        <v>19</v>
+      </c>
+      <c r="M343" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Plant</v>
+      </c>
+      <c r="O343">
+        <v>1</v>
+      </c>
+      <c r="P343">
+        <v>1</v>
+      </c>
+      <c r="Q343">
+        <v>0</v>
+      </c>
+      <c r="R343" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S343" t="str">
+        <f t="shared" si="13"/>
+        <v>'PLANT| Plant.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Plant| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C344">
+        <v>-500</v>
+      </c>
+      <c r="D344">
+        <v>1800</v>
+      </c>
+      <c r="E344">
+        <v>850</v>
+      </c>
+      <c r="F344" t="s">
+        <v>18</v>
+      </c>
+      <c r="H344" t="s">
+        <v>19</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344">
+        <v>15</v>
+      </c>
+      <c r="K344" t="s">
+        <v>19</v>
+      </c>
+      <c r="M344" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Prehistoric</v>
+      </c>
+      <c r="O344">
+        <v>1</v>
+      </c>
+      <c r="P344">
+        <v>1</v>
+      </c>
+      <c r="Q344">
+        <v>0</v>
+      </c>
+      <c r="R344" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S344" t="str">
+        <f t="shared" si="13"/>
+        <v>'PREHISTORIC| Prehistoric.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Prehistoric| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C345">
+        <v>-500</v>
+      </c>
+      <c r="D345">
+        <v>1800</v>
+      </c>
+      <c r="E345">
+        <v>850</v>
+      </c>
+      <c r="F345" t="s">
+        <v>18</v>
+      </c>
+      <c r="H345" t="s">
+        <v>19</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345">
+        <v>15</v>
+      </c>
+      <c r="K345" t="s">
+        <v>19</v>
+      </c>
+      <c r="M345" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Religion</v>
+      </c>
+      <c r="O345">
+        <v>1</v>
+      </c>
+      <c r="P345">
+        <v>1</v>
+      </c>
+      <c r="Q345">
+        <v>0</v>
+      </c>
+      <c r="R345" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S345" t="str">
+        <f t="shared" si="13"/>
+        <v>'RELIGION| Religion.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Religion| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C346">
+        <v>-500</v>
+      </c>
+      <c r="D346">
+        <v>1800</v>
+      </c>
+      <c r="E346">
+        <v>850</v>
+      </c>
+      <c r="F346" t="s">
+        <v>18</v>
+      </c>
+      <c r="H346" t="s">
+        <v>19</v>
+      </c>
+      <c r="I346">
+        <v>0</v>
+      </c>
+      <c r="J346">
+        <v>15</v>
+      </c>
+      <c r="K346" t="s">
+        <v>19</v>
+      </c>
+      <c r="M346" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Remake</v>
+      </c>
+      <c r="O346">
+        <v>1</v>
+      </c>
+      <c r="P346">
+        <v>1</v>
+      </c>
+      <c r="Q346">
+        <v>0</v>
+      </c>
+      <c r="R346" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S346" t="str">
+        <f t="shared" si="13"/>
+        <v>'REMAKE| Remake.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Remake| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C347">
+        <v>-500</v>
+      </c>
+      <c r="D347">
+        <v>1800</v>
+      </c>
+      <c r="E347">
+        <v>850</v>
+      </c>
+      <c r="F347" t="s">
+        <v>18</v>
+      </c>
+      <c r="H347" t="s">
+        <v>19</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347">
+        <v>15</v>
+      </c>
+      <c r="K347" t="s">
+        <v>19</v>
+      </c>
+      <c r="M347" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Revenge</v>
+      </c>
+      <c r="O347">
+        <v>1</v>
+      </c>
+      <c r="P347">
+        <v>1</v>
+      </c>
+      <c r="Q347">
+        <v>0</v>
+      </c>
+      <c r="R347" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S347" t="str">
+        <f t="shared" si="13"/>
+        <v>'REVENGE| Revenge.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Revenge| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C348">
+        <v>-500</v>
+      </c>
+      <c r="D348">
+        <v>1800</v>
+      </c>
+      <c r="E348">
+        <v>850</v>
+      </c>
+      <c r="F348" t="s">
+        <v>18</v>
+      </c>
+      <c r="H348" t="s">
+        <v>19</v>
+      </c>
+      <c r="I348">
+        <v>0</v>
+      </c>
+      <c r="J348">
+        <v>15</v>
+      </c>
+      <c r="K348" t="s">
+        <v>19</v>
+      </c>
+      <c r="M348" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Robot</v>
+      </c>
+      <c r="O348">
+        <v>1</v>
+      </c>
+      <c r="P348">
+        <v>1</v>
+      </c>
+      <c r="Q348">
+        <v>0</v>
+      </c>
+      <c r="R348" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S348" t="str">
+        <f t="shared" si="13"/>
+        <v>'ROBOT| Robot.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Robot| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C349">
+        <v>-500</v>
+      </c>
+      <c r="D349">
+        <v>1800</v>
+      </c>
+      <c r="E349">
+        <v>850</v>
+      </c>
+      <c r="F349" t="s">
+        <v>18</v>
+      </c>
+      <c r="H349" t="s">
+        <v>19</v>
+      </c>
+      <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="J349">
+        <v>15</v>
+      </c>
+      <c r="K349" t="s">
+        <v>19</v>
+      </c>
+      <c r="M349" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Satire</v>
+      </c>
+      <c r="O349">
+        <v>1</v>
+      </c>
+      <c r="P349">
+        <v>1</v>
+      </c>
+      <c r="Q349">
+        <v>0</v>
+      </c>
+      <c r="R349" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S349" t="str">
+        <f t="shared" si="13"/>
+        <v>'SATIRE| Satire.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Satire| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C350">
+        <v>-500</v>
+      </c>
+      <c r="D350">
+        <v>1800</v>
+      </c>
+      <c r="E350">
+        <v>850</v>
+      </c>
+      <c r="F350" t="s">
+        <v>18</v>
+      </c>
+      <c r="H350" t="s">
+        <v>19</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>15</v>
+      </c>
+      <c r="K350" t="s">
+        <v>19</v>
+      </c>
+      <c r="M350" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Space Opera</v>
+      </c>
+      <c r="O350">
+        <v>1</v>
+      </c>
+      <c r="P350">
+        <v>1</v>
+      </c>
+      <c r="Q350">
+        <v>0</v>
+      </c>
+      <c r="R350" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S350" t="str">
+        <f t="shared" si="13"/>
+        <v>'SPACE_OPERA| Space Opera.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Space Opera| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C351">
+        <v>-500</v>
+      </c>
+      <c r="D351">
+        <v>1800</v>
+      </c>
+      <c r="E351">
+        <v>850</v>
+      </c>
+      <c r="F351" t="s">
+        <v>18</v>
+      </c>
+      <c r="H351" t="s">
+        <v>19</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>15</v>
+      </c>
+      <c r="K351" t="s">
+        <v>19</v>
+      </c>
+      <c r="M351" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Spaghetti Western</v>
+      </c>
+      <c r="O351">
+        <v>1</v>
+      </c>
+      <c r="P351">
+        <v>1</v>
+      </c>
+      <c r="Q351">
+        <v>0</v>
+      </c>
+      <c r="R351" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S351" t="str">
+        <f t="shared" si="13"/>
+        <v>'SPAGHETTI_WESTERN| Spaghetti Western.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Spaghetti Western| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C352">
+        <v>-500</v>
+      </c>
+      <c r="D352">
+        <v>1800</v>
+      </c>
+      <c r="E352">
+        <v>850</v>
+      </c>
+      <c r="F352" t="s">
+        <v>18</v>
+      </c>
+      <c r="H352" t="s">
+        <v>19</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>15</v>
+      </c>
+      <c r="K352" t="s">
+        <v>19</v>
+      </c>
+      <c r="M352" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Splatter</v>
+      </c>
+      <c r="O352">
+        <v>1</v>
+      </c>
+      <c r="P352">
+        <v>1</v>
+      </c>
+      <c r="Q352">
+        <v>0</v>
+      </c>
+      <c r="R352" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S352" t="str">
+        <f t="shared" si="13"/>
+        <v>'SPLATTER| Splatter.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Splatter| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C353">
+        <v>-500</v>
+      </c>
+      <c r="D353">
+        <v>1800</v>
+      </c>
+      <c r="E353">
+        <v>850</v>
+      </c>
+      <c r="F353" t="s">
+        <v>18</v>
+      </c>
+      <c r="H353" t="s">
+        <v>19</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <v>15</v>
+      </c>
+      <c r="K353" t="s">
+        <v>19</v>
+      </c>
+      <c r="M353" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Steampunk</v>
+      </c>
+      <c r="O353">
+        <v>1</v>
+      </c>
+      <c r="P353">
+        <v>1</v>
+      </c>
+      <c r="Q353">
+        <v>0</v>
+      </c>
+      <c r="R353" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S353" t="str">
+        <f t="shared" si="13"/>
+        <v>'STEAMPUNK| Steampunk.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Steampunk| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C354">
+        <v>-500</v>
+      </c>
+      <c r="D354">
+        <v>1800</v>
+      </c>
+      <c r="E354">
+        <v>850</v>
+      </c>
+      <c r="F354" t="s">
+        <v>18</v>
+      </c>
+      <c r="H354" t="s">
+        <v>19</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+      <c r="J354">
+        <v>15</v>
+      </c>
+      <c r="K354" t="s">
+        <v>19</v>
+      </c>
+      <c r="M354" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Stop-Motion</v>
+      </c>
+      <c r="O354">
+        <v>1</v>
+      </c>
+      <c r="P354">
+        <v>1</v>
+      </c>
+      <c r="Q354">
+        <v>0</v>
+      </c>
+      <c r="R354" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S354" t="str">
+        <f t="shared" si="13"/>
+        <v>'STOP-MOTION| Stop-Motion.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Stop-Motion| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C355">
+        <v>-500</v>
+      </c>
+      <c r="D355">
+        <v>1800</v>
+      </c>
+      <c r="E355">
+        <v>850</v>
+      </c>
+      <c r="F355" t="s">
+        <v>18</v>
+      </c>
+      <c r="H355" t="s">
+        <v>19</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355">
+        <v>15</v>
+      </c>
+      <c r="K355" t="s">
+        <v>19</v>
+      </c>
+      <c r="M355" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Surrealism</v>
+      </c>
+      <c r="O355">
+        <v>1</v>
+      </c>
+      <c r="P355">
+        <v>1</v>
+      </c>
+      <c r="Q355">
+        <v>0</v>
+      </c>
+      <c r="R355" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S355" t="str">
+        <f t="shared" si="13"/>
+        <v>'SURREALISM| Surrealism.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Surrealism| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C356">
+        <v>-500</v>
+      </c>
+      <c r="D356">
+        <v>1800</v>
+      </c>
+      <c r="E356">
+        <v>850</v>
+      </c>
+      <c r="F356" t="s">
+        <v>18</v>
+      </c>
+      <c r="H356" t="s">
+        <v>19</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356">
+        <v>15</v>
+      </c>
+      <c r="K356" t="s">
+        <v>19</v>
+      </c>
+      <c r="M356" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Swashbuckler</v>
+      </c>
+      <c r="O356">
+        <v>1</v>
+      </c>
+      <c r="P356">
+        <v>1</v>
+      </c>
+      <c r="Q356">
+        <v>0</v>
+      </c>
+      <c r="R356" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S356" t="str">
+        <f t="shared" si="13"/>
+        <v>'SWASHBUCKLER| Swashbuckler.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Swashbuckler| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C357">
+        <v>-500</v>
+      </c>
+      <c r="D357">
+        <v>1800</v>
+      </c>
+      <c r="E357">
+        <v>850</v>
+      </c>
+      <c r="F357" t="s">
+        <v>18</v>
+      </c>
+      <c r="H357" t="s">
+        <v>19</v>
+      </c>
+      <c r="I357">
+        <v>0</v>
+      </c>
+      <c r="J357">
+        <v>15</v>
+      </c>
+      <c r="K357" t="s">
+        <v>19</v>
+      </c>
+      <c r="M357" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Sword &amp; Sandal</v>
+      </c>
+      <c r="O357">
+        <v>1</v>
+      </c>
+      <c r="P357">
+        <v>1</v>
+      </c>
+      <c r="Q357">
+        <v>0</v>
+      </c>
+      <c r="R357" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S357" t="str">
+        <f t="shared" si="13"/>
+        <v>'SWORD_&amp;_SANDAL| Sword &amp; Sandal.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Sword &amp; Sandal| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C358">
+        <v>-500</v>
+      </c>
+      <c r="D358">
+        <v>1800</v>
+      </c>
+      <c r="E358">
+        <v>850</v>
+      </c>
+      <c r="F358" t="s">
+        <v>18</v>
+      </c>
+      <c r="H358" t="s">
+        <v>19</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358">
+        <v>15</v>
+      </c>
+      <c r="K358" t="s">
+        <v>19</v>
+      </c>
+      <c r="M358" s="2" t="str">
+        <f t="shared" ref="M358:M366" si="14">SUBSTITUTE(B358,".png","")</f>
+        <v>Time Travel</v>
+      </c>
+      <c r="O358">
+        <v>1</v>
+      </c>
+      <c r="P358">
+        <v>1</v>
+      </c>
+      <c r="Q358">
+        <v>0</v>
+      </c>
+      <c r="R358" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S358" t="str">
+        <f t="shared" ref="S358:S366" si="15">"'"&amp;MID(A358,FIND(MID(TRIM(A358),1,1),A358),LEN(A358))&amp;"| "&amp;MID(B358,FIND(MID(TRIM(B358),1,1),B358),LEN(B358))&amp;"| +"&amp;C358&amp;"| "&amp;D358&amp;"| +"&amp;E358&amp;"| "&amp;MID(F358,FIND(MID(TRIM(F358),1,1),F358),LEN(F358))&amp;"| "&amp;G358&amp;"| "&amp;MID(H358,FIND(MID(TRIM(H358),1,1),H358),LEN(H358))&amp;"| "&amp;I358&amp;"| "&amp;J358&amp;"| "&amp;MID(K358,FIND(MID(TRIM(K358),1,1),K358),LEN(K358))&amp;"| "&amp;L358&amp;"| "&amp;MID(M358,FIND(MID(TRIM(M358),1,1),M358),LEN(M358))&amp;"| "&amp;MID(N358,FIND(MID(TRIM(N358),1,1),N358),LEN(N358))&amp;"| "&amp;MID(O358,FIND(MID(TRIM(O358),1,1),O358),LEN(O358))&amp;"| "&amp;MID(P358,FIND(MID(TRIM(P358),1,1),P358),LEN(P358))&amp;"| "&amp;MID(Q358,FIND(MID(TRIM(Q358),1,1),Q358),LEN(Q358))&amp;"| "&amp;MID(R358,FIND(MID(TRIM(R358),1,1),R358),LEN(R358))</f>
+        <v>'TIME_TRAVEL| Time Travel.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Time Travel| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C359">
+        <v>-500</v>
+      </c>
+      <c r="D359">
+        <v>1800</v>
+      </c>
+      <c r="E359">
+        <v>850</v>
+      </c>
+      <c r="F359" t="s">
+        <v>18</v>
+      </c>
+      <c r="H359" t="s">
+        <v>19</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359">
+        <v>15</v>
+      </c>
+      <c r="K359" t="s">
+        <v>19</v>
+      </c>
+      <c r="M359" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>Treasure Hunt</v>
+      </c>
+      <c r="O359">
+        <v>1</v>
+      </c>
+      <c r="P359">
+        <v>1</v>
+      </c>
+      <c r="Q359">
+        <v>0</v>
+      </c>
+      <c r="R359" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S359" t="str">
+        <f t="shared" si="15"/>
+        <v>'TREASURE_HUNT| Treasure Hunt.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Treasure Hunt| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C360">
+        <v>-500</v>
+      </c>
+      <c r="D360">
+        <v>1800</v>
+      </c>
+      <c r="E360">
+        <v>850</v>
+      </c>
+      <c r="F360" t="s">
+        <v>18</v>
+      </c>
+      <c r="H360" t="s">
+        <v>19</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>15</v>
+      </c>
+      <c r="K360" t="s">
+        <v>19</v>
+      </c>
+      <c r="M360" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>True Crime</v>
+      </c>
+      <c r="O360">
+        <v>1</v>
+      </c>
+      <c r="P360">
+        <v>1</v>
+      </c>
+      <c r="Q360">
+        <v>0</v>
+      </c>
+      <c r="R360" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S360" t="str">
+        <f t="shared" si="15"/>
+        <v>'TRUE_CRIME| True Crime.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | True Crime| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C361">
+        <v>-500</v>
+      </c>
+      <c r="D361">
+        <v>1800</v>
+      </c>
+      <c r="E361">
+        <v>850</v>
+      </c>
+      <c r="F361" t="s">
+        <v>18</v>
+      </c>
+      <c r="H361" t="s">
+        <v>19</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361">
+        <v>15</v>
+      </c>
+      <c r="K361" t="s">
+        <v>19</v>
+      </c>
+      <c r="M361" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>Urban Fantasy</v>
+      </c>
+      <c r="O361">
+        <v>1</v>
+      </c>
+      <c r="P361">
+        <v>1</v>
+      </c>
+      <c r="Q361">
+        <v>0</v>
+      </c>
+      <c r="R361" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S361" t="str">
+        <f t="shared" si="15"/>
+        <v>'URBAN_FANTASY| Urban Fantasy.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Urban Fantasy| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C362">
+        <v>-500</v>
+      </c>
+      <c r="D362">
+        <v>1800</v>
+      </c>
+      <c r="E362">
+        <v>850</v>
+      </c>
+      <c r="F362" t="s">
+        <v>18</v>
+      </c>
+      <c r="H362" t="s">
+        <v>19</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <v>15</v>
+      </c>
+      <c r="K362" t="s">
+        <v>19</v>
+      </c>
+      <c r="M362" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>Utopia</v>
+      </c>
+      <c r="O362">
+        <v>1</v>
+      </c>
+      <c r="P362">
+        <v>1</v>
+      </c>
+      <c r="Q362">
+        <v>0</v>
+      </c>
+      <c r="R362" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S362" t="str">
+        <f t="shared" si="15"/>
+        <v>'UTOPIA| Utopia.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Utopia| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C363">
+        <v>-500</v>
+      </c>
+      <c r="D363">
+        <v>1800</v>
+      </c>
+      <c r="E363">
+        <v>850</v>
+      </c>
+      <c r="F363" t="s">
+        <v>18</v>
+      </c>
+      <c r="H363" t="s">
+        <v>19</v>
+      </c>
+      <c r="I363">
+        <v>0</v>
+      </c>
+      <c r="J363">
+        <v>15</v>
+      </c>
+      <c r="K363" t="s">
+        <v>19</v>
+      </c>
+      <c r="M363" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>Werewolf</v>
+      </c>
+      <c r="O363">
+        <v>1</v>
+      </c>
+      <c r="P363">
+        <v>1</v>
+      </c>
+      <c r="Q363">
+        <v>0</v>
+      </c>
+      <c r="R363" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S363" t="str">
+        <f t="shared" si="15"/>
+        <v>'WEREWOLF| Werewolf.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Werewolf| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C364">
+        <v>-500</v>
+      </c>
+      <c r="D364">
+        <v>1800</v>
+      </c>
+      <c r="E364">
+        <v>850</v>
+      </c>
+      <c r="F364" t="s">
+        <v>18</v>
+      </c>
+      <c r="H364" t="s">
+        <v>19</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>15</v>
+      </c>
+      <c r="K364" t="s">
+        <v>19</v>
+      </c>
+      <c r="M364" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>Whodunit</v>
+      </c>
+      <c r="O364">
+        <v>1</v>
+      </c>
+      <c r="P364">
+        <v>1</v>
+      </c>
+      <c r="Q364">
+        <v>0</v>
+      </c>
+      <c r="R364" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S364" t="str">
+        <f t="shared" si="15"/>
+        <v>'WHODUNIT| Whodunit.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Whodunit| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C365">
+        <v>-500</v>
+      </c>
+      <c r="D365">
+        <v>1800</v>
+      </c>
+      <c r="E365">
+        <v>850</v>
+      </c>
+      <c r="F365" t="s">
+        <v>18</v>
+      </c>
+      <c r="H365" t="s">
+        <v>19</v>
+      </c>
+      <c r="I365">
+        <v>0</v>
+      </c>
+      <c r="J365">
+        <v>15</v>
+      </c>
+      <c r="K365" t="s">
+        <v>19</v>
+      </c>
+      <c r="M365" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>Wizardry &amp; Witchcraft</v>
+      </c>
+      <c r="O365">
+        <v>1</v>
+      </c>
+      <c r="P365">
+        <v>1</v>
+      </c>
+      <c r="Q365">
+        <v>0</v>
+      </c>
+      <c r="R365" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S365" t="str">
+        <f t="shared" si="15"/>
+        <v>'WIZARDRY_&amp;_WITCHCRAFT| Wizardry &amp; Witchcraft.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Wizardry &amp; Witchcraft| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C366">
+        <v>-500</v>
+      </c>
+      <c r="D366">
+        <v>1800</v>
+      </c>
+      <c r="E366">
+        <v>850</v>
+      </c>
+      <c r="F366" t="s">
+        <v>18</v>
+      </c>
+      <c r="H366" t="s">
+        <v>19</v>
+      </c>
+      <c r="I366">
+        <v>0</v>
+      </c>
+      <c r="J366">
+        <v>15</v>
+      </c>
+      <c r="K366" t="s">
+        <v>19</v>
+      </c>
+      <c r="M366" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>World War</v>
+      </c>
+      <c r="O366">
+        <v>1</v>
+      </c>
+      <c r="P366">
+        <v>1</v>
+      </c>
+      <c r="Q366">
+        <v>0</v>
+      </c>
+      <c r="R366" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S366" t="str">
+        <f t="shared" si="15"/>
+        <v>'WORLD_WAR| World War.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | World War| | 1| 1| 0| 1',</v>
       </c>
     </row>
   </sheetData>
@@ -22352,13 +27206,13 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M20 N2:N178">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22366,6 +27220,2961 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F986B964-1FA2-4A72-AED6-CEE70733019A}">
+  <dimension ref="A1:L74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2001</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H2" t="str">
+        <f>A2&amp;B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;G2</f>
+        <v>"","Absurdism","Absurdism","","False","key_names-&gt;absurdism","",""</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2001</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2152</v>
+      </c>
+      <c r="L2" t="str">
+        <f>"'"&amp;UPPER(I2)&amp;J2&amp;K2</f>
+        <v>'ABSURDISM| Absurdism.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Absurdism| #032E2E| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2072</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2002</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" si="0">A3&amp;B3&amp;C3&amp;D3&amp;E3&amp;F3&amp;G3</f>
+        <v>"","Adult Cartoon","Adult Cartoon","","False","key_names-&gt;adult_cartoon","",""</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2002</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2153</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L66" si="1">"'"&amp;UPPER(I3)&amp;J3&amp;K3</f>
+        <v>'ADULT_CARTOON| Adult Cartoon.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Adult Cartoon| #D49BD5| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2003</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Alien","Alien","","False","key_names-&gt;alien","",""</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2003</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2154</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>'ALIEN| Alien.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Alien| #88C9B2| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2004</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Alternate History","Alternate History","","False","key_names-&gt;alternate_history","",""</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2004</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2155</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>'ALTERNATE_HISTORY| Alternate History.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Alternate History| #8C47AA| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2005</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Animal","Animal","","False","key_names-&gt;animal","",""</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2005</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2156</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>'ANIMAL| Animal.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Animal| #04E7FE| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Animated Short","Animated Short","","False","key_names-&gt;animated_short","",""</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2006</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2157</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>'ANIMATED_SHORT| Animated Short.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Animated Short| #F60AD3| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2007</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Anthology","Anthology","","False","key_names-&gt;anthology","",""</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2007</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2158</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>'ANTHOLOGY| Anthology.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Anthology| #BF413F| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2008</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Anti-Hero","Anti-Hero","","False","key_names-&gt;anti-hero","",""</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2008</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2159</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>'ANTI-HERO| Anti-Hero.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Anti-Hero| #2B319B| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2079</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2009</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Artificial Intelligence","Artificial Intelligence","","False","key_names-&gt;artificial_intelligence","",""</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2009</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2160</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>'ARTIFICIAL_INTELLIGENCE| Artificial Intelligence.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Artificial Intelligence| #299206| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2010</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Betrayal","Betrayal","","False","key_names-&gt;betrayal","",""</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2010</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2161</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v>'BETRAYAL| Betrayal.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Betrayal| #06CE03| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2081</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Boxing","Boxing","","False","key_names-&gt;boxing","",""</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2011</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2162</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>'BOXING| Boxing.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Boxing| #3DB73F| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2082</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2012</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Bug","Bug","","False","key_names-&gt;bug","",""</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2012</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2163</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>'BUG| Bug.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Bug| #5C4D4F| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2013</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Caper","Caper","","False","key_names-&gt;caper","",""</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2013</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2164</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>'CAPER| Caper.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Caper| #C575C1| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2084</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2014</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Chick Flick","Chick Flick","","False","key_names-&gt;chick_flick","",""</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2014</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>'CHICK_FLICK| Chick Flick.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Chick Flick| #7992F1| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2147</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2148</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Children's Cartoon","Children's Cartoon","","False","key_names-&gt;childrens_cartoon","",""</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2148</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2166</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v>'CHILDRENS_CARTOON| Children's Cartoon.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Children's Cartoon| #A65AB7| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2015</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Coming of Age","Coming of Age","","False","key_names-&gt;coming_of_age","",""</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2015</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2167</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>'COMING_OF_AGE| Coming of Age.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Coming of Age| #A57660| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2016</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Cop","Cop","","False","key_names-&gt;cop","",""</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2016</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2168</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>'COP| Cop.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Cop| #6E5902| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2017</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Costume Drama","Costume Drama","","False","key_names-&gt;costume_drama","",""</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2017</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2169</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>'COSTUME_DRAMA| Costume Drama.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Costume Drama| #482B67| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2088</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2018</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Courtroom","Courtroom","","False","key_names-&gt;courtroom","",""</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2018</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2170</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>'COURTROOM| Courtroom.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Courtroom| #91EAF0| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2089</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Cyberpunk","Cyberpunk","","False","key_names-&gt;cyberpunk","",""</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2019</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K21" t="s">
+        <v>2171</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>'CYBERPUNK| Cyberpunk.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Cyberpunk| #0A0D7E| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2020</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Dark Fantasy","Dark Fantasy","","False","key_names-&gt;dark_fantasy","",""</v>
+      </c>
+      <c r="I22" t="s">
+        <v>2020</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K22" t="s">
+        <v>2172</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v>'DARK_FANTASY| Dark Fantasy.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Dark Fantasy| #CAC96E| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2021</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Detective","Detective","","False","key_names-&gt;detective","",""</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K23" t="s">
+        <v>2173</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v>'DETECTIVE| Detective.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Detective| #611FEF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2022</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Dinosaur","Dinosaur","","False","key_names-&gt;dinosaur","",""</v>
+      </c>
+      <c r="I24" t="s">
+        <v>2022</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K24" t="s">
+        <v>2174</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v>'DINOSAUR| Dinosaur.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Dinosaur| #38129E| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Dragon","Dragon","","False","key_names-&gt;dragon","",""</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2023</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K25" t="s">
+        <v>2175</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v>'DRAGON| Dragon.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Dragon| #9EB798| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2024</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Dramedy","Dramedy","","False","key_names-&gt;dramedy","",""</v>
+      </c>
+      <c r="I26" t="s">
+        <v>2024</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2176</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v>'DRAMEDY| Dramedy.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Dramedy| #CF5A61| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2025</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Engineering Disaster","Engineering Disaster","","False","key_names-&gt;engineering_disaster","",""</v>
+      </c>
+      <c r="I27" t="s">
+        <v>2025</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K27" t="s">
+        <v>2177</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v>'ENGINEERING_DISASTER| Engineering Disaster.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Engineering Disaster| #E82CB5| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2096</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Epic","Epic","","False","key_names-&gt;epic","",""</v>
+      </c>
+      <c r="I28" t="s">
+        <v>2026</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K28" t="s">
+        <v>2178</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v>'EPIC| Epic.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Epic| #7FE464| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2097</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2027</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Espionage","Espionage","","False","key_names-&gt;espionage","",""</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2027</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K29" t="s">
+        <v>2179</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v>'ESPIONAGE| Espionage.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Espionage| #35E254| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2028</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Experimental","Experimental","","False","key_names-&gt;experimental","",""</v>
+      </c>
+      <c r="I30" t="s">
+        <v>2028</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K30" t="s">
+        <v>2180</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v>'EXPERIMENTAL| Experimental.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Experimental| #4BB407| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2099</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2029</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Fairy Tale","Fairy Tale","","False","key_names-&gt;fairy_tale","",""</v>
+      </c>
+      <c r="I31" t="s">
+        <v>2029</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K31" t="s">
+        <v>2181</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
+        <v>'FAIRY_TALE| Fairy Tale.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Fairy Tale| #FF8BBA| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2100</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2030</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Foreign","Foreign","","False","key_names-&gt;foreign","",""</v>
+      </c>
+      <c r="I32" t="s">
+        <v>2030</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K32" t="s">
+        <v>2182</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="1"/>
+        <v>'FOREIGN| Foreign.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Foreign| #F5D4C7| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2101</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2031</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Fugitive","Fugitive","","False","key_names-&gt;fugitive","",""</v>
+      </c>
+      <c r="I33" t="s">
+        <v>2031</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K33" t="s">
+        <v>2183</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="1"/>
+        <v>'FUGITIVE| Fugitive.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Fugitive| #00B8C2| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2102</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2032</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Ghost","Ghost","","False","key_names-&gt;ghost","",""</v>
+      </c>
+      <c r="I34" t="s">
+        <v>2032</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K34" t="s">
+        <v>2184</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="1"/>
+        <v>'GHOST| Ghost.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Ghost| #4362D3| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2033</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Gothic","Gothic","","False","key_names-&gt;gothic","",""</v>
+      </c>
+      <c r="I35" t="s">
+        <v>2033</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K35" t="s">
+        <v>2185</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="1"/>
+        <v>'GOTHIC| Gothic.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Gothic| #EDFAE9| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2104</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2034</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Heartbreak","Heartbreak","","False","key_names-&gt;heartbreak","",""</v>
+      </c>
+      <c r="I36" t="s">
+        <v>2034</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K36" t="s">
+        <v>2186</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="1"/>
+        <v>'HEARTBREAK| Heartbreak.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Heartbreak| #73A493| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2105</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2035</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Historical Event","Historical Event","","False","key_names-&gt;historical_event","",""</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2035</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K37" t="s">
+        <v>2187</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="1"/>
+        <v>'HISTORICAL_EVENT| Historical Event.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Historical Event| #44C099| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2036</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Historical Fiction","Historical Fiction","","False","key_names-&gt;historical_fiction","",""</v>
+      </c>
+      <c r="I38" t="s">
+        <v>2036</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K38" t="s">
+        <v>2188</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="1"/>
+        <v>'HISTORICAL_FICTION| Historical Fiction.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Historical Fiction| #549503| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2107</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2037</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Hostage","Hostage","","False","key_names-&gt;hostage","",""</v>
+      </c>
+      <c r="I39" t="s">
+        <v>2037</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K39" t="s">
+        <v>2189</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="1"/>
+        <v>'HOSTAGE| Hostage.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Hostage| #11C755| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2108</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2038</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Hustle","Hustle","","False","key_names-&gt;hustle","",""</v>
+      </c>
+      <c r="I40" t="s">
+        <v>2038</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K40" t="s">
+        <v>2190</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="1"/>
+        <v>'HUSTLE| Hustle.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Hustle| #FAE67F| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2039</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Melodrama","Melodrama","","False","key_names-&gt;melodrama","",""</v>
+      </c>
+      <c r="I41" t="s">
+        <v>2039</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K41" t="s">
+        <v>2191</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="1"/>
+        <v>'MELODRAMA| Melodrama.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Melodrama| #6F4D62| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Mockumentary","Mockumentary","","False","key_names-&gt;mockumentary","",""</v>
+      </c>
+      <c r="I42" t="s">
+        <v>2040</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K42" t="s">
+        <v>2192</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="1"/>
+        <v>'MOCKUMENTARY| Mockumentary.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Mockumentary| #5994A0| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2111</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2041</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Monster","Monster","","False","key_names-&gt;monster","",""</v>
+      </c>
+      <c r="I43" t="s">
+        <v>2041</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K43" t="s">
+        <v>2193</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="1"/>
+        <v>'MONSTER| Monster.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Monster| #E8A33C| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2042</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Mythology","Mythology","","False","key_names-&gt;mythology","",""</v>
+      </c>
+      <c r="I44" t="s">
+        <v>2042</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K44" t="s">
+        <v>2194</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="1"/>
+        <v>'MYTHOLOGY| Mythology.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Mythology| #EEC389| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2043</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Naval","Naval","","False","key_names-&gt;naval","",""</v>
+      </c>
+      <c r="I45" t="s">
+        <v>2043</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K45" t="s">
+        <v>2195</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="1"/>
+        <v>'NAVAL| Naval.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Naval| #ECF6FA| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2114</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2044</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Ninja","Ninja","","False","key_names-&gt;ninja","",""</v>
+      </c>
+      <c r="I46" t="s">
+        <v>2044</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K46" t="s">
+        <v>2196</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="1"/>
+        <v>'NINJA| Ninja.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Ninja| #ADFFD3| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2045</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Occult","Occult","","False","key_names-&gt;occult","",""</v>
+      </c>
+      <c r="I47" t="s">
+        <v>2045</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K47" t="s">
+        <v>2197</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="1"/>
+        <v>'OCCULT| Occult.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Occult| #8AA22C| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2046</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Outlaw","Outlaw","","False","key_names-&gt;outlaw","",""</v>
+      </c>
+      <c r="I48" t="s">
+        <v>2046</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K48" t="s">
+        <v>2198</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="1"/>
+        <v>'OUTLAW| Outlaw.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Outlaw| #E4F4E8| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2047</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Period Drama","Period Drama","","False","key_names-&gt;period_drama","",""</v>
+      </c>
+      <c r="I49" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K49" t="s">
+        <v>2199</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="1"/>
+        <v>'PERIOD_DRAMA| Period Drama.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Period Drama| #B7A3A8| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2048</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Philosophy","Philosophy","","False","key_names-&gt;philosophy","",""</v>
+      </c>
+      <c r="I50" t="s">
+        <v>2048</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K50" t="s">
+        <v>2200</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="1"/>
+        <v>'PHILOSOPHY| Philosophy.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Philosophy| #B30B6B| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2119</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2049</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Plant","Plant","","False","key_names-&gt;plant","",""</v>
+      </c>
+      <c r="I51" t="s">
+        <v>2049</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K51" t="s">
+        <v>2201</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="1"/>
+        <v>'PLANT| Plant.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Plant| #EE7B1A| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F52" t="s">
+        <v>2050</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Prehistoric","Prehistoric","","False","key_names-&gt;prehistoric","",""</v>
+      </c>
+      <c r="I52" t="s">
+        <v>2050</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K52" t="s">
+        <v>2202</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="1"/>
+        <v>'PREHISTORIC| Prehistoric.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Prehistoric| #CB5825| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2121</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2051</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Religion","Religion","","False","key_names-&gt;religion","",""</v>
+      </c>
+      <c r="I53" t="s">
+        <v>2051</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K53" t="s">
+        <v>2203</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="1"/>
+        <v>'RELIGION| Religion.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Religion| #7F8D16| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F54" t="s">
+        <v>2052</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Remake","Remake","","False","key_names-&gt;remake","",""</v>
+      </c>
+      <c r="I54" t="s">
+        <v>2052</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K54" t="s">
+        <v>2204</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="1"/>
+        <v>'REMAKE| Remake.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Remake| #2496B3| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F55" t="s">
+        <v>2053</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Revenge","Revenge","","False","key_names-&gt;revenge","",""</v>
+      </c>
+      <c r="I55" t="s">
+        <v>2053</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K55" t="s">
+        <v>2205</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="1"/>
+        <v>'REVENGE| Revenge.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Revenge| #8484E1| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F56" t="s">
+        <v>2054</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Robot","Robot","","False","key_names-&gt;robot","",""</v>
+      </c>
+      <c r="I56" t="s">
+        <v>2054</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K56" t="s">
+        <v>2206</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="1"/>
+        <v>'ROBOT| Robot.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Robot| #B1050D| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2125</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F57" t="s">
+        <v>2055</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Satire","Satire","","False","key_names-&gt;satire","",""</v>
+      </c>
+      <c r="I57" t="s">
+        <v>2055</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K57" t="s">
+        <v>2207</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="1"/>
+        <v>'SATIRE| Satire.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Satire| #0E8E35| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F58" t="s">
+        <v>2056</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Space Opera","Space Opera","","False","key_names-&gt;space_opera","",""</v>
+      </c>
+      <c r="I58" t="s">
+        <v>2056</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K58" t="s">
+        <v>2208</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="1"/>
+        <v>'SPACE_OPERA| Space Opera.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Space Opera| #D2522B| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2127</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2057</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Spaghetti Western","Spaghetti Western","","False","key_names-&gt;spaghetti_western","",""</v>
+      </c>
+      <c r="I59" t="s">
+        <v>2057</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K59" t="s">
+        <v>2209</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="1"/>
+        <v>'SPAGHETTI_WESTERN| Spaghetti Western.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Spaghetti Western| #2ABAB3| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F60" t="s">
+        <v>2058</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Splatter","Splatter","","False","key_names-&gt;splatter","",""</v>
+      </c>
+      <c r="I60" t="s">
+        <v>2058</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K60" t="s">
+        <v>2210</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="1"/>
+        <v>'SPLATTER| Splatter.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Splatter| #416939| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2129</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F61" t="s">
+        <v>2059</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Steampunk","Steampunk","","False","key_names-&gt;steampunk","",""</v>
+      </c>
+      <c r="I61" t="s">
+        <v>2059</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K61" t="s">
+        <v>2211</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="1"/>
+        <v>'STEAMPUNK| Steampunk.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Steampunk| #B102D8| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F62" t="s">
+        <v>2060</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Stop-Motion","Stop-Motion","","False","key_names-&gt;stop-motion","",""</v>
+      </c>
+      <c r="I62" t="s">
+        <v>2060</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K62" t="s">
+        <v>2212</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="1"/>
+        <v>'STOP-MOTION| Stop-Motion.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Stop-Motion| #277D79| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2131</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F63" t="s">
+        <v>2061</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Surrealism","Surrealism","","False","key_names-&gt;surrealism","",""</v>
+      </c>
+      <c r="I63" t="s">
+        <v>2061</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K63" t="s">
+        <v>2213</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="1"/>
+        <v>'SURREALISM| Surrealism.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Surrealism| #F66626| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F64" t="s">
+        <v>2062</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Swashbuckler","Swashbuckler","","False","key_names-&gt;swashbuckler","",""</v>
+      </c>
+      <c r="I64" t="s">
+        <v>2062</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K64" t="s">
+        <v>2214</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="1"/>
+        <v>'SWASHBUCKLER| Swashbuckler.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Swashbuckler| #E74867| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F65" t="s">
+        <v>2149</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Sword &amp; Sandal","Sword &amp; Sandal","","False","key_names-&gt;sword_sandal","",""</v>
+      </c>
+      <c r="I65" t="s">
+        <v>2149</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K65" t="s">
+        <v>2215</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="1"/>
+        <v>'SWORD_SANDAL| Sword &amp; Sandal.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Sword &amp; Sandal| #BD8DDB| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F66" t="s">
+        <v>2063</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="0"/>
+        <v>"","Time Travel","Time Travel","","False","key_names-&gt;time_travel","",""</v>
+      </c>
+      <c r="I66" t="s">
+        <v>2063</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K66" t="s">
+        <v>2216</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="1"/>
+        <v>'TIME_TRAVEL| Time Travel.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Time Travel| #2C3294| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F67" t="s">
+        <v>2064</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H74" si="2">A67&amp;B67&amp;C67&amp;D67&amp;E67&amp;F67&amp;G67</f>
+        <v>"","Treasure Hunt","Treasure Hunt","","False","key_names-&gt;treasure_hunt","",""</v>
+      </c>
+      <c r="I67" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K67" t="s">
+        <v>2217</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" ref="L67:L74" si="3">"'"&amp;UPPER(I67)&amp;J67&amp;K67</f>
+        <v>'TREASURE_HUNT| Treasure Hunt.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Treasure Hunt| #AFBE09| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2136</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F68" t="s">
+        <v>2065</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="2"/>
+        <v>"","True Crime","True Crime","","False","key_names-&gt;true_crime","",""</v>
+      </c>
+      <c r="I68" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K68" t="s">
+        <v>2218</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="3"/>
+        <v>'TRUE_CRIME| True Crime.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | True Crime| #C706DE| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F69" t="s">
+        <v>2066</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="2"/>
+        <v>"","Urban Fantasy","Urban Fantasy","","False","key_names-&gt;urban_fantasy","",""</v>
+      </c>
+      <c r="I69" t="s">
+        <v>2066</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K69" t="s">
+        <v>2219</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="3"/>
+        <v>'URBAN_FANTASY| Urban Fantasy.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Urban Fantasy| #0E7018| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F70" t="s">
+        <v>2067</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="2"/>
+        <v>"","Utopia","Utopia","","False","key_names-&gt;utopia","",""</v>
+      </c>
+      <c r="I70" t="s">
+        <v>2067</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K70" t="s">
+        <v>2220</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="3"/>
+        <v>'UTOPIA| Utopia.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Utopia| #81E8E5| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2139</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F71" t="s">
+        <v>2068</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="2"/>
+        <v>"","Werewolf","Werewolf","","False","key_names-&gt;werewolf","",""</v>
+      </c>
+      <c r="I71" t="s">
+        <v>2068</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K71" t="s">
+        <v>2221</v>
+      </c>
+      <c r="L71" t="str">
+        <f t="shared" si="3"/>
+        <v>'WEREWOLF| Werewolf.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Werewolf| #836CB6| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2140</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F72" t="s">
+        <v>2069</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="2"/>
+        <v>"","Whodunit","Whodunit","","False","key_names-&gt;whodunit","",""</v>
+      </c>
+      <c r="I72" t="s">
+        <v>2069</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K72" t="s">
+        <v>2222</v>
+      </c>
+      <c r="L72" t="str">
+        <f t="shared" si="3"/>
+        <v>'WHODUNIT| Whodunit.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Whodunit| #2E4DA9| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F73" t="s">
+        <v>2150</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="2"/>
+        <v>"","Wizardry &amp; Witchcraft","Wizardry &amp; Witchcraft","","False","key_names-&gt;wizardry_witchcraft","",""</v>
+      </c>
+      <c r="I73" t="s">
+        <v>2150</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K73" t="s">
+        <v>2223</v>
+      </c>
+      <c r="L73" t="str">
+        <f t="shared" si="3"/>
+        <v>'WIZARDRY_WITCHCRAFT| Wizardry &amp; Witchcraft.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Wizardry &amp; Witchcraft| #77E0AA| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F74" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="2"/>
+        <v>"","World War","World War","","False","key_names-&gt;world_war","",""</v>
+      </c>
+      <c r="I74" t="s">
+        <v>2070</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K74" t="s">
+        <v>2224</v>
+      </c>
+      <c r="L74" t="str">
+        <f t="shared" si="3"/>
+        <v>'WORLD_WAR| World War.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | World War| #336188| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FB8509-23FA-4F7F-8890-7CFCBADCF30A}">
   <dimension ref="A1:E44"/>
   <sheetViews>
@@ -23116,7 +30925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604772D3-E6A1-4195-B50F-D445224401E2}">
   <dimension ref="A1:D177"/>
   <sheetViews>
@@ -25615,7 +33424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6200E9-CEA8-4731-90C9-DABDBA046934}">
   <dimension ref="A2:R238"/>
   <sheetViews>
@@ -38917,7 +46726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38768033-9AE9-460B-9E80-170D125A9D1D}">
   <dimension ref="A2:E111"/>
   <sheetViews>

--- a/create_defaults/template.xlsx
+++ b/create_defaults/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\TEST\create_defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC8DBC1-9809-4E69-ACC8-B961BB3418EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9A11E0-3515-45BB-9190-1D604426C373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26880" windowHeight="12465" activeTab="1" xr2:uid="{C0516283-7CFC-4E92-8F0B-F8DC43661E92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C0516283-7CFC-4E92-8F0B-F8DC43661E92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8512" uniqueCount="2226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8552" uniqueCount="2234">
   <si>
     <t>key_name</t>
   </si>
@@ -6724,6 +6724,30 @@
   </si>
   <si>
     <t xml:space="preserve">| </t>
+  </si>
+  <si>
+    <t>A Bigger Boat.png</t>
+  </si>
+  <si>
+    <t>Carolco.png</t>
+  </si>
+  <si>
+    <t>Gracie Films.png</t>
+  </si>
+  <si>
+    <t>HandMade Films.png</t>
+  </si>
+  <si>
+    <t>Mandalay Entertainment.png</t>
+  </si>
+  <si>
+    <t>Serendipity Pictures.png</t>
+  </si>
+  <si>
+    <t>StudioCanal.png</t>
+  </si>
+  <si>
+    <t>Twisted Pictures.png</t>
   </si>
 </sst>
 </file>
@@ -7139,10 +7163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185220E8-1934-454F-B9D7-C7470B861D27}">
-  <dimension ref="A1:S366"/>
+  <dimension ref="A1:S374"/>
   <sheetViews>
-    <sheetView topLeftCell="G291" workbookViewId="0">
-      <selection activeCell="S366" sqref="S294:S366"/>
+    <sheetView tabSelected="1" topLeftCell="N340" workbookViewId="0">
+      <selection activeCell="S367" sqref="S367:S374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27198,6 +27222,398 @@
         <v>'WORLD_WAR| World War.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | World War| | 1| 1| 0| 1',</v>
       </c>
     </row>
+    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B367" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>1600</v>
+      </c>
+      <c r="E367">
+        <v>0</v>
+      </c>
+      <c r="F367" t="s">
+        <v>18</v>
+      </c>
+      <c r="H367" t="s">
+        <v>19</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>15</v>
+      </c>
+      <c r="K367" t="s">
+        <v>19</v>
+      </c>
+      <c r="M367" s="2" t="str">
+        <f t="shared" ref="M367:M374" si="16">SUBSTITUTE(B367,".png","")</f>
+        <v>A Bigger Boat</v>
+      </c>
+      <c r="O367">
+        <v>1</v>
+      </c>
+      <c r="P367">
+        <v>1</v>
+      </c>
+      <c r="Q367">
+        <v>0</v>
+      </c>
+      <c r="R367" t="s">
+        <v>20</v>
+      </c>
+      <c r="S367" t="str">
+        <f t="shared" ref="S367:S374" si="17">"'"&amp;MID(A367,FIND(MID(TRIM(A367),1,1),A367),LEN(A367))&amp;"| "&amp;MID(B367,FIND(MID(TRIM(B367),1,1),B367),LEN(B367))&amp;"| +"&amp;C367&amp;"| "&amp;D367&amp;"| +"&amp;E367&amp;"| "&amp;MID(F367,FIND(MID(TRIM(F367),1,1),F367),LEN(F367))&amp;"| "&amp;G367&amp;"| "&amp;MID(H367,FIND(MID(TRIM(H367),1,1),H367),LEN(H367))&amp;"| "&amp;I367&amp;"| "&amp;J367&amp;"| "&amp;MID(K367,FIND(MID(TRIM(K367),1,1),K367),LEN(K367))&amp;"| "&amp;L367&amp;"| "&amp;MID(M367,FIND(MID(TRIM(M367),1,1),M367),LEN(M367))&amp;"| "&amp;MID(N367,FIND(MID(TRIM(N367),1,1),N367),LEN(N367))&amp;"| "&amp;MID(O367,FIND(MID(TRIM(O367),1,1),O367),LEN(O367))&amp;"| "&amp;MID(P367,FIND(MID(TRIM(P367),1,1),P367),LEN(P367))&amp;"| "&amp;MID(Q367,FIND(MID(TRIM(Q367),1,1),Q367),LEN(Q367))&amp;"| "&amp;MID(R367,FIND(MID(TRIM(R367),1,1),R367),LEN(R367))</f>
+        <v>'| A Bigger Boat.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | A Bigger Boat| | 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B368" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+      <c r="D368">
+        <v>1600</v>
+      </c>
+      <c r="E368">
+        <v>0</v>
+      </c>
+      <c r="F368" t="s">
+        <v>18</v>
+      </c>
+      <c r="H368" t="s">
+        <v>19</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>15</v>
+      </c>
+      <c r="K368" t="s">
+        <v>19</v>
+      </c>
+      <c r="M368" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>Carolco</v>
+      </c>
+      <c r="O368">
+        <v>1</v>
+      </c>
+      <c r="P368">
+        <v>1</v>
+      </c>
+      <c r="Q368">
+        <v>0</v>
+      </c>
+      <c r="R368" t="s">
+        <v>20</v>
+      </c>
+      <c r="S368" t="str">
+        <f t="shared" si="17"/>
+        <v>'| Carolco.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Carolco| | 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="369" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B369" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>1600</v>
+      </c>
+      <c r="E369">
+        <v>0</v>
+      </c>
+      <c r="F369" t="s">
+        <v>18</v>
+      </c>
+      <c r="H369" t="s">
+        <v>19</v>
+      </c>
+      <c r="I369">
+        <v>0</v>
+      </c>
+      <c r="J369">
+        <v>15</v>
+      </c>
+      <c r="K369" t="s">
+        <v>19</v>
+      </c>
+      <c r="M369" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>Gracie Films</v>
+      </c>
+      <c r="O369">
+        <v>1</v>
+      </c>
+      <c r="P369">
+        <v>1</v>
+      </c>
+      <c r="Q369">
+        <v>0</v>
+      </c>
+      <c r="R369" t="s">
+        <v>20</v>
+      </c>
+      <c r="S369" t="str">
+        <f t="shared" si="17"/>
+        <v>'| Gracie Films.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Gracie Films| | 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="370" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B370" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+      <c r="D370">
+        <v>1600</v>
+      </c>
+      <c r="E370">
+        <v>0</v>
+      </c>
+      <c r="F370" t="s">
+        <v>18</v>
+      </c>
+      <c r="H370" t="s">
+        <v>19</v>
+      </c>
+      <c r="I370">
+        <v>0</v>
+      </c>
+      <c r="J370">
+        <v>15</v>
+      </c>
+      <c r="K370" t="s">
+        <v>19</v>
+      </c>
+      <c r="M370" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>HandMade Films</v>
+      </c>
+      <c r="O370">
+        <v>1</v>
+      </c>
+      <c r="P370">
+        <v>1</v>
+      </c>
+      <c r="Q370">
+        <v>0</v>
+      </c>
+      <c r="R370" t="s">
+        <v>20</v>
+      </c>
+      <c r="S370" t="str">
+        <f t="shared" si="17"/>
+        <v>'| HandMade Films.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | HandMade Films| | 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="371" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B371" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+      <c r="D371">
+        <v>1600</v>
+      </c>
+      <c r="E371">
+        <v>0</v>
+      </c>
+      <c r="F371" t="s">
+        <v>18</v>
+      </c>
+      <c r="H371" t="s">
+        <v>19</v>
+      </c>
+      <c r="I371">
+        <v>0</v>
+      </c>
+      <c r="J371">
+        <v>15</v>
+      </c>
+      <c r="K371" t="s">
+        <v>19</v>
+      </c>
+      <c r="M371" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>Mandalay Entertainment</v>
+      </c>
+      <c r="O371">
+        <v>1</v>
+      </c>
+      <c r="P371">
+        <v>1</v>
+      </c>
+      <c r="Q371">
+        <v>0</v>
+      </c>
+      <c r="R371" t="s">
+        <v>20</v>
+      </c>
+      <c r="S371" t="str">
+        <f t="shared" si="17"/>
+        <v>'| Mandalay Entertainment.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Mandalay Entertainment| | 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="372" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B372" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+      <c r="D372">
+        <v>1600</v>
+      </c>
+      <c r="E372">
+        <v>0</v>
+      </c>
+      <c r="F372" t="s">
+        <v>18</v>
+      </c>
+      <c r="H372" t="s">
+        <v>19</v>
+      </c>
+      <c r="I372">
+        <v>0</v>
+      </c>
+      <c r="J372">
+        <v>15</v>
+      </c>
+      <c r="K372" t="s">
+        <v>19</v>
+      </c>
+      <c r="M372" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>Serendipity Pictures</v>
+      </c>
+      <c r="O372">
+        <v>1</v>
+      </c>
+      <c r="P372">
+        <v>1</v>
+      </c>
+      <c r="Q372">
+        <v>0</v>
+      </c>
+      <c r="R372" t="s">
+        <v>20</v>
+      </c>
+      <c r="S372" t="str">
+        <f t="shared" si="17"/>
+        <v>'| Serendipity Pictures.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Serendipity Pictures| | 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="373" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B373" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>1600</v>
+      </c>
+      <c r="E373">
+        <v>0</v>
+      </c>
+      <c r="F373" t="s">
+        <v>18</v>
+      </c>
+      <c r="H373" t="s">
+        <v>19</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+      <c r="J373">
+        <v>15</v>
+      </c>
+      <c r="K373" t="s">
+        <v>19</v>
+      </c>
+      <c r="M373" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>StudioCanal</v>
+      </c>
+      <c r="O373">
+        <v>1</v>
+      </c>
+      <c r="P373">
+        <v>1</v>
+      </c>
+      <c r="Q373">
+        <v>0</v>
+      </c>
+      <c r="R373" t="s">
+        <v>20</v>
+      </c>
+      <c r="S373" t="str">
+        <f t="shared" si="17"/>
+        <v>'| StudioCanal.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | StudioCanal| | 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="374" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B374" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>1600</v>
+      </c>
+      <c r="E374">
+        <v>0</v>
+      </c>
+      <c r="F374" t="s">
+        <v>18</v>
+      </c>
+      <c r="H374" t="s">
+        <v>19</v>
+      </c>
+      <c r="I374">
+        <v>0</v>
+      </c>
+      <c r="J374">
+        <v>15</v>
+      </c>
+      <c r="K374" t="s">
+        <v>19</v>
+      </c>
+      <c r="M374" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>Twisted Pictures</v>
+      </c>
+      <c r="O374">
+        <v>1</v>
+      </c>
+      <c r="P374">
+        <v>1</v>
+      </c>
+      <c r="Q374">
+        <v>0</v>
+      </c>
+      <c r="R374" t="s">
+        <v>20</v>
+      </c>
+      <c r="S374" t="str">
+        <f t="shared" si="17"/>
+        <v>'| Twisted Pictures.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Twisted Pictures| | 1| 1| 0| 0',</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S276" xr:uid="{185220E8-1934-454F-B9D7-C7470B861D27}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S144">
@@ -27223,7 +27639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F986B964-1FA2-4A72-AED6-CEE70733019A}">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L74"/>
     </sheetView>
   </sheetViews>

--- a/create_defaults/template.xlsx
+++ b/create_defaults/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\TEST\create_defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9A11E0-3515-45BB-9190-1D604426C373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FD15F5-A6E5-48D8-8DE7-9FFC7C49F1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C0516283-7CFC-4E92-8F0B-F8DC43661E92}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8552" uniqueCount="2234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8577" uniqueCount="2239">
   <si>
     <t>key_name</t>
   </si>
@@ -6748,6 +6748,21 @@
   </si>
   <si>
     <t>Twisted Pictures.png</t>
+  </si>
+  <si>
+    <t>Carsey-Werner Company.png</t>
+  </si>
+  <si>
+    <t>CBS Television Studios.png</t>
+  </si>
+  <si>
+    <t>Fox Television Studios.png</t>
+  </si>
+  <si>
+    <t>Hasbro.png</t>
+  </si>
+  <si>
+    <t>Wolf Entertainment.png</t>
   </si>
 </sst>
 </file>
@@ -7163,10 +7178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185220E8-1934-454F-B9D7-C7470B861D27}">
-  <dimension ref="A1:S374"/>
+  <dimension ref="A1:S379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N340" workbookViewId="0">
-      <selection activeCell="S367" sqref="S367:S374"/>
+    <sheetView tabSelected="1" topLeftCell="J349" workbookViewId="0">
+      <selection activeCell="S374" sqref="S374:S379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27612,6 +27627,251 @@
       <c r="S374" t="str">
         <f t="shared" si="17"/>
         <v>'| Twisted Pictures.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Twisted Pictures| | 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="375" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B375" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>1600</v>
+      </c>
+      <c r="E375">
+        <v>0</v>
+      </c>
+      <c r="F375" t="s">
+        <v>18</v>
+      </c>
+      <c r="H375" t="s">
+        <v>19</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="J375">
+        <v>15</v>
+      </c>
+      <c r="K375" t="s">
+        <v>19</v>
+      </c>
+      <c r="M375" s="2" t="str">
+        <f t="shared" ref="M375:M379" si="18">SUBSTITUTE(B375,".png","")</f>
+        <v>Carsey-Werner Company</v>
+      </c>
+      <c r="O375">
+        <v>1</v>
+      </c>
+      <c r="P375">
+        <v>1</v>
+      </c>
+      <c r="Q375">
+        <v>0</v>
+      </c>
+      <c r="R375" t="s">
+        <v>20</v>
+      </c>
+      <c r="S375" t="str">
+        <f t="shared" ref="S375:S379" si="19">"'"&amp;MID(A375,FIND(MID(TRIM(A375),1,1),A375),LEN(A375))&amp;"| "&amp;MID(B375,FIND(MID(TRIM(B375),1,1),B375),LEN(B375))&amp;"| +"&amp;C375&amp;"| "&amp;D375&amp;"| +"&amp;E375&amp;"| "&amp;MID(F375,FIND(MID(TRIM(F375),1,1),F375),LEN(F375))&amp;"| "&amp;G375&amp;"| "&amp;MID(H375,FIND(MID(TRIM(H375),1,1),H375),LEN(H375))&amp;"| "&amp;I375&amp;"| "&amp;J375&amp;"| "&amp;MID(K375,FIND(MID(TRIM(K375),1,1),K375),LEN(K375))&amp;"| "&amp;L375&amp;"| "&amp;MID(M375,FIND(MID(TRIM(M375),1,1),M375),LEN(M375))&amp;"| "&amp;MID(N375,FIND(MID(TRIM(N375),1,1),N375),LEN(N375))&amp;"| "&amp;MID(O375,FIND(MID(TRIM(O375),1,1),O375),LEN(O375))&amp;"| "&amp;MID(P375,FIND(MID(TRIM(P375),1,1),P375),LEN(P375))&amp;"| "&amp;MID(Q375,FIND(MID(TRIM(Q375),1,1),Q375),LEN(Q375))&amp;"| "&amp;MID(R375,FIND(MID(TRIM(R375),1,1),R375),LEN(R375))</f>
+        <v>'| Carsey-Werner Company.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Carsey-Werner Company| | 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="376" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B376" t="s">
+        <v>2235</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+      <c r="D376">
+        <v>1600</v>
+      </c>
+      <c r="E376">
+        <v>0</v>
+      </c>
+      <c r="F376" t="s">
+        <v>18</v>
+      </c>
+      <c r="H376" t="s">
+        <v>19</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="J376">
+        <v>15</v>
+      </c>
+      <c r="K376" t="s">
+        <v>19</v>
+      </c>
+      <c r="M376" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>CBS Television Studios</v>
+      </c>
+      <c r="O376">
+        <v>1</v>
+      </c>
+      <c r="P376">
+        <v>1</v>
+      </c>
+      <c r="Q376">
+        <v>0</v>
+      </c>
+      <c r="R376" t="s">
+        <v>20</v>
+      </c>
+      <c r="S376" t="str">
+        <f t="shared" si="19"/>
+        <v>'| CBS Television Studios.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | CBS Television Studios| | 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="377" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B377" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+      <c r="D377">
+        <v>1600</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377" t="s">
+        <v>18</v>
+      </c>
+      <c r="H377" t="s">
+        <v>19</v>
+      </c>
+      <c r="I377">
+        <v>0</v>
+      </c>
+      <c r="J377">
+        <v>15</v>
+      </c>
+      <c r="K377" t="s">
+        <v>19</v>
+      </c>
+      <c r="M377" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>Fox Television Studios</v>
+      </c>
+      <c r="O377">
+        <v>1</v>
+      </c>
+      <c r="P377">
+        <v>1</v>
+      </c>
+      <c r="Q377">
+        <v>0</v>
+      </c>
+      <c r="R377" t="s">
+        <v>20</v>
+      </c>
+      <c r="S377" t="str">
+        <f t="shared" si="19"/>
+        <v>'| Fox Television Studios.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Fox Television Studios| | 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="378" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B378" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+      <c r="D378">
+        <v>1600</v>
+      </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
+      <c r="F378" t="s">
+        <v>18</v>
+      </c>
+      <c r="H378" t="s">
+        <v>19</v>
+      </c>
+      <c r="I378">
+        <v>0</v>
+      </c>
+      <c r="J378">
+        <v>15</v>
+      </c>
+      <c r="K378" t="s">
+        <v>19</v>
+      </c>
+      <c r="M378" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>Hasbro</v>
+      </c>
+      <c r="O378">
+        <v>1</v>
+      </c>
+      <c r="P378">
+        <v>1</v>
+      </c>
+      <c r="Q378">
+        <v>0</v>
+      </c>
+      <c r="R378" t="s">
+        <v>20</v>
+      </c>
+      <c r="S378" t="str">
+        <f t="shared" si="19"/>
+        <v>'| Hasbro.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Hasbro| | 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="379" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B379" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+      <c r="D379">
+        <v>1600</v>
+      </c>
+      <c r="E379">
+        <v>0</v>
+      </c>
+      <c r="F379" t="s">
+        <v>18</v>
+      </c>
+      <c r="H379" t="s">
+        <v>19</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+      <c r="J379">
+        <v>15</v>
+      </c>
+      <c r="K379" t="s">
+        <v>19</v>
+      </c>
+      <c r="M379" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>Wolf Entertainment</v>
+      </c>
+      <c r="O379">
+        <v>1</v>
+      </c>
+      <c r="P379">
+        <v>1</v>
+      </c>
+      <c r="Q379">
+        <v>0</v>
+      </c>
+      <c r="R379" t="s">
+        <v>20</v>
+      </c>
+      <c r="S379" t="str">
+        <f t="shared" si="19"/>
+        <v>'| Wolf Entertainment.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Wolf Entertainment| | 1| 1| 0| 0',</v>
       </c>
     </row>
   </sheetData>

--- a/create_defaults/template.xlsx
+++ b/create_defaults/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\TEST\create_defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FD15F5-A6E5-48D8-8DE7-9FFC7C49F1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FAE551-B361-4264-89D9-75A1BED51A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C0516283-7CFC-4E92-8F0B-F8DC43661E92}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{C0516283-7CFC-4E92-8F0B-F8DC43661E92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8577" uniqueCount="2239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8602" uniqueCount="2244">
   <si>
     <t>key_name</t>
   </si>
@@ -6763,6 +6763,21 @@
   </si>
   <si>
     <t>Wolf Entertainment.png</t>
+  </si>
+  <si>
+    <t>AMC+.png</t>
+  </si>
+  <si>
+    <t>ITV2.png</t>
+  </si>
+  <si>
+    <t>ITV3.png</t>
+  </si>
+  <si>
+    <t>ITV4.png</t>
+  </si>
+  <si>
+    <t>ITVBe.png</t>
   </si>
 </sst>
 </file>
@@ -7178,10 +7193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185220E8-1934-454F-B9D7-C7470B861D27}">
-  <dimension ref="A1:S379"/>
+  <dimension ref="A1:S384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J349" workbookViewId="0">
-      <selection activeCell="S374" sqref="S374:S379"/>
+    <sheetView tabSelected="1" topLeftCell="M366" workbookViewId="0">
+      <selection activeCell="S380" sqref="S380:S384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27872,6 +27887,251 @@
       <c r="S379" t="str">
         <f t="shared" si="19"/>
         <v>'| Wolf Entertainment.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Wolf Entertainment| | 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="380" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B380" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <v>1600</v>
+      </c>
+      <c r="E380">
+        <v>0</v>
+      </c>
+      <c r="F380" t="s">
+        <v>18</v>
+      </c>
+      <c r="H380" t="s">
+        <v>19</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <v>15</v>
+      </c>
+      <c r="K380" t="s">
+        <v>19</v>
+      </c>
+      <c r="M380" s="2" t="str">
+        <f t="shared" ref="M380:M384" si="20">SUBSTITUTE(B380,".png","")</f>
+        <v>AMC+</v>
+      </c>
+      <c r="O380">
+        <v>1</v>
+      </c>
+      <c r="P380">
+        <v>1</v>
+      </c>
+      <c r="Q380">
+        <v>0</v>
+      </c>
+      <c r="R380" t="s">
+        <v>20</v>
+      </c>
+      <c r="S380" t="str">
+        <f t="shared" ref="S380:S384" si="21">"'"&amp;MID(A380,FIND(MID(TRIM(A380),1,1),A380),LEN(A380))&amp;"| "&amp;MID(B380,FIND(MID(TRIM(B380),1,1),B380),LEN(B380))&amp;"| +"&amp;C380&amp;"| "&amp;D380&amp;"| +"&amp;E380&amp;"| "&amp;MID(F380,FIND(MID(TRIM(F380),1,1),F380),LEN(F380))&amp;"| "&amp;G380&amp;"| "&amp;MID(H380,FIND(MID(TRIM(H380),1,1),H380),LEN(H380))&amp;"| "&amp;I380&amp;"| "&amp;J380&amp;"| "&amp;MID(K380,FIND(MID(TRIM(K380),1,1),K380),LEN(K380))&amp;"| "&amp;L380&amp;"| "&amp;MID(M380,FIND(MID(TRIM(M380),1,1),M380),LEN(M380))&amp;"| "&amp;MID(N380,FIND(MID(TRIM(N380),1,1),N380),LEN(N380))&amp;"| "&amp;MID(O380,FIND(MID(TRIM(O380),1,1),O380),LEN(O380))&amp;"| "&amp;MID(P380,FIND(MID(TRIM(P380),1,1),P380),LEN(P380))&amp;"| "&amp;MID(Q380,FIND(MID(TRIM(Q380),1,1),Q380),LEN(Q380))&amp;"| "&amp;MID(R380,FIND(MID(TRIM(R380),1,1),R380),LEN(R380))</f>
+        <v>'| AMC+.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | AMC+| | 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="381" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B381" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>1600</v>
+      </c>
+      <c r="E381">
+        <v>0</v>
+      </c>
+      <c r="F381" t="s">
+        <v>18</v>
+      </c>
+      <c r="H381" t="s">
+        <v>19</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>15</v>
+      </c>
+      <c r="K381" t="s">
+        <v>19</v>
+      </c>
+      <c r="M381" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>ITV2</v>
+      </c>
+      <c r="O381">
+        <v>1</v>
+      </c>
+      <c r="P381">
+        <v>1</v>
+      </c>
+      <c r="Q381">
+        <v>0</v>
+      </c>
+      <c r="R381" t="s">
+        <v>20</v>
+      </c>
+      <c r="S381" t="str">
+        <f t="shared" si="21"/>
+        <v>'| ITV2.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | ITV2| | 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="382" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B382" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+      <c r="D382">
+        <v>1600</v>
+      </c>
+      <c r="E382">
+        <v>0</v>
+      </c>
+      <c r="F382" t="s">
+        <v>18</v>
+      </c>
+      <c r="H382" t="s">
+        <v>19</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>15</v>
+      </c>
+      <c r="K382" t="s">
+        <v>19</v>
+      </c>
+      <c r="M382" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>ITV3</v>
+      </c>
+      <c r="O382">
+        <v>1</v>
+      </c>
+      <c r="P382">
+        <v>1</v>
+      </c>
+      <c r="Q382">
+        <v>0</v>
+      </c>
+      <c r="R382" t="s">
+        <v>20</v>
+      </c>
+      <c r="S382" t="str">
+        <f t="shared" si="21"/>
+        <v>'| ITV3.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | ITV3| | 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="383" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B383" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <v>1600</v>
+      </c>
+      <c r="E383">
+        <v>0</v>
+      </c>
+      <c r="F383" t="s">
+        <v>18</v>
+      </c>
+      <c r="H383" t="s">
+        <v>19</v>
+      </c>
+      <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383">
+        <v>15</v>
+      </c>
+      <c r="K383" t="s">
+        <v>19</v>
+      </c>
+      <c r="M383" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>ITV4</v>
+      </c>
+      <c r="O383">
+        <v>1</v>
+      </c>
+      <c r="P383">
+        <v>1</v>
+      </c>
+      <c r="Q383">
+        <v>0</v>
+      </c>
+      <c r="R383" t="s">
+        <v>20</v>
+      </c>
+      <c r="S383" t="str">
+        <f t="shared" si="21"/>
+        <v>'| ITV4.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | ITV4| | 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="384" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B384" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+      <c r="D384">
+        <v>1600</v>
+      </c>
+      <c r="E384">
+        <v>0</v>
+      </c>
+      <c r="F384" t="s">
+        <v>18</v>
+      </c>
+      <c r="H384" t="s">
+        <v>19</v>
+      </c>
+      <c r="I384">
+        <v>0</v>
+      </c>
+      <c r="J384">
+        <v>15</v>
+      </c>
+      <c r="K384" t="s">
+        <v>19</v>
+      </c>
+      <c r="M384" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>ITVBe</v>
+      </c>
+      <c r="O384">
+        <v>1</v>
+      </c>
+      <c r="P384">
+        <v>1</v>
+      </c>
+      <c r="Q384">
+        <v>0</v>
+      </c>
+      <c r="R384" t="s">
+        <v>20</v>
+      </c>
+      <c r="S384" t="str">
+        <f t="shared" si="21"/>
+        <v>'| ITVBe.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | ITVBe| | 1| 1| 0| 0',</v>
       </c>
     </row>
   </sheetData>

--- a/create_defaults/template.xlsx
+++ b/create_defaults/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\TEST\create_defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FAE551-B361-4264-89D9-75A1BED51A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2FD067-36FB-4013-A01C-454D7F86B107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{C0516283-7CFC-4E92-8F0B-F8DC43661E92}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8602" uniqueCount="2244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8632" uniqueCount="2254">
   <si>
     <t>key_name</t>
   </si>
@@ -6778,6 +6778,36 @@
   </si>
   <si>
     <t>ITVBe.png</t>
+  </si>
+  <si>
+    <t>Buddy Comedy.png</t>
+  </si>
+  <si>
+    <t>Cyber-Thriller.png</t>
+  </si>
+  <si>
+    <t>Jungle Adventure.png</t>
+  </si>
+  <si>
+    <t>Medieval.png</t>
+  </si>
+  <si>
+    <t>Post-Apocalyptic.png</t>
+  </si>
+  <si>
+    <t>BUDDY_COMEDY</t>
+  </si>
+  <si>
+    <t>CYBER_THRILLER</t>
+  </si>
+  <si>
+    <t>JUNGLE_ADVENTURE</t>
+  </si>
+  <si>
+    <t>MEDIEVAL</t>
+  </si>
+  <si>
+    <t>POST_APOCALYPTIC</t>
   </si>
 </sst>
 </file>
@@ -7193,10 +7223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185220E8-1934-454F-B9D7-C7470B861D27}">
-  <dimension ref="A1:S384"/>
+  <dimension ref="A1:S389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M366" workbookViewId="0">
-      <selection activeCell="S380" sqref="S380:S384"/>
+    <sheetView tabSelected="1" topLeftCell="S372" workbookViewId="0">
+      <selection activeCell="S385" sqref="S385:S389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27918,7 +27948,7 @@
         <v>19</v>
       </c>
       <c r="M380" s="2" t="str">
-        <f t="shared" ref="M380:M384" si="20">SUBSTITUTE(B380,".png","")</f>
+        <f t="shared" ref="M380:M385" si="20">SUBSTITUTE(B380,".png","")</f>
         <v>AMC+</v>
       </c>
       <c r="O380">
@@ -27934,7 +27964,7 @@
         <v>20</v>
       </c>
       <c r="S380" t="str">
-        <f t="shared" ref="S380:S384" si="21">"'"&amp;MID(A380,FIND(MID(TRIM(A380),1,1),A380),LEN(A380))&amp;"| "&amp;MID(B380,FIND(MID(TRIM(B380),1,1),B380),LEN(B380))&amp;"| +"&amp;C380&amp;"| "&amp;D380&amp;"| +"&amp;E380&amp;"| "&amp;MID(F380,FIND(MID(TRIM(F380),1,1),F380),LEN(F380))&amp;"| "&amp;G380&amp;"| "&amp;MID(H380,FIND(MID(TRIM(H380),1,1),H380),LEN(H380))&amp;"| "&amp;I380&amp;"| "&amp;J380&amp;"| "&amp;MID(K380,FIND(MID(TRIM(K380),1,1),K380),LEN(K380))&amp;"| "&amp;L380&amp;"| "&amp;MID(M380,FIND(MID(TRIM(M380),1,1),M380),LEN(M380))&amp;"| "&amp;MID(N380,FIND(MID(TRIM(N380),1,1),N380),LEN(N380))&amp;"| "&amp;MID(O380,FIND(MID(TRIM(O380),1,1),O380),LEN(O380))&amp;"| "&amp;MID(P380,FIND(MID(TRIM(P380),1,1),P380),LEN(P380))&amp;"| "&amp;MID(Q380,FIND(MID(TRIM(Q380),1,1),Q380),LEN(Q380))&amp;"| "&amp;MID(R380,FIND(MID(TRIM(R380),1,1),R380),LEN(R380))</f>
+        <f t="shared" ref="S380:S385" si="21">"'"&amp;MID(A380,FIND(MID(TRIM(A380),1,1),A380),LEN(A380))&amp;"| "&amp;MID(B380,FIND(MID(TRIM(B380),1,1),B380),LEN(B380))&amp;"| +"&amp;C380&amp;"| "&amp;D380&amp;"| +"&amp;E380&amp;"| "&amp;MID(F380,FIND(MID(TRIM(F380),1,1),F380),LEN(F380))&amp;"| "&amp;G380&amp;"| "&amp;MID(H380,FIND(MID(TRIM(H380),1,1),H380),LEN(H380))&amp;"| "&amp;I380&amp;"| "&amp;J380&amp;"| "&amp;MID(K380,FIND(MID(TRIM(K380),1,1),K380),LEN(K380))&amp;"| "&amp;L380&amp;"| "&amp;MID(M380,FIND(MID(TRIM(M380),1,1),M380),LEN(M380))&amp;"| "&amp;MID(N380,FIND(MID(TRIM(N380),1,1),N380),LEN(N380))&amp;"| "&amp;MID(O380,FIND(MID(TRIM(O380),1,1),O380),LEN(O380))&amp;"| "&amp;MID(P380,FIND(MID(TRIM(P380),1,1),P380),LEN(P380))&amp;"| "&amp;MID(Q380,FIND(MID(TRIM(Q380),1,1),Q380),LEN(Q380))&amp;"| "&amp;MID(R380,FIND(MID(TRIM(R380),1,1),R380),LEN(R380))</f>
         <v>'| AMC+.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | AMC+| | 1| 1| 0| 0',</v>
       </c>
     </row>
@@ -28132,6 +28162,266 @@
       <c r="S384" t="str">
         <f t="shared" si="21"/>
         <v>'| ITVBe.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | ITVBe| | 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B385" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C385">
+        <v>-500</v>
+      </c>
+      <c r="D385">
+        <v>1800</v>
+      </c>
+      <c r="E385">
+        <v>850</v>
+      </c>
+      <c r="F385" t="s">
+        <v>18</v>
+      </c>
+      <c r="H385" t="s">
+        <v>19</v>
+      </c>
+      <c r="I385">
+        <v>0</v>
+      </c>
+      <c r="J385">
+        <v>15</v>
+      </c>
+      <c r="K385" t="s">
+        <v>19</v>
+      </c>
+      <c r="M385" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>Buddy Comedy</v>
+      </c>
+      <c r="O385">
+        <v>1</v>
+      </c>
+      <c r="P385">
+        <v>1</v>
+      </c>
+      <c r="Q385">
+        <v>0</v>
+      </c>
+      <c r="R385" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S385" t="str">
+        <f t="shared" si="21"/>
+        <v>'BUDDY_COMEDY| Buddy Comedy.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Buddy Comedy| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B386" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C386">
+        <v>-500</v>
+      </c>
+      <c r="D386">
+        <v>1800</v>
+      </c>
+      <c r="E386">
+        <v>850</v>
+      </c>
+      <c r="F386" t="s">
+        <v>18</v>
+      </c>
+      <c r="H386" t="s">
+        <v>19</v>
+      </c>
+      <c r="I386">
+        <v>0</v>
+      </c>
+      <c r="J386">
+        <v>15</v>
+      </c>
+      <c r="K386" t="s">
+        <v>19</v>
+      </c>
+      <c r="M386" s="2" t="str">
+        <f t="shared" ref="M386:M389" si="22">SUBSTITUTE(B386,".png","")</f>
+        <v>Cyber-Thriller</v>
+      </c>
+      <c r="O386">
+        <v>1</v>
+      </c>
+      <c r="P386">
+        <v>1</v>
+      </c>
+      <c r="Q386">
+        <v>0</v>
+      </c>
+      <c r="R386" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S386" t="str">
+        <f t="shared" ref="S386:S389" si="23">"'"&amp;MID(A386,FIND(MID(TRIM(A386),1,1),A386),LEN(A386))&amp;"| "&amp;MID(B386,FIND(MID(TRIM(B386),1,1),B386),LEN(B386))&amp;"| +"&amp;C386&amp;"| "&amp;D386&amp;"| +"&amp;E386&amp;"| "&amp;MID(F386,FIND(MID(TRIM(F386),1,1),F386),LEN(F386))&amp;"| "&amp;G386&amp;"| "&amp;MID(H386,FIND(MID(TRIM(H386),1,1),H386),LEN(H386))&amp;"| "&amp;I386&amp;"| "&amp;J386&amp;"| "&amp;MID(K386,FIND(MID(TRIM(K386),1,1),K386),LEN(K386))&amp;"| "&amp;L386&amp;"| "&amp;MID(M386,FIND(MID(TRIM(M386),1,1),M386),LEN(M386))&amp;"| "&amp;MID(N386,FIND(MID(TRIM(N386),1,1),N386),LEN(N386))&amp;"| "&amp;MID(O386,FIND(MID(TRIM(O386),1,1),O386),LEN(O386))&amp;"| "&amp;MID(P386,FIND(MID(TRIM(P386),1,1),P386),LEN(P386))&amp;"| "&amp;MID(Q386,FIND(MID(TRIM(Q386),1,1),Q386),LEN(Q386))&amp;"| "&amp;MID(R386,FIND(MID(TRIM(R386),1,1),R386),LEN(R386))</f>
+        <v>'CYBER_THRILLER| Cyber-Thriller.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Cyber-Thriller| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B387" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C387">
+        <v>-500</v>
+      </c>
+      <c r="D387">
+        <v>1800</v>
+      </c>
+      <c r="E387">
+        <v>850</v>
+      </c>
+      <c r="F387" t="s">
+        <v>18</v>
+      </c>
+      <c r="H387" t="s">
+        <v>19</v>
+      </c>
+      <c r="I387">
+        <v>0</v>
+      </c>
+      <c r="J387">
+        <v>15</v>
+      </c>
+      <c r="K387" t="s">
+        <v>19</v>
+      </c>
+      <c r="M387" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>Jungle Adventure</v>
+      </c>
+      <c r="O387">
+        <v>1</v>
+      </c>
+      <c r="P387">
+        <v>1</v>
+      </c>
+      <c r="Q387">
+        <v>0</v>
+      </c>
+      <c r="R387" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S387" t="str">
+        <f t="shared" si="23"/>
+        <v>'JUNGLE_ADVENTURE| Jungle Adventure.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Jungle Adventure| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B388" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C388">
+        <v>-500</v>
+      </c>
+      <c r="D388">
+        <v>1800</v>
+      </c>
+      <c r="E388">
+        <v>850</v>
+      </c>
+      <c r="F388" t="s">
+        <v>18</v>
+      </c>
+      <c r="H388" t="s">
+        <v>19</v>
+      </c>
+      <c r="I388">
+        <v>0</v>
+      </c>
+      <c r="J388">
+        <v>15</v>
+      </c>
+      <c r="K388" t="s">
+        <v>19</v>
+      </c>
+      <c r="M388" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>Medieval</v>
+      </c>
+      <c r="O388">
+        <v>1</v>
+      </c>
+      <c r="P388">
+        <v>1</v>
+      </c>
+      <c r="Q388">
+        <v>0</v>
+      </c>
+      <c r="R388" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S388" t="str">
+        <f t="shared" si="23"/>
+        <v>'MEDIEVAL| Medieval.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Medieval| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B389" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C389">
+        <v>-500</v>
+      </c>
+      <c r="D389">
+        <v>1800</v>
+      </c>
+      <c r="E389">
+        <v>850</v>
+      </c>
+      <c r="F389" t="s">
+        <v>18</v>
+      </c>
+      <c r="H389" t="s">
+        <v>19</v>
+      </c>
+      <c r="I389">
+        <v>0</v>
+      </c>
+      <c r="J389">
+        <v>15</v>
+      </c>
+      <c r="K389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M389" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>Post-Apocalyptic</v>
+      </c>
+      <c r="O389">
+        <v>1</v>
+      </c>
+      <c r="P389">
+        <v>1</v>
+      </c>
+      <c r="Q389">
+        <v>0</v>
+      </c>
+      <c r="R389" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S389" t="str">
+        <f t="shared" si="23"/>
+        <v>'POST_APOCALYPTIC| Post-Apocalyptic.png| +-500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Post-Apocalyptic| | 1| 1| 0| 1',</v>
       </c>
     </row>
   </sheetData>

--- a/create_defaults/template.xlsx
+++ b/create_defaults/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\TEST\create_defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8FCB73-8D2A-4473-94C7-E9167E14A1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64943C36-ABD0-4EA7-A6C4-6A7ED7DF0DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C0516283-7CFC-4E92-8F0B-F8DC43661E92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26880" windowHeight="12465" xr2:uid="{C0516283-7CFC-4E92-8F0B-F8DC43661E92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11492" uniqueCount="2337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11527" uniqueCount="2344">
   <si>
     <t>key_name</t>
   </si>
@@ -7058,6 +7058,27 @@
   </si>
   <si>
     <t>TOP_10</t>
+  </si>
+  <si>
+    <t>Bleecker Street.png</t>
+  </si>
+  <si>
+    <t>IFC Films.png</t>
+  </si>
+  <si>
+    <t>NEON.png</t>
+  </si>
+  <si>
+    <t>Rankin-Bass Productions.png</t>
+  </si>
+  <si>
+    <t>STX Entertainment.png</t>
+  </si>
+  <si>
+    <t>TOHO.png</t>
+  </si>
+  <si>
+    <t>TSG Entertainment.png</t>
   </si>
 </sst>
 </file>
@@ -7473,10 +7494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185220E8-1934-454F-B9D7-C7470B861D27}">
-  <dimension ref="A1:S779"/>
+  <dimension ref="A1:S786"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N505" workbookViewId="0">
-      <selection activeCell="S507" sqref="S507:S519"/>
+    <sheetView tabSelected="1" topLeftCell="N764" workbookViewId="0">
+      <selection activeCell="S786" sqref="S780:S786"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50122,6 +50143,349 @@
       <c r="S779" t="str">
         <f t="shared" si="30"/>
         <v>'TOP_30| vudu.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | vudu_top_30| #3567AC| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="780" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B780" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C780">
+        <v>0</v>
+      </c>
+      <c r="D780">
+        <v>1600</v>
+      </c>
+      <c r="E780">
+        <v>0</v>
+      </c>
+      <c r="F780" t="s">
+        <v>18</v>
+      </c>
+      <c r="H780" t="s">
+        <v>19</v>
+      </c>
+      <c r="I780">
+        <v>0</v>
+      </c>
+      <c r="J780">
+        <v>15</v>
+      </c>
+      <c r="K780" t="s">
+        <v>19</v>
+      </c>
+      <c r="M780" t="str">
+        <f>SUBSTITUTE(B780,".png","")</f>
+        <v>Bleecker Street</v>
+      </c>
+      <c r="O780">
+        <v>1</v>
+      </c>
+      <c r="P780">
+        <v>1</v>
+      </c>
+      <c r="Q780">
+        <v>0</v>
+      </c>
+      <c r="R780" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S780" t="str">
+        <f t="shared" ref="S780:S786" si="31">"'"&amp;MID(A780,FIND(MID(TRIM(A780),1,1),A780),LEN(A780))&amp;"| "&amp;MID(B780,FIND(MID(TRIM(B780),1,1),B780),LEN(B780))&amp;"| +"&amp;C780&amp;"| "&amp;D780&amp;"| +"&amp;E780&amp;"| "&amp;MID(F780,FIND(MID(TRIM(F780),1,1),F780),LEN(F780))&amp;"| "&amp;G780&amp;"| "&amp;MID(H780,FIND(MID(TRIM(H780),1,1),H780),LEN(H780))&amp;"| "&amp;I780&amp;"| "&amp;J780&amp;"| "&amp;MID(K780,FIND(MID(TRIM(K780),1,1),K780),LEN(K780))&amp;"| "&amp;L780&amp;"| "&amp;MID(M780,FIND(MID(TRIM(M780),1,1),M780),LEN(M780))&amp;"| "&amp;MID(N780,FIND(MID(TRIM(N780),1,1),N780),LEN(N780))&amp;"| "&amp;MID(O780,FIND(MID(TRIM(O780),1,1),O780),LEN(O780))&amp;"| "&amp;MID(P780,FIND(MID(TRIM(P780),1,1),P780),LEN(P780))&amp;"| "&amp;MID(Q780,FIND(MID(TRIM(Q780),1,1),Q780),LEN(Q780))&amp;"| "&amp;MID(R780,FIND(MID(TRIM(R780),1,1),R780),LEN(R780))</f>
+        <v>'| Bleecker Street.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Bleecker Street| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="781" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B781" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C781">
+        <v>0</v>
+      </c>
+      <c r="D781">
+        <v>1600</v>
+      </c>
+      <c r="E781">
+        <v>0</v>
+      </c>
+      <c r="F781" t="s">
+        <v>18</v>
+      </c>
+      <c r="H781" t="s">
+        <v>19</v>
+      </c>
+      <c r="I781">
+        <v>0</v>
+      </c>
+      <c r="J781">
+        <v>15</v>
+      </c>
+      <c r="K781" t="s">
+        <v>19</v>
+      </c>
+      <c r="M781" t="str">
+        <f t="shared" ref="M781:M786" si="32">SUBSTITUTE(B781,".png","")</f>
+        <v>IFC Films</v>
+      </c>
+      <c r="O781">
+        <v>1</v>
+      </c>
+      <c r="P781">
+        <v>1</v>
+      </c>
+      <c r="Q781">
+        <v>0</v>
+      </c>
+      <c r="R781" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S781" t="str">
+        <f t="shared" si="31"/>
+        <v>'| IFC Films.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | IFC Films| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="782" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B782" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C782">
+        <v>0</v>
+      </c>
+      <c r="D782">
+        <v>1600</v>
+      </c>
+      <c r="E782">
+        <v>0</v>
+      </c>
+      <c r="F782" t="s">
+        <v>18</v>
+      </c>
+      <c r="H782" t="s">
+        <v>19</v>
+      </c>
+      <c r="I782">
+        <v>0</v>
+      </c>
+      <c r="J782">
+        <v>15</v>
+      </c>
+      <c r="K782" t="s">
+        <v>19</v>
+      </c>
+      <c r="M782" t="str">
+        <f t="shared" si="32"/>
+        <v>NEON</v>
+      </c>
+      <c r="O782">
+        <v>1</v>
+      </c>
+      <c r="P782">
+        <v>1</v>
+      </c>
+      <c r="Q782">
+        <v>0</v>
+      </c>
+      <c r="R782" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S782" t="str">
+        <f t="shared" si="31"/>
+        <v>'| NEON.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | NEON| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="783" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B783" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C783">
+        <v>0</v>
+      </c>
+      <c r="D783">
+        <v>1600</v>
+      </c>
+      <c r="E783">
+        <v>0</v>
+      </c>
+      <c r="F783" t="s">
+        <v>18</v>
+      </c>
+      <c r="H783" t="s">
+        <v>19</v>
+      </c>
+      <c r="I783">
+        <v>0</v>
+      </c>
+      <c r="J783">
+        <v>15</v>
+      </c>
+      <c r="K783" t="s">
+        <v>19</v>
+      </c>
+      <c r="M783" t="str">
+        <f t="shared" si="32"/>
+        <v>Rankin-Bass Productions</v>
+      </c>
+      <c r="O783">
+        <v>1</v>
+      </c>
+      <c r="P783">
+        <v>1</v>
+      </c>
+      <c r="Q783">
+        <v>0</v>
+      </c>
+      <c r="R783" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S783" t="str">
+        <f t="shared" si="31"/>
+        <v>'| Rankin-Bass Productions.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Rankin-Bass Productions| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="784" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B784" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C784">
+        <v>0</v>
+      </c>
+      <c r="D784">
+        <v>1600</v>
+      </c>
+      <c r="E784">
+        <v>0</v>
+      </c>
+      <c r="F784" t="s">
+        <v>18</v>
+      </c>
+      <c r="H784" t="s">
+        <v>19</v>
+      </c>
+      <c r="I784">
+        <v>0</v>
+      </c>
+      <c r="J784">
+        <v>15</v>
+      </c>
+      <c r="K784" t="s">
+        <v>19</v>
+      </c>
+      <c r="M784" t="str">
+        <f t="shared" si="32"/>
+        <v>STX Entertainment</v>
+      </c>
+      <c r="O784">
+        <v>1</v>
+      </c>
+      <c r="P784">
+        <v>1</v>
+      </c>
+      <c r="Q784">
+        <v>0</v>
+      </c>
+      <c r="R784" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S784" t="str">
+        <f t="shared" si="31"/>
+        <v>'| STX Entertainment.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | STX Entertainment| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="785" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B785" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C785">
+        <v>0</v>
+      </c>
+      <c r="D785">
+        <v>1600</v>
+      </c>
+      <c r="E785">
+        <v>0</v>
+      </c>
+      <c r="F785" t="s">
+        <v>18</v>
+      </c>
+      <c r="H785" t="s">
+        <v>19</v>
+      </c>
+      <c r="I785">
+        <v>0</v>
+      </c>
+      <c r="J785">
+        <v>15</v>
+      </c>
+      <c r="K785" t="s">
+        <v>19</v>
+      </c>
+      <c r="M785" t="str">
+        <f t="shared" si="32"/>
+        <v>TOHO</v>
+      </c>
+      <c r="O785">
+        <v>1</v>
+      </c>
+      <c r="P785">
+        <v>1</v>
+      </c>
+      <c r="Q785">
+        <v>0</v>
+      </c>
+      <c r="R785" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S785" t="str">
+        <f t="shared" si="31"/>
+        <v>'| TOHO.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | TOHO| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="786" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B786" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C786">
+        <v>0</v>
+      </c>
+      <c r="D786">
+        <v>1600</v>
+      </c>
+      <c r="E786">
+        <v>0</v>
+      </c>
+      <c r="F786" t="s">
+        <v>18</v>
+      </c>
+      <c r="H786" t="s">
+        <v>19</v>
+      </c>
+      <c r="I786">
+        <v>0</v>
+      </c>
+      <c r="J786">
+        <v>15</v>
+      </c>
+      <c r="K786" t="s">
+        <v>19</v>
+      </c>
+      <c r="M786" t="str">
+        <f t="shared" si="32"/>
+        <v>TSG Entertainment</v>
+      </c>
+      <c r="O786">
+        <v>1</v>
+      </c>
+      <c r="P786">
+        <v>1</v>
+      </c>
+      <c r="Q786">
+        <v>0</v>
+      </c>
+      <c r="R786" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S786" t="str">
+        <f t="shared" si="31"/>
+        <v>'| TSG Entertainment.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | TSG Entertainment| | 1| 1| 0| 1',</v>
       </c>
     </row>
   </sheetData>

--- a/create_defaults/template.xlsx
+++ b/create_defaults/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\TEST\create_defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64943C36-ABD0-4EA7-A6C4-6A7ED7DF0DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2211EF27-D86F-4CCA-B115-AC184CA8CAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26880" windowHeight="12465" xr2:uid="{C0516283-7CFC-4E92-8F0B-F8DC43661E92}"/>
+    <workbookView xWindow="1485" yWindow="1275" windowWidth="19980" windowHeight="8850" xr2:uid="{C0516283-7CFC-4E92-8F0B-F8DC43661E92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11527" uniqueCount="2344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11655" uniqueCount="2377">
   <si>
     <t>key_name</t>
   </si>
@@ -7079,6 +7079,105 @@
   </si>
   <si>
     <t>TSG Entertainment.png</t>
+  </si>
+  <si>
+    <t>LETTERBOXD_TOP_250</t>
+  </si>
+  <si>
+    <t>BOX_OFFICE_MOJO_ALL_TIME_100</t>
+  </si>
+  <si>
+    <t>AFI_100_YEARS_100_MOVIES</t>
+  </si>
+  <si>
+    <t>SIGHT_AND_SOUND_GREATEST_FILMS</t>
+  </si>
+  <si>
+    <t>EDGAR_WRIGHTS_1000_FAVORITES</t>
+  </si>
+  <si>
+    <t>ROGER_EBERTS_GREAT_MOVIES</t>
+  </si>
+  <si>
+    <t>TOP_250_WOMEN_DIRECTED</t>
+  </si>
+  <si>
+    <t>TOP_100_BLACK_DIRECTED</t>
+  </si>
+  <si>
+    <t>TOP_250_MOST_FANS</t>
+  </si>
+  <si>
+    <t>TOP_250_DOCUMENTARIES</t>
+  </si>
+  <si>
+    <t>TOP_100_ANIMATION</t>
+  </si>
+  <si>
+    <t>TOP_250_HORROR</t>
+  </si>
+  <si>
+    <t>IMDB_TOP_250</t>
+  </si>
+  <si>
+    <t>OSCARS_BEST_PICTURE_WINNERS</t>
+  </si>
+  <si>
+    <t>CANNES_PALMES_DOR_WINNERS</t>
+  </si>
+  <si>
+    <t>Letterboxd.png</t>
+  </si>
+  <si>
+    <t>Letterboxd Top 250</t>
+  </si>
+  <si>
+    <t>Box Office Mojo All Time 100</t>
+  </si>
+  <si>
+    <t>AFI 100 Years 100 Movies</t>
+  </si>
+  <si>
+    <t>Sight &amp; Sound Greatest Films</t>
+  </si>
+  <si>
+    <t>Top 250 Women-Directed</t>
+  </si>
+  <si>
+    <t>Top 100 Black-Directed</t>
+  </si>
+  <si>
+    <t>Top 250 Most Fans</t>
+  </si>
+  <si>
+    <t>Top 250 Documentaries</t>
+  </si>
+  <si>
+    <t>Top 100 Animation</t>
+  </si>
+  <si>
+    <t>Top 250 Horror</t>
+  </si>
+  <si>
+    <t>IMDb Top 250</t>
+  </si>
+  <si>
+    <t>Edgar Wrights 1000 Favorites</t>
+  </si>
+  <si>
+    <t>Roger Eberts Great Movies</t>
+  </si>
+  <si>
+    <t>Cannes Palme dOr Winners</t>
+  </si>
+  <si>
+    <t>Oscars Best Picture Winners</t>
+  </si>
+  <si>
+    <t>1001 To See Before You Die</t>
+  </si>
+  <si>
+    <t>#405162</t>
   </si>
 </sst>
 </file>
@@ -7494,10 +7593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185220E8-1934-454F-B9D7-C7470B861D27}">
-  <dimension ref="A1:S786"/>
+  <dimension ref="A1:S802"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N764" workbookViewId="0">
-      <selection activeCell="S786" sqref="S780:S786"/>
+    <sheetView tabSelected="1" topLeftCell="J781" workbookViewId="0">
+      <selection activeCell="M791" sqref="M791"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50190,7 +50289,7 @@
         <v>1747</v>
       </c>
       <c r="S780" t="str">
-        <f t="shared" ref="S780:S786" si="31">"'"&amp;MID(A780,FIND(MID(TRIM(A780),1,1),A780),LEN(A780))&amp;"| "&amp;MID(B780,FIND(MID(TRIM(B780),1,1),B780),LEN(B780))&amp;"| +"&amp;C780&amp;"| "&amp;D780&amp;"| +"&amp;E780&amp;"| "&amp;MID(F780,FIND(MID(TRIM(F780),1,1),F780),LEN(F780))&amp;"| "&amp;G780&amp;"| "&amp;MID(H780,FIND(MID(TRIM(H780),1,1),H780),LEN(H780))&amp;"| "&amp;I780&amp;"| "&amp;J780&amp;"| "&amp;MID(K780,FIND(MID(TRIM(K780),1,1),K780),LEN(K780))&amp;"| "&amp;L780&amp;"| "&amp;MID(M780,FIND(MID(TRIM(M780),1,1),M780),LEN(M780))&amp;"| "&amp;MID(N780,FIND(MID(TRIM(N780),1,1),N780),LEN(N780))&amp;"| "&amp;MID(O780,FIND(MID(TRIM(O780),1,1),O780),LEN(O780))&amp;"| "&amp;MID(P780,FIND(MID(TRIM(P780),1,1),P780),LEN(P780))&amp;"| "&amp;MID(Q780,FIND(MID(TRIM(Q780),1,1),Q780),LEN(Q780))&amp;"| "&amp;MID(R780,FIND(MID(TRIM(R780),1,1),R780),LEN(R780))</f>
+        <f t="shared" ref="S780:S802" si="31">"'"&amp;MID(A780,FIND(MID(TRIM(A780),1,1),A780),LEN(A780))&amp;"| "&amp;MID(B780,FIND(MID(TRIM(B780),1,1),B780),LEN(B780))&amp;"| +"&amp;C780&amp;"| "&amp;D780&amp;"| +"&amp;E780&amp;"| "&amp;MID(F780,FIND(MID(TRIM(F780),1,1),F780),LEN(F780))&amp;"| "&amp;G780&amp;"| "&amp;MID(H780,FIND(MID(TRIM(H780),1,1),H780),LEN(H780))&amp;"| "&amp;I780&amp;"| "&amp;J780&amp;"| "&amp;MID(K780,FIND(MID(TRIM(K780),1,1),K780),LEN(K780))&amp;"| "&amp;L780&amp;"| "&amp;MID(M780,FIND(MID(TRIM(M780),1,1),M780),LEN(M780))&amp;"| "&amp;MID(N780,FIND(MID(TRIM(N780),1,1),N780),LEN(N780))&amp;"| "&amp;MID(O780,FIND(MID(TRIM(O780),1,1),O780),LEN(O780))&amp;"| "&amp;MID(P780,FIND(MID(TRIM(P780),1,1),P780),LEN(P780))&amp;"| "&amp;MID(Q780,FIND(MID(TRIM(Q780),1,1),Q780),LEN(Q780))&amp;"| "&amp;MID(R780,FIND(MID(TRIM(R780),1,1),R780),LEN(R780))</f>
         <v>'| Bleecker Street.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Bleecker Street| | 1| 1| 0| 1',</v>
       </c>
     </row>
@@ -50390,7 +50489,7 @@
         <v>'| STX Entertainment.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | STX Entertainment| | 1| 1| 0| 1',</v>
       </c>
     </row>
-    <row r="785" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B785" t="s">
         <v>2342</v>
       </c>
@@ -50439,7 +50538,7 @@
         <v>'| TOHO.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | TOHO| | 1| 1| 0| 1',</v>
       </c>
     </row>
-    <row r="786" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B786" t="s">
         <v>2343</v>
       </c>
@@ -50486,6 +50585,870 @@
       <c r="S786" t="str">
         <f t="shared" si="31"/>
         <v>'| TSG Entertainment.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | TSG Entertainment| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="787" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B787" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C787">
+        <v>-500</v>
+      </c>
+      <c r="D787">
+        <v>1500</v>
+      </c>
+      <c r="E787">
+        <v>850</v>
+      </c>
+      <c r="F787" t="s">
+        <v>18</v>
+      </c>
+      <c r="H787" t="s">
+        <v>19</v>
+      </c>
+      <c r="I787">
+        <v>0</v>
+      </c>
+      <c r="J787">
+        <v>15</v>
+      </c>
+      <c r="K787" t="s">
+        <v>19</v>
+      </c>
+      <c r="M787" t="s">
+        <v>2360</v>
+      </c>
+      <c r="N787" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O787">
+        <v>1</v>
+      </c>
+      <c r="P787">
+        <v>1</v>
+      </c>
+      <c r="Q787">
+        <v>0</v>
+      </c>
+      <c r="R787" t="s">
+        <v>20</v>
+      </c>
+      <c r="S787" t="str">
+        <f t="shared" si="31"/>
+        <v>'LETTERBOXD_TOP_250| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Letterboxd Top 250| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="788" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B788" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C788">
+        <v>-500</v>
+      </c>
+      <c r="D788">
+        <v>1500</v>
+      </c>
+      <c r="E788">
+        <v>850</v>
+      </c>
+      <c r="F788" t="s">
+        <v>18</v>
+      </c>
+      <c r="H788" t="s">
+        <v>19</v>
+      </c>
+      <c r="I788">
+        <v>0</v>
+      </c>
+      <c r="J788">
+        <v>15</v>
+      </c>
+      <c r="K788" t="s">
+        <v>19</v>
+      </c>
+      <c r="M788" t="s">
+        <v>2361</v>
+      </c>
+      <c r="N788" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O788">
+        <v>1</v>
+      </c>
+      <c r="P788">
+        <v>1</v>
+      </c>
+      <c r="Q788">
+        <v>0</v>
+      </c>
+      <c r="R788" t="s">
+        <v>20</v>
+      </c>
+      <c r="S788" t="str">
+        <f t="shared" si="31"/>
+        <v>'BOX_OFFICE_MOJO_ALL_TIME_100| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Box Office Mojo All Time 100| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="789" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B789" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C789">
+        <v>-500</v>
+      </c>
+      <c r="D789">
+        <v>1500</v>
+      </c>
+      <c r="E789">
+        <v>850</v>
+      </c>
+      <c r="F789" t="s">
+        <v>18</v>
+      </c>
+      <c r="H789" t="s">
+        <v>19</v>
+      </c>
+      <c r="I789">
+        <v>0</v>
+      </c>
+      <c r="J789">
+        <v>15</v>
+      </c>
+      <c r="K789" t="s">
+        <v>19</v>
+      </c>
+      <c r="M789" t="s">
+        <v>2362</v>
+      </c>
+      <c r="N789" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O789">
+        <v>1</v>
+      </c>
+      <c r="P789">
+        <v>1</v>
+      </c>
+      <c r="Q789">
+        <v>0</v>
+      </c>
+      <c r="R789" t="s">
+        <v>20</v>
+      </c>
+      <c r="S789" t="str">
+        <f t="shared" si="31"/>
+        <v>'AFI_100_YEARS_100_MOVIES| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | AFI 100 Years 100 Movies| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="790" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B790" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C790">
+        <v>-500</v>
+      </c>
+      <c r="D790">
+        <v>1500</v>
+      </c>
+      <c r="E790">
+        <v>850</v>
+      </c>
+      <c r="F790" t="s">
+        <v>18</v>
+      </c>
+      <c r="H790" t="s">
+        <v>19</v>
+      </c>
+      <c r="I790">
+        <v>0</v>
+      </c>
+      <c r="J790">
+        <v>15</v>
+      </c>
+      <c r="K790" t="s">
+        <v>19</v>
+      </c>
+      <c r="M790" t="s">
+        <v>2363</v>
+      </c>
+      <c r="N790" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O790">
+        <v>1</v>
+      </c>
+      <c r="P790">
+        <v>1</v>
+      </c>
+      <c r="Q790">
+        <v>0</v>
+      </c>
+      <c r="R790" t="s">
+        <v>20</v>
+      </c>
+      <c r="S790" t="str">
+        <f t="shared" si="31"/>
+        <v>'SIGHT_AND_SOUND_GREATEST_FILMS| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Sight &amp; Sound Greatest Films| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="791" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B791" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C791">
+        <v>-500</v>
+      </c>
+      <c r="D791">
+        <v>1500</v>
+      </c>
+      <c r="E791">
+        <v>850</v>
+      </c>
+      <c r="F791" t="s">
+        <v>18</v>
+      </c>
+      <c r="H791" t="s">
+        <v>19</v>
+      </c>
+      <c r="I791">
+        <v>0</v>
+      </c>
+      <c r="J791">
+        <v>15</v>
+      </c>
+      <c r="K791" t="s">
+        <v>19</v>
+      </c>
+      <c r="M791" t="s">
+        <v>2375</v>
+      </c>
+      <c r="N791" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O791">
+        <v>1</v>
+      </c>
+      <c r="P791">
+        <v>1</v>
+      </c>
+      <c r="Q791">
+        <v>0</v>
+      </c>
+      <c r="R791" t="s">
+        <v>20</v>
+      </c>
+      <c r="S791" t="str">
+        <f t="shared" si="31"/>
+        <v>'1001_MOVIES_YOU_MUST_SEE_BEFORE_YOU_DIE| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | 1001 To See Before You Die| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="792" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B792" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C792">
+        <v>-500</v>
+      </c>
+      <c r="D792">
+        <v>1500</v>
+      </c>
+      <c r="E792">
+        <v>850</v>
+      </c>
+      <c r="F792" t="s">
+        <v>18</v>
+      </c>
+      <c r="H792" t="s">
+        <v>19</v>
+      </c>
+      <c r="I792">
+        <v>0</v>
+      </c>
+      <c r="J792">
+        <v>15</v>
+      </c>
+      <c r="K792" t="s">
+        <v>19</v>
+      </c>
+      <c r="M792" t="s">
+        <v>2371</v>
+      </c>
+      <c r="N792" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O792">
+        <v>1</v>
+      </c>
+      <c r="P792">
+        <v>1</v>
+      </c>
+      <c r="Q792">
+        <v>0</v>
+      </c>
+      <c r="R792" t="s">
+        <v>20</v>
+      </c>
+      <c r="S792" t="str">
+        <f t="shared" si="31"/>
+        <v>'EDGAR_WRIGHTS_1000_FAVORITES| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Edgar Wrights 1000 Favorites| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="793" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B793" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C793">
+        <v>-500</v>
+      </c>
+      <c r="D793">
+        <v>1500</v>
+      </c>
+      <c r="E793">
+        <v>850</v>
+      </c>
+      <c r="F793" t="s">
+        <v>18</v>
+      </c>
+      <c r="H793" t="s">
+        <v>19</v>
+      </c>
+      <c r="I793">
+        <v>0</v>
+      </c>
+      <c r="J793">
+        <v>15</v>
+      </c>
+      <c r="K793" t="s">
+        <v>19</v>
+      </c>
+      <c r="M793" t="s">
+        <v>2372</v>
+      </c>
+      <c r="N793" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O793">
+        <v>1</v>
+      </c>
+      <c r="P793">
+        <v>1</v>
+      </c>
+      <c r="Q793">
+        <v>0</v>
+      </c>
+      <c r="R793" t="s">
+        <v>20</v>
+      </c>
+      <c r="S793" t="str">
+        <f t="shared" si="31"/>
+        <v>'ROGER_EBERTS_GREAT_MOVIES| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Roger Eberts Great Movies| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="794" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B794" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C794">
+        <v>-500</v>
+      </c>
+      <c r="D794">
+        <v>1500</v>
+      </c>
+      <c r="E794">
+        <v>850</v>
+      </c>
+      <c r="F794" t="s">
+        <v>18</v>
+      </c>
+      <c r="H794" t="s">
+        <v>19</v>
+      </c>
+      <c r="I794">
+        <v>0</v>
+      </c>
+      <c r="J794">
+        <v>15</v>
+      </c>
+      <c r="K794" t="s">
+        <v>19</v>
+      </c>
+      <c r="M794" t="s">
+        <v>2364</v>
+      </c>
+      <c r="N794" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O794">
+        <v>1</v>
+      </c>
+      <c r="P794">
+        <v>1</v>
+      </c>
+      <c r="Q794">
+        <v>0</v>
+      </c>
+      <c r="R794" t="s">
+        <v>20</v>
+      </c>
+      <c r="S794" t="str">
+        <f t="shared" si="31"/>
+        <v>'TOP_250_WOMEN_DIRECTED| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Top 250 Women-Directed| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="795" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B795" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C795">
+        <v>-500</v>
+      </c>
+      <c r="D795">
+        <v>1500</v>
+      </c>
+      <c r="E795">
+        <v>850</v>
+      </c>
+      <c r="F795" t="s">
+        <v>18</v>
+      </c>
+      <c r="H795" t="s">
+        <v>19</v>
+      </c>
+      <c r="I795">
+        <v>0</v>
+      </c>
+      <c r="J795">
+        <v>15</v>
+      </c>
+      <c r="K795" t="s">
+        <v>19</v>
+      </c>
+      <c r="M795" t="s">
+        <v>2365</v>
+      </c>
+      <c r="N795" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O795">
+        <v>1</v>
+      </c>
+      <c r="P795">
+        <v>1</v>
+      </c>
+      <c r="Q795">
+        <v>0</v>
+      </c>
+      <c r="R795" t="s">
+        <v>20</v>
+      </c>
+      <c r="S795" t="str">
+        <f t="shared" si="31"/>
+        <v>'TOP_100_BLACK_DIRECTED| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Top 100 Black-Directed| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="796" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B796" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C796">
+        <v>-500</v>
+      </c>
+      <c r="D796">
+        <v>1500</v>
+      </c>
+      <c r="E796">
+        <v>850</v>
+      </c>
+      <c r="F796" t="s">
+        <v>18</v>
+      </c>
+      <c r="H796" t="s">
+        <v>19</v>
+      </c>
+      <c r="I796">
+        <v>0</v>
+      </c>
+      <c r="J796">
+        <v>15</v>
+      </c>
+      <c r="K796" t="s">
+        <v>19</v>
+      </c>
+      <c r="M796" t="s">
+        <v>2366</v>
+      </c>
+      <c r="N796" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O796">
+        <v>1</v>
+      </c>
+      <c r="P796">
+        <v>1</v>
+      </c>
+      <c r="Q796">
+        <v>0</v>
+      </c>
+      <c r="R796" t="s">
+        <v>20</v>
+      </c>
+      <c r="S796" t="str">
+        <f t="shared" si="31"/>
+        <v>'TOP_250_MOST_FANS| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Top 250 Most Fans| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="797" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B797" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C797">
+        <v>-500</v>
+      </c>
+      <c r="D797">
+        <v>1500</v>
+      </c>
+      <c r="E797">
+        <v>850</v>
+      </c>
+      <c r="F797" t="s">
+        <v>18</v>
+      </c>
+      <c r="H797" t="s">
+        <v>19</v>
+      </c>
+      <c r="I797">
+        <v>0</v>
+      </c>
+      <c r="J797">
+        <v>15</v>
+      </c>
+      <c r="K797" t="s">
+        <v>19</v>
+      </c>
+      <c r="M797" t="s">
+        <v>2367</v>
+      </c>
+      <c r="N797" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O797">
+        <v>1</v>
+      </c>
+      <c r="P797">
+        <v>1</v>
+      </c>
+      <c r="Q797">
+        <v>0</v>
+      </c>
+      <c r="R797" t="s">
+        <v>20</v>
+      </c>
+      <c r="S797" t="str">
+        <f t="shared" si="31"/>
+        <v>'TOP_250_DOCUMENTARIES| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Top 250 Documentaries| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="798" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B798" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C798">
+        <v>-500</v>
+      </c>
+      <c r="D798">
+        <v>1500</v>
+      </c>
+      <c r="E798">
+        <v>850</v>
+      </c>
+      <c r="F798" t="s">
+        <v>18</v>
+      </c>
+      <c r="H798" t="s">
+        <v>19</v>
+      </c>
+      <c r="I798">
+        <v>0</v>
+      </c>
+      <c r="J798">
+        <v>15</v>
+      </c>
+      <c r="K798" t="s">
+        <v>19</v>
+      </c>
+      <c r="M798" t="s">
+        <v>2368</v>
+      </c>
+      <c r="N798" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O798">
+        <v>1</v>
+      </c>
+      <c r="P798">
+        <v>1</v>
+      </c>
+      <c r="Q798">
+        <v>0</v>
+      </c>
+      <c r="R798" t="s">
+        <v>20</v>
+      </c>
+      <c r="S798" t="str">
+        <f t="shared" si="31"/>
+        <v>'TOP_100_ANIMATION| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Top 100 Animation| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="799" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B799" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C799">
+        <v>-500</v>
+      </c>
+      <c r="D799">
+        <v>1500</v>
+      </c>
+      <c r="E799">
+        <v>850</v>
+      </c>
+      <c r="F799" t="s">
+        <v>18</v>
+      </c>
+      <c r="H799" t="s">
+        <v>19</v>
+      </c>
+      <c r="I799">
+        <v>0</v>
+      </c>
+      <c r="J799">
+        <v>15</v>
+      </c>
+      <c r="K799" t="s">
+        <v>19</v>
+      </c>
+      <c r="M799" t="s">
+        <v>2369</v>
+      </c>
+      <c r="N799" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O799">
+        <v>1</v>
+      </c>
+      <c r="P799">
+        <v>1</v>
+      </c>
+      <c r="Q799">
+        <v>0</v>
+      </c>
+      <c r="R799" t="s">
+        <v>20</v>
+      </c>
+      <c r="S799" t="str">
+        <f t="shared" si="31"/>
+        <v>'TOP_250_HORROR| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Top 250 Horror| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="800" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B800" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C800">
+        <v>-500</v>
+      </c>
+      <c r="D800">
+        <v>1500</v>
+      </c>
+      <c r="E800">
+        <v>850</v>
+      </c>
+      <c r="F800" t="s">
+        <v>18</v>
+      </c>
+      <c r="H800" t="s">
+        <v>19</v>
+      </c>
+      <c r="I800">
+        <v>0</v>
+      </c>
+      <c r="J800">
+        <v>15</v>
+      </c>
+      <c r="K800" t="s">
+        <v>19</v>
+      </c>
+      <c r="M800" t="s">
+        <v>2370</v>
+      </c>
+      <c r="N800" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O800">
+        <v>1</v>
+      </c>
+      <c r="P800">
+        <v>1</v>
+      </c>
+      <c r="Q800">
+        <v>0</v>
+      </c>
+      <c r="R800" t="s">
+        <v>20</v>
+      </c>
+      <c r="S800" t="str">
+        <f t="shared" si="31"/>
+        <v>'IMDB_TOP_250| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | IMDb Top 250| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="801" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B801" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C801">
+        <v>-500</v>
+      </c>
+      <c r="D801">
+        <v>1500</v>
+      </c>
+      <c r="E801">
+        <v>850</v>
+      </c>
+      <c r="F801" t="s">
+        <v>18</v>
+      </c>
+      <c r="H801" t="s">
+        <v>19</v>
+      </c>
+      <c r="I801">
+        <v>0</v>
+      </c>
+      <c r="J801">
+        <v>15</v>
+      </c>
+      <c r="K801" t="s">
+        <v>19</v>
+      </c>
+      <c r="M801" t="s">
+        <v>2374</v>
+      </c>
+      <c r="N801" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O801">
+        <v>1</v>
+      </c>
+      <c r="P801">
+        <v>1</v>
+      </c>
+      <c r="Q801">
+        <v>0</v>
+      </c>
+      <c r="R801" t="s">
+        <v>20</v>
+      </c>
+      <c r="S801" t="str">
+        <f t="shared" si="31"/>
+        <v>'OSCARS_BEST_PICTURE_WINNERS| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Oscars Best Picture Winners| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="802" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B802" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C802">
+        <v>-500</v>
+      </c>
+      <c r="D802">
+        <v>1500</v>
+      </c>
+      <c r="E802">
+        <v>850</v>
+      </c>
+      <c r="F802" t="s">
+        <v>18</v>
+      </c>
+      <c r="H802" t="s">
+        <v>19</v>
+      </c>
+      <c r="I802">
+        <v>0</v>
+      </c>
+      <c r="J802">
+        <v>15</v>
+      </c>
+      <c r="K802" t="s">
+        <v>19</v>
+      </c>
+      <c r="M802" t="s">
+        <v>2373</v>
+      </c>
+      <c r="N802" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O802">
+        <v>1</v>
+      </c>
+      <c r="P802">
+        <v>1</v>
+      </c>
+      <c r="Q802">
+        <v>0</v>
+      </c>
+      <c r="R802" t="s">
+        <v>20</v>
+      </c>
+      <c r="S802" t="str">
+        <f t="shared" si="31"/>
+        <v>'CANNES_PALMES_DOR_WINNERS| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Cannes Palme dOr Winners| #405162| 1| 1| 0| 0',</v>
       </c>
     </row>
   </sheetData>

--- a/create_defaults/template.xlsx
+++ b/create_defaults/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\TEST\create_defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2211EF27-D86F-4CCA-B115-AC184CA8CAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6532E39F-4817-4F28-91C2-CA48D08AB69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="1275" windowWidth="19980" windowHeight="8850" xr2:uid="{C0516283-7CFC-4E92-8F0B-F8DC43661E92}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{C0516283-7CFC-4E92-8F0B-F8DC43661E92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11655" uniqueCount="2377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11865" uniqueCount="2379">
   <si>
     <t>key_name</t>
   </si>
@@ -7178,6 +7178,12 @@
   </si>
   <si>
     <t>#405162</t>
+  </si>
+  <si>
+    <t>Starz.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #464646</t>
   </si>
 </sst>
 </file>
@@ -7297,9 +7303,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7337,7 +7343,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7443,7 +7449,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7585,7 +7591,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7593,10 +7599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185220E8-1934-454F-B9D7-C7470B861D27}">
-  <dimension ref="A1:S802"/>
+  <dimension ref="A1:S832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J781" workbookViewId="0">
-      <selection activeCell="M791" sqref="M791"/>
+    <sheetView tabSelected="1" topLeftCell="S774" workbookViewId="0">
+      <selection activeCell="S809" sqref="S780:S809"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50245,17 +50251,20 @@
       </c>
     </row>
     <row r="780" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>2294</v>
+      </c>
       <c r="B780" t="s">
-        <v>2337</v>
+        <v>2377</v>
       </c>
       <c r="C780">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D780">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E780">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="F780" t="s">
         <v>18</v>
@@ -50273,8 +50282,11 @@
         <v>19</v>
       </c>
       <c r="M780" t="str">
-        <f>SUBSTITUTE(B780,".png","")</f>
-        <v>Bleecker Street</v>
+        <f>"starz_" &amp; LOWER(A780)</f>
+        <v>starz_top_1</v>
+      </c>
+      <c r="N780" t="s">
+        <v>2378</v>
       </c>
       <c r="O780">
         <v>1</v>
@@ -50289,22 +50301,25 @@
         <v>1747</v>
       </c>
       <c r="S780" t="str">
-        <f t="shared" ref="S780:S802" si="31">"'"&amp;MID(A780,FIND(MID(TRIM(A780),1,1),A780),LEN(A780))&amp;"| "&amp;MID(B780,FIND(MID(TRIM(B780),1,1),B780),LEN(B780))&amp;"| +"&amp;C780&amp;"| "&amp;D780&amp;"| +"&amp;E780&amp;"| "&amp;MID(F780,FIND(MID(TRIM(F780),1,1),F780),LEN(F780))&amp;"| "&amp;G780&amp;"| "&amp;MID(H780,FIND(MID(TRIM(H780),1,1),H780),LEN(H780))&amp;"| "&amp;I780&amp;"| "&amp;J780&amp;"| "&amp;MID(K780,FIND(MID(TRIM(K780),1,1),K780),LEN(K780))&amp;"| "&amp;L780&amp;"| "&amp;MID(M780,FIND(MID(TRIM(M780),1,1),M780),LEN(M780))&amp;"| "&amp;MID(N780,FIND(MID(TRIM(N780),1,1),N780),LEN(N780))&amp;"| "&amp;MID(O780,FIND(MID(TRIM(O780),1,1),O780),LEN(O780))&amp;"| "&amp;MID(P780,FIND(MID(TRIM(P780),1,1),P780),LEN(P780))&amp;"| "&amp;MID(Q780,FIND(MID(TRIM(Q780),1,1),Q780),LEN(Q780))&amp;"| "&amp;MID(R780,FIND(MID(TRIM(R780),1,1),R780),LEN(R780))</f>
-        <v>'| Bleecker Street.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Bleecker Street| | 1| 1| 0| 1',</v>
+        <f t="shared" ref="S780:S809" si="31">"'"&amp;MID(A780,FIND(MID(TRIM(A780),1,1),A780),LEN(A780))&amp;"| "&amp;MID(B780,FIND(MID(TRIM(B780),1,1),B780),LEN(B780))&amp;"| +"&amp;C780&amp;"| "&amp;D780&amp;"| +"&amp;E780&amp;"| "&amp;MID(F780,FIND(MID(TRIM(F780),1,1),F780),LEN(F780))&amp;"| "&amp;G780&amp;"| "&amp;MID(H780,FIND(MID(TRIM(H780),1,1),H780),LEN(H780))&amp;"| "&amp;I780&amp;"| "&amp;J780&amp;"| "&amp;MID(K780,FIND(MID(TRIM(K780),1,1),K780),LEN(K780))&amp;"| "&amp;L780&amp;"| "&amp;MID(M780,FIND(MID(TRIM(M780),1,1),M780),LEN(M780))&amp;"| "&amp;MID(N780,FIND(MID(TRIM(N780),1,1),N780),LEN(N780))&amp;"| "&amp;MID(O780,FIND(MID(TRIM(O780),1,1),O780),LEN(O780))&amp;"| "&amp;MID(P780,FIND(MID(TRIM(P780),1,1),P780),LEN(P780))&amp;"| "&amp;MID(Q780,FIND(MID(TRIM(Q780),1,1),Q780),LEN(Q780))&amp;"| "&amp;MID(R780,FIND(MID(TRIM(R780),1,1),R780),LEN(R780))</f>
+        <v>'TOP_1| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_1| #464646| 1| 1| 0| 1',</v>
       </c>
     </row>
     <row r="781" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>2308</v>
+      </c>
       <c r="B781" t="s">
-        <v>2338</v>
+        <v>2377</v>
       </c>
       <c r="C781">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D781">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E781">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="F781" t="s">
         <v>18</v>
@@ -50322,8 +50337,11 @@
         <v>19</v>
       </c>
       <c r="M781" t="str">
-        <f t="shared" ref="M781:M786" si="32">SUBSTITUTE(B781,".png","")</f>
-        <v>IFC Films</v>
+        <f t="shared" ref="M781:M809" si="32">"starz_" &amp; LOWER(A781)</f>
+        <v>starz_top_2</v>
+      </c>
+      <c r="N781" t="s">
+        <v>2378</v>
       </c>
       <c r="O781">
         <v>1</v>
@@ -50339,21 +50357,24 @@
       </c>
       <c r="S781" t="str">
         <f t="shared" si="31"/>
-        <v>'| IFC Films.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | IFC Films| | 1| 1| 0| 1',</v>
+        <v>'TOP_2| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_2| #464646| 1| 1| 0| 1',</v>
       </c>
     </row>
     <row r="782" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>2309</v>
+      </c>
       <c r="B782" t="s">
-        <v>2339</v>
+        <v>2377</v>
       </c>
       <c r="C782">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D782">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E782">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="F782" t="s">
         <v>18</v>
@@ -50372,7 +50393,10 @@
       </c>
       <c r="M782" t="str">
         <f t="shared" si="32"/>
-        <v>NEON</v>
+        <v>starz_top_3</v>
+      </c>
+      <c r="N782" t="s">
+        <v>2378</v>
       </c>
       <c r="O782">
         <v>1</v>
@@ -50388,21 +50412,24 @@
       </c>
       <c r="S782" t="str">
         <f t="shared" si="31"/>
-        <v>'| NEON.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | NEON| | 1| 1| 0| 1',</v>
+        <v>'TOP_3| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_3| #464646| 1| 1| 0| 1',</v>
       </c>
     </row>
     <row r="783" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>2310</v>
+      </c>
       <c r="B783" t="s">
-        <v>2340</v>
+        <v>2377</v>
       </c>
       <c r="C783">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D783">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E783">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="F783" t="s">
         <v>18</v>
@@ -50421,7 +50448,10 @@
       </c>
       <c r="M783" t="str">
         <f t="shared" si="32"/>
-        <v>Rankin-Bass Productions</v>
+        <v>starz_top_4</v>
+      </c>
+      <c r="N783" t="s">
+        <v>2378</v>
       </c>
       <c r="O783">
         <v>1</v>
@@ -50437,21 +50467,24 @@
       </c>
       <c r="S783" t="str">
         <f t="shared" si="31"/>
-        <v>'| Rankin-Bass Productions.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Rankin-Bass Productions| | 1| 1| 0| 1',</v>
+        <v>'TOP_4| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_4| #464646| 1| 1| 0| 1',</v>
       </c>
     </row>
     <row r="784" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>2311</v>
+      </c>
       <c r="B784" t="s">
-        <v>2341</v>
+        <v>2377</v>
       </c>
       <c r="C784">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D784">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E784">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="F784" t="s">
         <v>18</v>
@@ -50470,7 +50503,10 @@
       </c>
       <c r="M784" t="str">
         <f t="shared" si="32"/>
-        <v>STX Entertainment</v>
+        <v>starz_top_5</v>
+      </c>
+      <c r="N784" t="s">
+        <v>2378</v>
       </c>
       <c r="O784">
         <v>1</v>
@@ -50486,21 +50522,24 @@
       </c>
       <c r="S784" t="str">
         <f t="shared" si="31"/>
-        <v>'| STX Entertainment.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | STX Entertainment| | 1| 1| 0| 1',</v>
+        <v>'TOP_5| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_5| #464646| 1| 1| 0| 1',</v>
       </c>
     </row>
     <row r="785" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>2312</v>
+      </c>
       <c r="B785" t="s">
-        <v>2342</v>
+        <v>2377</v>
       </c>
       <c r="C785">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D785">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E785">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="F785" t="s">
         <v>18</v>
@@ -50519,7 +50558,10 @@
       </c>
       <c r="M785" t="str">
         <f t="shared" si="32"/>
-        <v>TOHO</v>
+        <v>starz_top_6</v>
+      </c>
+      <c r="N785" t="s">
+        <v>2378</v>
       </c>
       <c r="O785">
         <v>1</v>
@@ -50535,21 +50577,24 @@
       </c>
       <c r="S785" t="str">
         <f t="shared" si="31"/>
-        <v>'| TOHO.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | TOHO| | 1| 1| 0| 1',</v>
+        <v>'TOP_6| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_6| #464646| 1| 1| 0| 1',</v>
       </c>
     </row>
     <row r="786" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>2313</v>
+      </c>
       <c r="B786" t="s">
-        <v>2343</v>
+        <v>2377</v>
       </c>
       <c r="C786">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D786">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E786">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="F786" t="s">
         <v>18</v>
@@ -50568,7 +50613,10 @@
       </c>
       <c r="M786" t="str">
         <f t="shared" si="32"/>
-        <v>TSG Entertainment</v>
+        <v>starz_top_7</v>
+      </c>
+      <c r="N786" t="s">
+        <v>2378</v>
       </c>
       <c r="O786">
         <v>1</v>
@@ -50584,15 +50632,15 @@
       </c>
       <c r="S786" t="str">
         <f t="shared" si="31"/>
-        <v>'| TSG Entertainment.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | TSG Entertainment| | 1| 1| 0| 1',</v>
+        <v>'TOP_7| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_7| #464646| 1| 1| 0| 1',</v>
       </c>
     </row>
     <row r="787" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>2344</v>
+        <v>2314</v>
       </c>
       <c r="B787" t="s">
-        <v>2359</v>
+        <v>2377</v>
       </c>
       <c r="C787">
         <v>-500</v>
@@ -50618,11 +50666,12 @@
       <c r="K787" t="s">
         <v>19</v>
       </c>
-      <c r="M787" t="s">
-        <v>2360</v>
+      <c r="M787" t="str">
+        <f t="shared" si="32"/>
+        <v>starz_top_8</v>
       </c>
       <c r="N787" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="O787">
         <v>1</v>
@@ -50634,19 +50683,19 @@
         <v>0</v>
       </c>
       <c r="R787" t="s">
-        <v>20</v>
+        <v>1747</v>
       </c>
       <c r="S787" t="str">
         <f t="shared" si="31"/>
-        <v>'LETTERBOXD_TOP_250| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Letterboxd Top 250| #405162| 1| 1| 0| 0',</v>
+        <v>'TOP_8| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_8| #464646| 1| 1| 0| 1',</v>
       </c>
     </row>
     <row r="788" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>2345</v>
+        <v>2315</v>
       </c>
       <c r="B788" t="s">
-        <v>2359</v>
+        <v>2377</v>
       </c>
       <c r="C788">
         <v>-500</v>
@@ -50672,11 +50721,12 @@
       <c r="K788" t="s">
         <v>19</v>
       </c>
-      <c r="M788" t="s">
-        <v>2361</v>
+      <c r="M788" t="str">
+        <f t="shared" si="32"/>
+        <v>starz_top_9</v>
       </c>
       <c r="N788" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="O788">
         <v>1</v>
@@ -50688,19 +50738,19 @@
         <v>0</v>
       </c>
       <c r="R788" t="s">
-        <v>20</v>
+        <v>1747</v>
       </c>
       <c r="S788" t="str">
         <f t="shared" si="31"/>
-        <v>'BOX_OFFICE_MOJO_ALL_TIME_100| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Box Office Mojo All Time 100| #405162| 1| 1| 0| 0',</v>
+        <v>'TOP_9| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_9| #464646| 1| 1| 0| 1',</v>
       </c>
     </row>
     <row r="789" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>2346</v>
+        <v>2336</v>
       </c>
       <c r="B789" t="s">
-        <v>2359</v>
+        <v>2377</v>
       </c>
       <c r="C789">
         <v>-500</v>
@@ -50726,11 +50776,12 @@
       <c r="K789" t="s">
         <v>19</v>
       </c>
-      <c r="M789" t="s">
-        <v>2362</v>
+      <c r="M789" t="str">
+        <f t="shared" si="32"/>
+        <v>starz_top_10</v>
       </c>
       <c r="N789" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="O789">
         <v>1</v>
@@ -50742,19 +50793,19 @@
         <v>0</v>
       </c>
       <c r="R789" t="s">
-        <v>20</v>
+        <v>1747</v>
       </c>
       <c r="S789" t="str">
         <f t="shared" si="31"/>
-        <v>'AFI_100_YEARS_100_MOVIES| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | AFI 100 Years 100 Movies| #405162| 1| 1| 0| 0',</v>
+        <v>'TOP_10| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_10| #464646| 1| 1| 0| 1',</v>
       </c>
     </row>
     <row r="790" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>2347</v>
+        <v>2316</v>
       </c>
       <c r="B790" t="s">
-        <v>2359</v>
+        <v>2377</v>
       </c>
       <c r="C790">
         <v>-500</v>
@@ -50780,11 +50831,12 @@
       <c r="K790" t="s">
         <v>19</v>
       </c>
-      <c r="M790" t="s">
-        <v>2363</v>
+      <c r="M790" t="str">
+        <f t="shared" si="32"/>
+        <v>starz_top_11</v>
       </c>
       <c r="N790" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="O790">
         <v>1</v>
@@ -50796,19 +50848,19 @@
         <v>0</v>
       </c>
       <c r="R790" t="s">
-        <v>20</v>
+        <v>1747</v>
       </c>
       <c r="S790" t="str">
         <f t="shared" si="31"/>
-        <v>'SIGHT_AND_SOUND_GREATEST_FILMS| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Sight &amp; Sound Greatest Films| #405162| 1| 1| 0| 0',</v>
+        <v>'TOP_11| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_11| #464646| 1| 1| 0| 1',</v>
       </c>
     </row>
     <row r="791" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>1703</v>
+        <v>2317</v>
       </c>
       <c r="B791" t="s">
-        <v>2359</v>
+        <v>2377</v>
       </c>
       <c r="C791">
         <v>-500</v>
@@ -50834,11 +50886,12 @@
       <c r="K791" t="s">
         <v>19</v>
       </c>
-      <c r="M791" t="s">
-        <v>2375</v>
+      <c r="M791" t="str">
+        <f t="shared" si="32"/>
+        <v>starz_top_12</v>
       </c>
       <c r="N791" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="O791">
         <v>1</v>
@@ -50850,19 +50903,19 @@
         <v>0</v>
       </c>
       <c r="R791" t="s">
-        <v>20</v>
+        <v>1747</v>
       </c>
       <c r="S791" t="str">
         <f t="shared" si="31"/>
-        <v>'1001_MOVIES_YOU_MUST_SEE_BEFORE_YOU_DIE| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | 1001 To See Before You Die| #405162| 1| 1| 0| 0',</v>
+        <v>'TOP_12| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_12| #464646| 1| 1| 0| 1',</v>
       </c>
     </row>
     <row r="792" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>2348</v>
+        <v>2318</v>
       </c>
       <c r="B792" t="s">
-        <v>2359</v>
+        <v>2377</v>
       </c>
       <c r="C792">
         <v>-500</v>
@@ -50888,11 +50941,12 @@
       <c r="K792" t="s">
         <v>19</v>
       </c>
-      <c r="M792" t="s">
-        <v>2371</v>
+      <c r="M792" t="str">
+        <f t="shared" si="32"/>
+        <v>starz_top_13</v>
       </c>
       <c r="N792" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="O792">
         <v>1</v>
@@ -50904,19 +50958,19 @@
         <v>0</v>
       </c>
       <c r="R792" t="s">
-        <v>20</v>
+        <v>1747</v>
       </c>
       <c r="S792" t="str">
         <f t="shared" si="31"/>
-        <v>'EDGAR_WRIGHTS_1000_FAVORITES| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Edgar Wrights 1000 Favorites| #405162| 1| 1| 0| 0',</v>
+        <v>'TOP_13| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_13| #464646| 1| 1| 0| 1',</v>
       </c>
     </row>
     <row r="793" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>2349</v>
+        <v>2319</v>
       </c>
       <c r="B793" t="s">
-        <v>2359</v>
+        <v>2377</v>
       </c>
       <c r="C793">
         <v>-500</v>
@@ -50942,11 +50996,12 @@
       <c r="K793" t="s">
         <v>19</v>
       </c>
-      <c r="M793" t="s">
-        <v>2372</v>
+      <c r="M793" t="str">
+        <f t="shared" si="32"/>
+        <v>starz_top_14</v>
       </c>
       <c r="N793" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="O793">
         <v>1</v>
@@ -50958,19 +51013,19 @@
         <v>0</v>
       </c>
       <c r="R793" t="s">
-        <v>20</v>
+        <v>1747</v>
       </c>
       <c r="S793" t="str">
         <f t="shared" si="31"/>
-        <v>'ROGER_EBERTS_GREAT_MOVIES| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Roger Eberts Great Movies| #405162| 1| 1| 0| 0',</v>
+        <v>'TOP_14| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_14| #464646| 1| 1| 0| 1',</v>
       </c>
     </row>
     <row r="794" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>2350</v>
+        <v>2320</v>
       </c>
       <c r="B794" t="s">
-        <v>2359</v>
+        <v>2377</v>
       </c>
       <c r="C794">
         <v>-500</v>
@@ -50996,11 +51051,12 @@
       <c r="K794" t="s">
         <v>19</v>
       </c>
-      <c r="M794" t="s">
-        <v>2364</v>
+      <c r="M794" t="str">
+        <f t="shared" si="32"/>
+        <v>starz_top_15</v>
       </c>
       <c r="N794" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="O794">
         <v>1</v>
@@ -51012,19 +51068,19 @@
         <v>0</v>
       </c>
       <c r="R794" t="s">
-        <v>20</v>
+        <v>1747</v>
       </c>
       <c r="S794" t="str">
         <f t="shared" si="31"/>
-        <v>'TOP_250_WOMEN_DIRECTED| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Top 250 Women-Directed| #405162| 1| 1| 0| 0',</v>
+        <v>'TOP_15| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_15| #464646| 1| 1| 0| 1',</v>
       </c>
     </row>
     <row r="795" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>2351</v>
+        <v>2321</v>
       </c>
       <c r="B795" t="s">
-        <v>2359</v>
+        <v>2377</v>
       </c>
       <c r="C795">
         <v>-500</v>
@@ -51050,11 +51106,12 @@
       <c r="K795" t="s">
         <v>19</v>
       </c>
-      <c r="M795" t="s">
-        <v>2365</v>
+      <c r="M795" t="str">
+        <f t="shared" si="32"/>
+        <v>starz_top_16</v>
       </c>
       <c r="N795" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="O795">
         <v>1</v>
@@ -51066,19 +51123,19 @@
         <v>0</v>
       </c>
       <c r="R795" t="s">
-        <v>20</v>
+        <v>1747</v>
       </c>
       <c r="S795" t="str">
         <f t="shared" si="31"/>
-        <v>'TOP_100_BLACK_DIRECTED| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Top 100 Black-Directed| #405162| 1| 1| 0| 0',</v>
+        <v>'TOP_16| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_16| #464646| 1| 1| 0| 1',</v>
       </c>
     </row>
     <row r="796" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>2352</v>
+        <v>2322</v>
       </c>
       <c r="B796" t="s">
-        <v>2359</v>
+        <v>2377</v>
       </c>
       <c r="C796">
         <v>-500</v>
@@ -51104,11 +51161,12 @@
       <c r="K796" t="s">
         <v>19</v>
       </c>
-      <c r="M796" t="s">
-        <v>2366</v>
+      <c r="M796" t="str">
+        <f t="shared" si="32"/>
+        <v>starz_top_17</v>
       </c>
       <c r="N796" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="O796">
         <v>1</v>
@@ -51120,19 +51178,19 @@
         <v>0</v>
       </c>
       <c r="R796" t="s">
-        <v>20</v>
+        <v>1747</v>
       </c>
       <c r="S796" t="str">
         <f t="shared" si="31"/>
-        <v>'TOP_250_MOST_FANS| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Top 250 Most Fans| #405162| 1| 1| 0| 0',</v>
+        <v>'TOP_17| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_17| #464646| 1| 1| 0| 1',</v>
       </c>
     </row>
     <row r="797" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>2353</v>
+        <v>2323</v>
       </c>
       <c r="B797" t="s">
-        <v>2359</v>
+        <v>2377</v>
       </c>
       <c r="C797">
         <v>-500</v>
@@ -51158,11 +51216,12 @@
       <c r="K797" t="s">
         <v>19</v>
       </c>
-      <c r="M797" t="s">
-        <v>2367</v>
+      <c r="M797" t="str">
+        <f t="shared" si="32"/>
+        <v>starz_top_18</v>
       </c>
       <c r="N797" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="O797">
         <v>1</v>
@@ -51174,19 +51233,19 @@
         <v>0</v>
       </c>
       <c r="R797" t="s">
-        <v>20</v>
+        <v>1747</v>
       </c>
       <c r="S797" t="str">
         <f t="shared" si="31"/>
-        <v>'TOP_250_DOCUMENTARIES| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Top 250 Documentaries| #405162| 1| 1| 0| 0',</v>
+        <v>'TOP_18| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_18| #464646| 1| 1| 0| 1',</v>
       </c>
     </row>
     <row r="798" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>2354</v>
+        <v>2324</v>
       </c>
       <c r="B798" t="s">
-        <v>2359</v>
+        <v>2377</v>
       </c>
       <c r="C798">
         <v>-500</v>
@@ -51212,11 +51271,12 @@
       <c r="K798" t="s">
         <v>19</v>
       </c>
-      <c r="M798" t="s">
-        <v>2368</v>
+      <c r="M798" t="str">
+        <f t="shared" si="32"/>
+        <v>starz_top_19</v>
       </c>
       <c r="N798" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="O798">
         <v>1</v>
@@ -51228,19 +51288,19 @@
         <v>0</v>
       </c>
       <c r="R798" t="s">
-        <v>20</v>
+        <v>1747</v>
       </c>
       <c r="S798" t="str">
         <f t="shared" si="31"/>
-        <v>'TOP_100_ANIMATION| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Top 100 Animation| #405162| 1| 1| 0| 0',</v>
+        <v>'TOP_19| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_19| #464646| 1| 1| 0| 1',</v>
       </c>
     </row>
     <row r="799" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>2355</v>
+        <v>2325</v>
       </c>
       <c r="B799" t="s">
-        <v>2359</v>
+        <v>2377</v>
       </c>
       <c r="C799">
         <v>-500</v>
@@ -51266,11 +51326,12 @@
       <c r="K799" t="s">
         <v>19</v>
       </c>
-      <c r="M799" t="s">
-        <v>2369</v>
+      <c r="M799" t="str">
+        <f t="shared" si="32"/>
+        <v>starz_top_20</v>
       </c>
       <c r="N799" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="O799">
         <v>1</v>
@@ -51282,19 +51343,19 @@
         <v>0</v>
       </c>
       <c r="R799" t="s">
-        <v>20</v>
+        <v>1747</v>
       </c>
       <c r="S799" t="str">
         <f t="shared" si="31"/>
-        <v>'TOP_250_HORROR| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Top 250 Horror| #405162| 1| 1| 0| 0',</v>
+        <v>'TOP_20| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_20| #464646| 1| 1| 0| 1',</v>
       </c>
     </row>
     <row r="800" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
-        <v>2356</v>
+        <v>2326</v>
       </c>
       <c r="B800" t="s">
-        <v>2359</v>
+        <v>2377</v>
       </c>
       <c r="C800">
         <v>-500</v>
@@ -51320,11 +51381,12 @@
       <c r="K800" t="s">
         <v>19</v>
       </c>
-      <c r="M800" t="s">
-        <v>2370</v>
+      <c r="M800" t="str">
+        <f t="shared" si="32"/>
+        <v>starz_top_21</v>
       </c>
       <c r="N800" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="O800">
         <v>1</v>
@@ -51336,19 +51398,19 @@
         <v>0</v>
       </c>
       <c r="R800" t="s">
-        <v>20</v>
+        <v>1747</v>
       </c>
       <c r="S800" t="str">
         <f t="shared" si="31"/>
-        <v>'IMDB_TOP_250| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | IMDb Top 250| #405162| 1| 1| 0| 0',</v>
+        <v>'TOP_21| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_21| #464646| 1| 1| 0| 1',</v>
       </c>
     </row>
     <row r="801" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
-        <v>2357</v>
+        <v>2327</v>
       </c>
       <c r="B801" t="s">
-        <v>2359</v>
+        <v>2377</v>
       </c>
       <c r="C801">
         <v>-500</v>
@@ -51374,11 +51436,12 @@
       <c r="K801" t="s">
         <v>19</v>
       </c>
-      <c r="M801" t="s">
-        <v>2374</v>
+      <c r="M801" t="str">
+        <f t="shared" si="32"/>
+        <v>starz_top_22</v>
       </c>
       <c r="N801" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="O801">
         <v>1</v>
@@ -51390,19 +51453,19 @@
         <v>0</v>
       </c>
       <c r="R801" t="s">
-        <v>20</v>
+        <v>1747</v>
       </c>
       <c r="S801" t="str">
         <f t="shared" si="31"/>
-        <v>'OSCARS_BEST_PICTURE_WINNERS| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Oscars Best Picture Winners| #405162| 1| 1| 0| 0',</v>
+        <v>'TOP_22| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_22| #464646| 1| 1| 0| 1',</v>
       </c>
     </row>
     <row r="802" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
-        <v>2358</v>
+        <v>2328</v>
       </c>
       <c r="B802" t="s">
-        <v>2359</v>
+        <v>2377</v>
       </c>
       <c r="C802">
         <v>-500</v>
@@ -51428,11 +51491,12 @@
       <c r="K802" t="s">
         <v>19</v>
       </c>
-      <c r="M802" t="s">
-        <v>2373</v>
+      <c r="M802" t="str">
+        <f t="shared" si="32"/>
+        <v>starz_top_23</v>
       </c>
       <c r="N802" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="O802">
         <v>1</v>
@@ -51444,10 +51508,1602 @@
         <v>0</v>
       </c>
       <c r="R802" t="s">
-        <v>20</v>
+        <v>1747</v>
       </c>
       <c r="S802" t="str">
         <f t="shared" si="31"/>
+        <v>'TOP_23| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_23| #464646| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="803" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B803" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C803">
+        <v>-500</v>
+      </c>
+      <c r="D803">
+        <v>1500</v>
+      </c>
+      <c r="E803">
+        <v>850</v>
+      </c>
+      <c r="F803" t="s">
+        <v>18</v>
+      </c>
+      <c r="H803" t="s">
+        <v>19</v>
+      </c>
+      <c r="I803">
+        <v>0</v>
+      </c>
+      <c r="J803">
+        <v>15</v>
+      </c>
+      <c r="K803" t="s">
+        <v>19</v>
+      </c>
+      <c r="M803" t="str">
+        <f t="shared" si="32"/>
+        <v>starz_top_24</v>
+      </c>
+      <c r="N803" t="s">
+        <v>2378</v>
+      </c>
+      <c r="O803">
+        <v>1</v>
+      </c>
+      <c r="P803">
+        <v>1</v>
+      </c>
+      <c r="Q803">
+        <v>0</v>
+      </c>
+      <c r="R803" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S803" t="str">
+        <f t="shared" si="31"/>
+        <v>'TOP_24| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_24| #464646| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="804" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B804" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C804">
+        <v>-500</v>
+      </c>
+      <c r="D804">
+        <v>1500</v>
+      </c>
+      <c r="E804">
+        <v>850</v>
+      </c>
+      <c r="F804" t="s">
+        <v>18</v>
+      </c>
+      <c r="H804" t="s">
+        <v>19</v>
+      </c>
+      <c r="I804">
+        <v>0</v>
+      </c>
+      <c r="J804">
+        <v>15</v>
+      </c>
+      <c r="K804" t="s">
+        <v>19</v>
+      </c>
+      <c r="M804" t="str">
+        <f t="shared" si="32"/>
+        <v>starz_top_25</v>
+      </c>
+      <c r="N804" t="s">
+        <v>2378</v>
+      </c>
+      <c r="O804">
+        <v>1</v>
+      </c>
+      <c r="P804">
+        <v>1</v>
+      </c>
+      <c r="Q804">
+        <v>0</v>
+      </c>
+      <c r="R804" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S804" t="str">
+        <f t="shared" si="31"/>
+        <v>'TOP_25| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_25| #464646| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="805" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B805" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C805">
+        <v>-500</v>
+      </c>
+      <c r="D805">
+        <v>1500</v>
+      </c>
+      <c r="E805">
+        <v>850</v>
+      </c>
+      <c r="F805" t="s">
+        <v>18</v>
+      </c>
+      <c r="H805" t="s">
+        <v>19</v>
+      </c>
+      <c r="I805">
+        <v>0</v>
+      </c>
+      <c r="J805">
+        <v>15</v>
+      </c>
+      <c r="K805" t="s">
+        <v>19</v>
+      </c>
+      <c r="M805" t="str">
+        <f t="shared" si="32"/>
+        <v>starz_top_26</v>
+      </c>
+      <c r="N805" t="s">
+        <v>2378</v>
+      </c>
+      <c r="O805">
+        <v>1</v>
+      </c>
+      <c r="P805">
+        <v>1</v>
+      </c>
+      <c r="Q805">
+        <v>0</v>
+      </c>
+      <c r="R805" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S805" t="str">
+        <f t="shared" si="31"/>
+        <v>'TOP_26| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_26| #464646| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="806" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B806" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C806">
+        <v>-500</v>
+      </c>
+      <c r="D806">
+        <v>1500</v>
+      </c>
+      <c r="E806">
+        <v>850</v>
+      </c>
+      <c r="F806" t="s">
+        <v>18</v>
+      </c>
+      <c r="H806" t="s">
+        <v>19</v>
+      </c>
+      <c r="I806">
+        <v>0</v>
+      </c>
+      <c r="J806">
+        <v>15</v>
+      </c>
+      <c r="K806" t="s">
+        <v>19</v>
+      </c>
+      <c r="M806" t="str">
+        <f t="shared" si="32"/>
+        <v>starz_top_27</v>
+      </c>
+      <c r="N806" t="s">
+        <v>2378</v>
+      </c>
+      <c r="O806">
+        <v>1</v>
+      </c>
+      <c r="P806">
+        <v>1</v>
+      </c>
+      <c r="Q806">
+        <v>0</v>
+      </c>
+      <c r="R806" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S806" t="str">
+        <f t="shared" si="31"/>
+        <v>'TOP_27| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_27| #464646| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="807" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B807" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C807">
+        <v>-500</v>
+      </c>
+      <c r="D807">
+        <v>1500</v>
+      </c>
+      <c r="E807">
+        <v>850</v>
+      </c>
+      <c r="F807" t="s">
+        <v>18</v>
+      </c>
+      <c r="H807" t="s">
+        <v>19</v>
+      </c>
+      <c r="I807">
+        <v>0</v>
+      </c>
+      <c r="J807">
+        <v>15</v>
+      </c>
+      <c r="K807" t="s">
+        <v>19</v>
+      </c>
+      <c r="M807" t="str">
+        <f t="shared" si="32"/>
+        <v>starz_top_28</v>
+      </c>
+      <c r="N807" t="s">
+        <v>2378</v>
+      </c>
+      <c r="O807">
+        <v>1</v>
+      </c>
+      <c r="P807">
+        <v>1</v>
+      </c>
+      <c r="Q807">
+        <v>0</v>
+      </c>
+      <c r="R807" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S807" t="str">
+        <f t="shared" si="31"/>
+        <v>'TOP_28| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_28| #464646| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="808" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B808" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C808">
+        <v>-500</v>
+      </c>
+      <c r="D808">
+        <v>1500</v>
+      </c>
+      <c r="E808">
+        <v>850</v>
+      </c>
+      <c r="F808" t="s">
+        <v>18</v>
+      </c>
+      <c r="H808" t="s">
+        <v>19</v>
+      </c>
+      <c r="I808">
+        <v>0</v>
+      </c>
+      <c r="J808">
+        <v>15</v>
+      </c>
+      <c r="K808" t="s">
+        <v>19</v>
+      </c>
+      <c r="M808" t="str">
+        <f t="shared" si="32"/>
+        <v>starz_top_29</v>
+      </c>
+      <c r="N808" t="s">
+        <v>2378</v>
+      </c>
+      <c r="O808">
+        <v>1</v>
+      </c>
+      <c r="P808">
+        <v>1</v>
+      </c>
+      <c r="Q808">
+        <v>0</v>
+      </c>
+      <c r="R808" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S808" t="str">
+        <f t="shared" si="31"/>
+        <v>'TOP_29| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_29| #464646| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="809" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B809" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C809">
+        <v>-500</v>
+      </c>
+      <c r="D809">
+        <v>1500</v>
+      </c>
+      <c r="E809">
+        <v>850</v>
+      </c>
+      <c r="F809" t="s">
+        <v>18</v>
+      </c>
+      <c r="H809" t="s">
+        <v>19</v>
+      </c>
+      <c r="I809">
+        <v>0</v>
+      </c>
+      <c r="J809">
+        <v>15</v>
+      </c>
+      <c r="K809" t="s">
+        <v>19</v>
+      </c>
+      <c r="M809" t="str">
+        <f t="shared" si="32"/>
+        <v>starz_top_30</v>
+      </c>
+      <c r="N809" t="s">
+        <v>2378</v>
+      </c>
+      <c r="O809">
+        <v>1</v>
+      </c>
+      <c r="P809">
+        <v>1</v>
+      </c>
+      <c r="Q809">
+        <v>0</v>
+      </c>
+      <c r="R809" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S809" t="str">
+        <f t="shared" si="31"/>
+        <v>'TOP_30| Starz.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | starz_top_30| #464646| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="810" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B810" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C810">
+        <v>0</v>
+      </c>
+      <c r="D810">
+        <v>1600</v>
+      </c>
+      <c r="E810">
+        <v>0</v>
+      </c>
+      <c r="F810" t="s">
+        <v>18</v>
+      </c>
+      <c r="H810" t="s">
+        <v>19</v>
+      </c>
+      <c r="I810">
+        <v>0</v>
+      </c>
+      <c r="J810">
+        <v>15</v>
+      </c>
+      <c r="K810" t="s">
+        <v>19</v>
+      </c>
+      <c r="M810" t="str">
+        <f>SUBSTITUTE(B810,".png","")</f>
+        <v>Bleecker Street</v>
+      </c>
+      <c r="O810">
+        <v>1</v>
+      </c>
+      <c r="P810">
+        <v>1</v>
+      </c>
+      <c r="Q810">
+        <v>0</v>
+      </c>
+      <c r="R810" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S810" t="str">
+        <f t="shared" ref="S810:S832" si="33">"'"&amp;MID(A810,FIND(MID(TRIM(A810),1,1),A810),LEN(A810))&amp;"| "&amp;MID(B810,FIND(MID(TRIM(B810),1,1),B810),LEN(B810))&amp;"| +"&amp;C810&amp;"| "&amp;D810&amp;"| +"&amp;E810&amp;"| "&amp;MID(F810,FIND(MID(TRIM(F810),1,1),F810),LEN(F810))&amp;"| "&amp;G810&amp;"| "&amp;MID(H810,FIND(MID(TRIM(H810),1,1),H810),LEN(H810))&amp;"| "&amp;I810&amp;"| "&amp;J810&amp;"| "&amp;MID(K810,FIND(MID(TRIM(K810),1,1),K810),LEN(K810))&amp;"| "&amp;L810&amp;"| "&amp;MID(M810,FIND(MID(TRIM(M810),1,1),M810),LEN(M810))&amp;"| "&amp;MID(N810,FIND(MID(TRIM(N810),1,1),N810),LEN(N810))&amp;"| "&amp;MID(O810,FIND(MID(TRIM(O810),1,1),O810),LEN(O810))&amp;"| "&amp;MID(P810,FIND(MID(TRIM(P810),1,1),P810),LEN(P810))&amp;"| "&amp;MID(Q810,FIND(MID(TRIM(Q810),1,1),Q810),LEN(Q810))&amp;"| "&amp;MID(R810,FIND(MID(TRIM(R810),1,1),R810),LEN(R810))</f>
+        <v>'| Bleecker Street.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Bleecker Street| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="811" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B811" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C811">
+        <v>0</v>
+      </c>
+      <c r="D811">
+        <v>1600</v>
+      </c>
+      <c r="E811">
+        <v>0</v>
+      </c>
+      <c r="F811" t="s">
+        <v>18</v>
+      </c>
+      <c r="H811" t="s">
+        <v>19</v>
+      </c>
+      <c r="I811">
+        <v>0</v>
+      </c>
+      <c r="J811">
+        <v>15</v>
+      </c>
+      <c r="K811" t="s">
+        <v>19</v>
+      </c>
+      <c r="M811" t="str">
+        <f t="shared" ref="M811:M816" si="34">SUBSTITUTE(B811,".png","")</f>
+        <v>IFC Films</v>
+      </c>
+      <c r="O811">
+        <v>1</v>
+      </c>
+      <c r="P811">
+        <v>1</v>
+      </c>
+      <c r="Q811">
+        <v>0</v>
+      </c>
+      <c r="R811" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S811" t="str">
+        <f t="shared" si="33"/>
+        <v>'| IFC Films.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | IFC Films| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="812" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B812" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C812">
+        <v>0</v>
+      </c>
+      <c r="D812">
+        <v>1600</v>
+      </c>
+      <c r="E812">
+        <v>0</v>
+      </c>
+      <c r="F812" t="s">
+        <v>18</v>
+      </c>
+      <c r="H812" t="s">
+        <v>19</v>
+      </c>
+      <c r="I812">
+        <v>0</v>
+      </c>
+      <c r="J812">
+        <v>15</v>
+      </c>
+      <c r="K812" t="s">
+        <v>19</v>
+      </c>
+      <c r="M812" t="str">
+        <f t="shared" si="34"/>
+        <v>NEON</v>
+      </c>
+      <c r="O812">
+        <v>1</v>
+      </c>
+      <c r="P812">
+        <v>1</v>
+      </c>
+      <c r="Q812">
+        <v>0</v>
+      </c>
+      <c r="R812" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S812" t="str">
+        <f t="shared" si="33"/>
+        <v>'| NEON.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | NEON| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="813" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B813" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C813">
+        <v>0</v>
+      </c>
+      <c r="D813">
+        <v>1600</v>
+      </c>
+      <c r="E813">
+        <v>0</v>
+      </c>
+      <c r="F813" t="s">
+        <v>18</v>
+      </c>
+      <c r="H813" t="s">
+        <v>19</v>
+      </c>
+      <c r="I813">
+        <v>0</v>
+      </c>
+      <c r="J813">
+        <v>15</v>
+      </c>
+      <c r="K813" t="s">
+        <v>19</v>
+      </c>
+      <c r="M813" t="str">
+        <f t="shared" si="34"/>
+        <v>Rankin-Bass Productions</v>
+      </c>
+      <c r="O813">
+        <v>1</v>
+      </c>
+      <c r="P813">
+        <v>1</v>
+      </c>
+      <c r="Q813">
+        <v>0</v>
+      </c>
+      <c r="R813" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S813" t="str">
+        <f t="shared" si="33"/>
+        <v>'| Rankin-Bass Productions.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Rankin-Bass Productions| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="814" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B814" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C814">
+        <v>0</v>
+      </c>
+      <c r="D814">
+        <v>1600</v>
+      </c>
+      <c r="E814">
+        <v>0</v>
+      </c>
+      <c r="F814" t="s">
+        <v>18</v>
+      </c>
+      <c r="H814" t="s">
+        <v>19</v>
+      </c>
+      <c r="I814">
+        <v>0</v>
+      </c>
+      <c r="J814">
+        <v>15</v>
+      </c>
+      <c r="K814" t="s">
+        <v>19</v>
+      </c>
+      <c r="M814" t="str">
+        <f t="shared" si="34"/>
+        <v>STX Entertainment</v>
+      </c>
+      <c r="O814">
+        <v>1</v>
+      </c>
+      <c r="P814">
+        <v>1</v>
+      </c>
+      <c r="Q814">
+        <v>0</v>
+      </c>
+      <c r="R814" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S814" t="str">
+        <f t="shared" si="33"/>
+        <v>'| STX Entertainment.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | STX Entertainment| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="815" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B815" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C815">
+        <v>0</v>
+      </c>
+      <c r="D815">
+        <v>1600</v>
+      </c>
+      <c r="E815">
+        <v>0</v>
+      </c>
+      <c r="F815" t="s">
+        <v>18</v>
+      </c>
+      <c r="H815" t="s">
+        <v>19</v>
+      </c>
+      <c r="I815">
+        <v>0</v>
+      </c>
+      <c r="J815">
+        <v>15</v>
+      </c>
+      <c r="K815" t="s">
+        <v>19</v>
+      </c>
+      <c r="M815" t="str">
+        <f t="shared" si="34"/>
+        <v>TOHO</v>
+      </c>
+      <c r="O815">
+        <v>1</v>
+      </c>
+      <c r="P815">
+        <v>1</v>
+      </c>
+      <c r="Q815">
+        <v>0</v>
+      </c>
+      <c r="R815" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S815" t="str">
+        <f t="shared" si="33"/>
+        <v>'| TOHO.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | TOHO| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="816" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B816" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C816">
+        <v>0</v>
+      </c>
+      <c r="D816">
+        <v>1600</v>
+      </c>
+      <c r="E816">
+        <v>0</v>
+      </c>
+      <c r="F816" t="s">
+        <v>18</v>
+      </c>
+      <c r="H816" t="s">
+        <v>19</v>
+      </c>
+      <c r="I816">
+        <v>0</v>
+      </c>
+      <c r="J816">
+        <v>15</v>
+      </c>
+      <c r="K816" t="s">
+        <v>19</v>
+      </c>
+      <c r="M816" t="str">
+        <f t="shared" si="34"/>
+        <v>TSG Entertainment</v>
+      </c>
+      <c r="O816">
+        <v>1</v>
+      </c>
+      <c r="P816">
+        <v>1</v>
+      </c>
+      <c r="Q816">
+        <v>0</v>
+      </c>
+      <c r="R816" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S816" t="str">
+        <f t="shared" si="33"/>
+        <v>'| TSG Entertainment.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | TSG Entertainment| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="817" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B817" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C817">
+        <v>-500</v>
+      </c>
+      <c r="D817">
+        <v>1500</v>
+      </c>
+      <c r="E817">
+        <v>850</v>
+      </c>
+      <c r="F817" t="s">
+        <v>18</v>
+      </c>
+      <c r="H817" t="s">
+        <v>19</v>
+      </c>
+      <c r="I817">
+        <v>0</v>
+      </c>
+      <c r="J817">
+        <v>15</v>
+      </c>
+      <c r="K817" t="s">
+        <v>19</v>
+      </c>
+      <c r="M817" t="s">
+        <v>2360</v>
+      </c>
+      <c r="N817" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O817">
+        <v>1</v>
+      </c>
+      <c r="P817">
+        <v>1</v>
+      </c>
+      <c r="Q817">
+        <v>0</v>
+      </c>
+      <c r="R817" t="s">
+        <v>20</v>
+      </c>
+      <c r="S817" t="str">
+        <f t="shared" si="33"/>
+        <v>'LETTERBOXD_TOP_250| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Letterboxd Top 250| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="818" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B818" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C818">
+        <v>-500</v>
+      </c>
+      <c r="D818">
+        <v>1500</v>
+      </c>
+      <c r="E818">
+        <v>850</v>
+      </c>
+      <c r="F818" t="s">
+        <v>18</v>
+      </c>
+      <c r="H818" t="s">
+        <v>19</v>
+      </c>
+      <c r="I818">
+        <v>0</v>
+      </c>
+      <c r="J818">
+        <v>15</v>
+      </c>
+      <c r="K818" t="s">
+        <v>19</v>
+      </c>
+      <c r="M818" t="s">
+        <v>2361</v>
+      </c>
+      <c r="N818" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O818">
+        <v>1</v>
+      </c>
+      <c r="P818">
+        <v>1</v>
+      </c>
+      <c r="Q818">
+        <v>0</v>
+      </c>
+      <c r="R818" t="s">
+        <v>20</v>
+      </c>
+      <c r="S818" t="str">
+        <f t="shared" si="33"/>
+        <v>'BOX_OFFICE_MOJO_ALL_TIME_100| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Box Office Mojo All Time 100| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="819" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B819" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C819">
+        <v>-500</v>
+      </c>
+      <c r="D819">
+        <v>1500</v>
+      </c>
+      <c r="E819">
+        <v>850</v>
+      </c>
+      <c r="F819" t="s">
+        <v>18</v>
+      </c>
+      <c r="H819" t="s">
+        <v>19</v>
+      </c>
+      <c r="I819">
+        <v>0</v>
+      </c>
+      <c r="J819">
+        <v>15</v>
+      </c>
+      <c r="K819" t="s">
+        <v>19</v>
+      </c>
+      <c r="M819" t="s">
+        <v>2362</v>
+      </c>
+      <c r="N819" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O819">
+        <v>1</v>
+      </c>
+      <c r="P819">
+        <v>1</v>
+      </c>
+      <c r="Q819">
+        <v>0</v>
+      </c>
+      <c r="R819" t="s">
+        <v>20</v>
+      </c>
+      <c r="S819" t="str">
+        <f t="shared" si="33"/>
+        <v>'AFI_100_YEARS_100_MOVIES| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | AFI 100 Years 100 Movies| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="820" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B820" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C820">
+        <v>-500</v>
+      </c>
+      <c r="D820">
+        <v>1500</v>
+      </c>
+      <c r="E820">
+        <v>850</v>
+      </c>
+      <c r="F820" t="s">
+        <v>18</v>
+      </c>
+      <c r="H820" t="s">
+        <v>19</v>
+      </c>
+      <c r="I820">
+        <v>0</v>
+      </c>
+      <c r="J820">
+        <v>15</v>
+      </c>
+      <c r="K820" t="s">
+        <v>19</v>
+      </c>
+      <c r="M820" t="s">
+        <v>2363</v>
+      </c>
+      <c r="N820" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O820">
+        <v>1</v>
+      </c>
+      <c r="P820">
+        <v>1</v>
+      </c>
+      <c r="Q820">
+        <v>0</v>
+      </c>
+      <c r="R820" t="s">
+        <v>20</v>
+      </c>
+      <c r="S820" t="str">
+        <f t="shared" si="33"/>
+        <v>'SIGHT_AND_SOUND_GREATEST_FILMS| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Sight &amp; Sound Greatest Films| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="821" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B821" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C821">
+        <v>-500</v>
+      </c>
+      <c r="D821">
+        <v>1500</v>
+      </c>
+      <c r="E821">
+        <v>850</v>
+      </c>
+      <c r="F821" t="s">
+        <v>18</v>
+      </c>
+      <c r="H821" t="s">
+        <v>19</v>
+      </c>
+      <c r="I821">
+        <v>0</v>
+      </c>
+      <c r="J821">
+        <v>15</v>
+      </c>
+      <c r="K821" t="s">
+        <v>19</v>
+      </c>
+      <c r="M821" t="s">
+        <v>2375</v>
+      </c>
+      <c r="N821" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O821">
+        <v>1</v>
+      </c>
+      <c r="P821">
+        <v>1</v>
+      </c>
+      <c r="Q821">
+        <v>0</v>
+      </c>
+      <c r="R821" t="s">
+        <v>20</v>
+      </c>
+      <c r="S821" t="str">
+        <f t="shared" si="33"/>
+        <v>'1001_MOVIES_YOU_MUST_SEE_BEFORE_YOU_DIE| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | 1001 To See Before You Die| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="822" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B822" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C822">
+        <v>-500</v>
+      </c>
+      <c r="D822">
+        <v>1500</v>
+      </c>
+      <c r="E822">
+        <v>850</v>
+      </c>
+      <c r="F822" t="s">
+        <v>18</v>
+      </c>
+      <c r="H822" t="s">
+        <v>19</v>
+      </c>
+      <c r="I822">
+        <v>0</v>
+      </c>
+      <c r="J822">
+        <v>15</v>
+      </c>
+      <c r="K822" t="s">
+        <v>19</v>
+      </c>
+      <c r="M822" t="s">
+        <v>2371</v>
+      </c>
+      <c r="N822" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O822">
+        <v>1</v>
+      </c>
+      <c r="P822">
+        <v>1</v>
+      </c>
+      <c r="Q822">
+        <v>0</v>
+      </c>
+      <c r="R822" t="s">
+        <v>20</v>
+      </c>
+      <c r="S822" t="str">
+        <f t="shared" si="33"/>
+        <v>'EDGAR_WRIGHTS_1000_FAVORITES| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Edgar Wrights 1000 Favorites| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="823" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B823" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C823">
+        <v>-500</v>
+      </c>
+      <c r="D823">
+        <v>1500</v>
+      </c>
+      <c r="E823">
+        <v>850</v>
+      </c>
+      <c r="F823" t="s">
+        <v>18</v>
+      </c>
+      <c r="H823" t="s">
+        <v>19</v>
+      </c>
+      <c r="I823">
+        <v>0</v>
+      </c>
+      <c r="J823">
+        <v>15</v>
+      </c>
+      <c r="K823" t="s">
+        <v>19</v>
+      </c>
+      <c r="M823" t="s">
+        <v>2372</v>
+      </c>
+      <c r="N823" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O823">
+        <v>1</v>
+      </c>
+      <c r="P823">
+        <v>1</v>
+      </c>
+      <c r="Q823">
+        <v>0</v>
+      </c>
+      <c r="R823" t="s">
+        <v>20</v>
+      </c>
+      <c r="S823" t="str">
+        <f t="shared" si="33"/>
+        <v>'ROGER_EBERTS_GREAT_MOVIES| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Roger Eberts Great Movies| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="824" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B824" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C824">
+        <v>-500</v>
+      </c>
+      <c r="D824">
+        <v>1500</v>
+      </c>
+      <c r="E824">
+        <v>850</v>
+      </c>
+      <c r="F824" t="s">
+        <v>18</v>
+      </c>
+      <c r="H824" t="s">
+        <v>19</v>
+      </c>
+      <c r="I824">
+        <v>0</v>
+      </c>
+      <c r="J824">
+        <v>15</v>
+      </c>
+      <c r="K824" t="s">
+        <v>19</v>
+      </c>
+      <c r="M824" t="s">
+        <v>2364</v>
+      </c>
+      <c r="N824" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O824">
+        <v>1</v>
+      </c>
+      <c r="P824">
+        <v>1</v>
+      </c>
+      <c r="Q824">
+        <v>0</v>
+      </c>
+      <c r="R824" t="s">
+        <v>20</v>
+      </c>
+      <c r="S824" t="str">
+        <f t="shared" si="33"/>
+        <v>'TOP_250_WOMEN_DIRECTED| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Top 250 Women-Directed| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="825" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B825" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C825">
+        <v>-500</v>
+      </c>
+      <c r="D825">
+        <v>1500</v>
+      </c>
+      <c r="E825">
+        <v>850</v>
+      </c>
+      <c r="F825" t="s">
+        <v>18</v>
+      </c>
+      <c r="H825" t="s">
+        <v>19</v>
+      </c>
+      <c r="I825">
+        <v>0</v>
+      </c>
+      <c r="J825">
+        <v>15</v>
+      </c>
+      <c r="K825" t="s">
+        <v>19</v>
+      </c>
+      <c r="M825" t="s">
+        <v>2365</v>
+      </c>
+      <c r="N825" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O825">
+        <v>1</v>
+      </c>
+      <c r="P825">
+        <v>1</v>
+      </c>
+      <c r="Q825">
+        <v>0</v>
+      </c>
+      <c r="R825" t="s">
+        <v>20</v>
+      </c>
+      <c r="S825" t="str">
+        <f t="shared" si="33"/>
+        <v>'TOP_100_BLACK_DIRECTED| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Top 100 Black-Directed| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="826" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B826" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C826">
+        <v>-500</v>
+      </c>
+      <c r="D826">
+        <v>1500</v>
+      </c>
+      <c r="E826">
+        <v>850</v>
+      </c>
+      <c r="F826" t="s">
+        <v>18</v>
+      </c>
+      <c r="H826" t="s">
+        <v>19</v>
+      </c>
+      <c r="I826">
+        <v>0</v>
+      </c>
+      <c r="J826">
+        <v>15</v>
+      </c>
+      <c r="K826" t="s">
+        <v>19</v>
+      </c>
+      <c r="M826" t="s">
+        <v>2366</v>
+      </c>
+      <c r="N826" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O826">
+        <v>1</v>
+      </c>
+      <c r="P826">
+        <v>1</v>
+      </c>
+      <c r="Q826">
+        <v>0</v>
+      </c>
+      <c r="R826" t="s">
+        <v>20</v>
+      </c>
+      <c r="S826" t="str">
+        <f t="shared" si="33"/>
+        <v>'TOP_250_MOST_FANS| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Top 250 Most Fans| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="827" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B827" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C827">
+        <v>-500</v>
+      </c>
+      <c r="D827">
+        <v>1500</v>
+      </c>
+      <c r="E827">
+        <v>850</v>
+      </c>
+      <c r="F827" t="s">
+        <v>18</v>
+      </c>
+      <c r="H827" t="s">
+        <v>19</v>
+      </c>
+      <c r="I827">
+        <v>0</v>
+      </c>
+      <c r="J827">
+        <v>15</v>
+      </c>
+      <c r="K827" t="s">
+        <v>19</v>
+      </c>
+      <c r="M827" t="s">
+        <v>2367</v>
+      </c>
+      <c r="N827" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O827">
+        <v>1</v>
+      </c>
+      <c r="P827">
+        <v>1</v>
+      </c>
+      <c r="Q827">
+        <v>0</v>
+      </c>
+      <c r="R827" t="s">
+        <v>20</v>
+      </c>
+      <c r="S827" t="str">
+        <f t="shared" si="33"/>
+        <v>'TOP_250_DOCUMENTARIES| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Top 250 Documentaries| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="828" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B828" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C828">
+        <v>-500</v>
+      </c>
+      <c r="D828">
+        <v>1500</v>
+      </c>
+      <c r="E828">
+        <v>850</v>
+      </c>
+      <c r="F828" t="s">
+        <v>18</v>
+      </c>
+      <c r="H828" t="s">
+        <v>19</v>
+      </c>
+      <c r="I828">
+        <v>0</v>
+      </c>
+      <c r="J828">
+        <v>15</v>
+      </c>
+      <c r="K828" t="s">
+        <v>19</v>
+      </c>
+      <c r="M828" t="s">
+        <v>2368</v>
+      </c>
+      <c r="N828" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O828">
+        <v>1</v>
+      </c>
+      <c r="P828">
+        <v>1</v>
+      </c>
+      <c r="Q828">
+        <v>0</v>
+      </c>
+      <c r="R828" t="s">
+        <v>20</v>
+      </c>
+      <c r="S828" t="str">
+        <f t="shared" si="33"/>
+        <v>'TOP_100_ANIMATION| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Top 100 Animation| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="829" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B829" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C829">
+        <v>-500</v>
+      </c>
+      <c r="D829">
+        <v>1500</v>
+      </c>
+      <c r="E829">
+        <v>850</v>
+      </c>
+      <c r="F829" t="s">
+        <v>18</v>
+      </c>
+      <c r="H829" t="s">
+        <v>19</v>
+      </c>
+      <c r="I829">
+        <v>0</v>
+      </c>
+      <c r="J829">
+        <v>15</v>
+      </c>
+      <c r="K829" t="s">
+        <v>19</v>
+      </c>
+      <c r="M829" t="s">
+        <v>2369</v>
+      </c>
+      <c r="N829" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O829">
+        <v>1</v>
+      </c>
+      <c r="P829">
+        <v>1</v>
+      </c>
+      <c r="Q829">
+        <v>0</v>
+      </c>
+      <c r="R829" t="s">
+        <v>20</v>
+      </c>
+      <c r="S829" t="str">
+        <f t="shared" si="33"/>
+        <v>'TOP_250_HORROR| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Top 250 Horror| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="830" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B830" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C830">
+        <v>-500</v>
+      </c>
+      <c r="D830">
+        <v>1500</v>
+      </c>
+      <c r="E830">
+        <v>850</v>
+      </c>
+      <c r="F830" t="s">
+        <v>18</v>
+      </c>
+      <c r="H830" t="s">
+        <v>19</v>
+      </c>
+      <c r="I830">
+        <v>0</v>
+      </c>
+      <c r="J830">
+        <v>15</v>
+      </c>
+      <c r="K830" t="s">
+        <v>19</v>
+      </c>
+      <c r="M830" t="s">
+        <v>2370</v>
+      </c>
+      <c r="N830" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O830">
+        <v>1</v>
+      </c>
+      <c r="P830">
+        <v>1</v>
+      </c>
+      <c r="Q830">
+        <v>0</v>
+      </c>
+      <c r="R830" t="s">
+        <v>20</v>
+      </c>
+      <c r="S830" t="str">
+        <f t="shared" si="33"/>
+        <v>'IMDB_TOP_250| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | IMDb Top 250| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="831" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B831" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C831">
+        <v>-500</v>
+      </c>
+      <c r="D831">
+        <v>1500</v>
+      </c>
+      <c r="E831">
+        <v>850</v>
+      </c>
+      <c r="F831" t="s">
+        <v>18</v>
+      </c>
+      <c r="H831" t="s">
+        <v>19</v>
+      </c>
+      <c r="I831">
+        <v>0</v>
+      </c>
+      <c r="J831">
+        <v>15</v>
+      </c>
+      <c r="K831" t="s">
+        <v>19</v>
+      </c>
+      <c r="M831" t="s">
+        <v>2374</v>
+      </c>
+      <c r="N831" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O831">
+        <v>1</v>
+      </c>
+      <c r="P831">
+        <v>1</v>
+      </c>
+      <c r="Q831">
+        <v>0</v>
+      </c>
+      <c r="R831" t="s">
+        <v>20</v>
+      </c>
+      <c r="S831" t="str">
+        <f t="shared" si="33"/>
+        <v>'OSCARS_BEST_PICTURE_WINNERS| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Oscars Best Picture Winners| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="832" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B832" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C832">
+        <v>-500</v>
+      </c>
+      <c r="D832">
+        <v>1500</v>
+      </c>
+      <c r="E832">
+        <v>850</v>
+      </c>
+      <c r="F832" t="s">
+        <v>18</v>
+      </c>
+      <c r="H832" t="s">
+        <v>19</v>
+      </c>
+      <c r="I832">
+        <v>0</v>
+      </c>
+      <c r="J832">
+        <v>15</v>
+      </c>
+      <c r="K832" t="s">
+        <v>19</v>
+      </c>
+      <c r="M832" t="s">
+        <v>2373</v>
+      </c>
+      <c r="N832" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O832">
+        <v>1</v>
+      </c>
+      <c r="P832">
+        <v>1</v>
+      </c>
+      <c r="Q832">
+        <v>0</v>
+      </c>
+      <c r="R832" t="s">
+        <v>20</v>
+      </c>
+      <c r="S832" t="str">
+        <f t="shared" si="33"/>
         <v>'CANNES_PALMES_DOR_WINNERS| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Cannes Palme dOr Winners| #405162| 1| 1| 0| 0',</v>
       </c>
     </row>
@@ -51459,13 +53115,13 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M20 N2:N178">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/create_defaults/template.xlsx
+++ b/create_defaults/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\TEST\create_defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6133584A-3F47-474C-8695-9400BF9E84D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2B803E-9730-4016-A147-F4939602421B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C0516283-7CFC-4E92-8F0B-F8DC43661E92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26880" windowHeight="12465" xr2:uid="{C0516283-7CFC-4E92-8F0B-F8DC43661E92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11970" uniqueCount="2400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12020" uniqueCount="2410">
   <si>
     <t>key_name</t>
   </si>
@@ -7247,6 +7247,36 @@
   </si>
   <si>
     <t>TV4 Play.png</t>
+  </si>
+  <si>
+    <t>Disney Television Animation.png</t>
+  </si>
+  <si>
+    <t>DisneyToon Studios.png</t>
+  </si>
+  <si>
+    <t>Dynamic Planning.png</t>
+  </si>
+  <si>
+    <t>Film4 Productions.png</t>
+  </si>
+  <si>
+    <t>Golden Harvest.png</t>
+  </si>
+  <si>
+    <t>Hungry Man.png</t>
+  </si>
+  <si>
+    <t>Screen Gems.png</t>
+  </si>
+  <si>
+    <t>Shaw Brothers.png</t>
+  </si>
+  <si>
+    <t>Studio Live.png</t>
+  </si>
+  <si>
+    <t>The Stone Quarry.png</t>
   </si>
 </sst>
 </file>
@@ -7662,10 +7692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185220E8-1934-454F-B9D7-C7470B861D27}">
-  <dimension ref="A1:S853"/>
+  <dimension ref="A1:S863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N371" workbookViewId="0">
-      <selection activeCell="S397" sqref="S397:S404"/>
+    <sheetView tabSelected="1" topLeftCell="N836" workbookViewId="0">
+      <selection activeCell="S841" sqref="S838:S841"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54197,6 +54227,496 @@
       <c r="S853" t="str">
         <f t="shared" si="36"/>
         <v>'CANNES_PALMES_DOR_WINNERS| Letterboxd.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Cannes Palme dOr Winners| #405162| 1| 1| 0| 0',</v>
+      </c>
+    </row>
+    <row r="854" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B854" t="s">
+        <v>2400</v>
+      </c>
+      <c r="C854">
+        <v>0</v>
+      </c>
+      <c r="D854">
+        <v>1600</v>
+      </c>
+      <c r="E854">
+        <v>0</v>
+      </c>
+      <c r="F854" t="s">
+        <v>18</v>
+      </c>
+      <c r="H854" t="s">
+        <v>19</v>
+      </c>
+      <c r="I854">
+        <v>0</v>
+      </c>
+      <c r="J854">
+        <v>15</v>
+      </c>
+      <c r="K854" t="s">
+        <v>19</v>
+      </c>
+      <c r="M854" t="str">
+        <f t="shared" ref="M854" si="38">SUBSTITUTE(B854,".png","")</f>
+        <v>Disney Television Animation</v>
+      </c>
+      <c r="O854">
+        <v>1</v>
+      </c>
+      <c r="P854">
+        <v>1</v>
+      </c>
+      <c r="Q854">
+        <v>0</v>
+      </c>
+      <c r="R854" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S854" t="str">
+        <f t="shared" ref="S854" si="39">"'"&amp;MID(A854,FIND(MID(TRIM(A854),1,1),A854),LEN(A854))&amp;"| "&amp;MID(B854,FIND(MID(TRIM(B854),1,1),B854),LEN(B854))&amp;"| +"&amp;C854&amp;"| "&amp;D854&amp;"| +"&amp;E854&amp;"| "&amp;MID(F854,FIND(MID(TRIM(F854),1,1),F854),LEN(F854))&amp;"| "&amp;G854&amp;"| "&amp;MID(H854,FIND(MID(TRIM(H854),1,1),H854),LEN(H854))&amp;"| "&amp;I854&amp;"| "&amp;J854&amp;"| "&amp;MID(K854,FIND(MID(TRIM(K854),1,1),K854),LEN(K854))&amp;"| "&amp;L854&amp;"| "&amp;MID(M854,FIND(MID(TRIM(M854),1,1),M854),LEN(M854))&amp;"| "&amp;MID(N854,FIND(MID(TRIM(N854),1,1),N854),LEN(N854))&amp;"| "&amp;MID(O854,FIND(MID(TRIM(O854),1,1),O854),LEN(O854))&amp;"| "&amp;MID(P854,FIND(MID(TRIM(P854),1,1),P854),LEN(P854))&amp;"| "&amp;MID(Q854,FIND(MID(TRIM(Q854),1,1),Q854),LEN(Q854))&amp;"| "&amp;MID(R854,FIND(MID(TRIM(R854),1,1),R854),LEN(R854))</f>
+        <v>'| Disney Television Animation.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Disney Television Animation| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="855" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B855" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C855">
+        <v>0</v>
+      </c>
+      <c r="D855">
+        <v>1600</v>
+      </c>
+      <c r="E855">
+        <v>0</v>
+      </c>
+      <c r="F855" t="s">
+        <v>18</v>
+      </c>
+      <c r="H855" t="s">
+        <v>19</v>
+      </c>
+      <c r="I855">
+        <v>0</v>
+      </c>
+      <c r="J855">
+        <v>15</v>
+      </c>
+      <c r="K855" t="s">
+        <v>19</v>
+      </c>
+      <c r="M855" t="str">
+        <f t="shared" ref="M855:M863" si="40">SUBSTITUTE(B855,".png","")</f>
+        <v>DisneyToon Studios</v>
+      </c>
+      <c r="O855">
+        <v>1</v>
+      </c>
+      <c r="P855">
+        <v>1</v>
+      </c>
+      <c r="Q855">
+        <v>0</v>
+      </c>
+      <c r="R855" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S855" t="str">
+        <f t="shared" ref="S855:S863" si="41">"'"&amp;MID(A855,FIND(MID(TRIM(A855),1,1),A855),LEN(A855))&amp;"| "&amp;MID(B855,FIND(MID(TRIM(B855),1,1),B855),LEN(B855))&amp;"| +"&amp;C855&amp;"| "&amp;D855&amp;"| +"&amp;E855&amp;"| "&amp;MID(F855,FIND(MID(TRIM(F855),1,1),F855),LEN(F855))&amp;"| "&amp;G855&amp;"| "&amp;MID(H855,FIND(MID(TRIM(H855),1,1),H855),LEN(H855))&amp;"| "&amp;I855&amp;"| "&amp;J855&amp;"| "&amp;MID(K855,FIND(MID(TRIM(K855),1,1),K855),LEN(K855))&amp;"| "&amp;L855&amp;"| "&amp;MID(M855,FIND(MID(TRIM(M855),1,1),M855),LEN(M855))&amp;"| "&amp;MID(N855,FIND(MID(TRIM(N855),1,1),N855),LEN(N855))&amp;"| "&amp;MID(O855,FIND(MID(TRIM(O855),1,1),O855),LEN(O855))&amp;"| "&amp;MID(P855,FIND(MID(TRIM(P855),1,1),P855),LEN(P855))&amp;"| "&amp;MID(Q855,FIND(MID(TRIM(Q855),1,1),Q855),LEN(Q855))&amp;"| "&amp;MID(R855,FIND(MID(TRIM(R855),1,1),R855),LEN(R855))</f>
+        <v>'| DisneyToon Studios.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | DisneyToon Studios| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="856" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B856" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C856">
+        <v>0</v>
+      </c>
+      <c r="D856">
+        <v>1600</v>
+      </c>
+      <c r="E856">
+        <v>0</v>
+      </c>
+      <c r="F856" t="s">
+        <v>18</v>
+      </c>
+      <c r="H856" t="s">
+        <v>19</v>
+      </c>
+      <c r="I856">
+        <v>0</v>
+      </c>
+      <c r="J856">
+        <v>15</v>
+      </c>
+      <c r="K856" t="s">
+        <v>19</v>
+      </c>
+      <c r="M856" t="str">
+        <f t="shared" si="40"/>
+        <v>Dynamic Planning</v>
+      </c>
+      <c r="O856">
+        <v>1</v>
+      </c>
+      <c r="P856">
+        <v>1</v>
+      </c>
+      <c r="Q856">
+        <v>0</v>
+      </c>
+      <c r="R856" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S856" t="str">
+        <f t="shared" si="41"/>
+        <v>'| Dynamic Planning.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Dynamic Planning| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="857" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B857" t="s">
+        <v>2403</v>
+      </c>
+      <c r="C857">
+        <v>0</v>
+      </c>
+      <c r="D857">
+        <v>1600</v>
+      </c>
+      <c r="E857">
+        <v>0</v>
+      </c>
+      <c r="F857" t="s">
+        <v>18</v>
+      </c>
+      <c r="H857" t="s">
+        <v>19</v>
+      </c>
+      <c r="I857">
+        <v>0</v>
+      </c>
+      <c r="J857">
+        <v>15</v>
+      </c>
+      <c r="K857" t="s">
+        <v>19</v>
+      </c>
+      <c r="M857" t="str">
+        <f t="shared" si="40"/>
+        <v>Film4 Productions</v>
+      </c>
+      <c r="O857">
+        <v>1</v>
+      </c>
+      <c r="P857">
+        <v>1</v>
+      </c>
+      <c r="Q857">
+        <v>0</v>
+      </c>
+      <c r="R857" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S857" t="str">
+        <f t="shared" si="41"/>
+        <v>'| Film4 Productions.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Film4 Productions| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="858" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B858" t="s">
+        <v>2404</v>
+      </c>
+      <c r="C858">
+        <v>0</v>
+      </c>
+      <c r="D858">
+        <v>1600</v>
+      </c>
+      <c r="E858">
+        <v>0</v>
+      </c>
+      <c r="F858" t="s">
+        <v>18</v>
+      </c>
+      <c r="H858" t="s">
+        <v>19</v>
+      </c>
+      <c r="I858">
+        <v>0</v>
+      </c>
+      <c r="J858">
+        <v>15</v>
+      </c>
+      <c r="K858" t="s">
+        <v>19</v>
+      </c>
+      <c r="M858" t="str">
+        <f t="shared" si="40"/>
+        <v>Golden Harvest</v>
+      </c>
+      <c r="O858">
+        <v>1</v>
+      </c>
+      <c r="P858">
+        <v>1</v>
+      </c>
+      <c r="Q858">
+        <v>0</v>
+      </c>
+      <c r="R858" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S858" t="str">
+        <f t="shared" si="41"/>
+        <v>'| Golden Harvest.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Golden Harvest| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="859" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B859" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C859">
+        <v>0</v>
+      </c>
+      <c r="D859">
+        <v>1600</v>
+      </c>
+      <c r="E859">
+        <v>0</v>
+      </c>
+      <c r="F859" t="s">
+        <v>18</v>
+      </c>
+      <c r="H859" t="s">
+        <v>19</v>
+      </c>
+      <c r="I859">
+        <v>0</v>
+      </c>
+      <c r="J859">
+        <v>15</v>
+      </c>
+      <c r="K859" t="s">
+        <v>19</v>
+      </c>
+      <c r="M859" t="str">
+        <f t="shared" si="40"/>
+        <v>Hungry Man</v>
+      </c>
+      <c r="O859">
+        <v>1</v>
+      </c>
+      <c r="P859">
+        <v>1</v>
+      </c>
+      <c r="Q859">
+        <v>0</v>
+      </c>
+      <c r="R859" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S859" t="str">
+        <f t="shared" si="41"/>
+        <v>'| Hungry Man.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Hungry Man| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="860" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B860" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C860">
+        <v>0</v>
+      </c>
+      <c r="D860">
+        <v>1600</v>
+      </c>
+      <c r="E860">
+        <v>0</v>
+      </c>
+      <c r="F860" t="s">
+        <v>18</v>
+      </c>
+      <c r="H860" t="s">
+        <v>19</v>
+      </c>
+      <c r="I860">
+        <v>0</v>
+      </c>
+      <c r="J860">
+        <v>15</v>
+      </c>
+      <c r="K860" t="s">
+        <v>19</v>
+      </c>
+      <c r="M860" t="str">
+        <f t="shared" si="40"/>
+        <v>Screen Gems</v>
+      </c>
+      <c r="O860">
+        <v>1</v>
+      </c>
+      <c r="P860">
+        <v>1</v>
+      </c>
+      <c r="Q860">
+        <v>0</v>
+      </c>
+      <c r="R860" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S860" t="str">
+        <f t="shared" si="41"/>
+        <v>'| Screen Gems.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Screen Gems| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="861" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B861" t="s">
+        <v>2407</v>
+      </c>
+      <c r="C861">
+        <v>0</v>
+      </c>
+      <c r="D861">
+        <v>1600</v>
+      </c>
+      <c r="E861">
+        <v>0</v>
+      </c>
+      <c r="F861" t="s">
+        <v>18</v>
+      </c>
+      <c r="H861" t="s">
+        <v>19</v>
+      </c>
+      <c r="I861">
+        <v>0</v>
+      </c>
+      <c r="J861">
+        <v>15</v>
+      </c>
+      <c r="K861" t="s">
+        <v>19</v>
+      </c>
+      <c r="M861" t="str">
+        <f t="shared" si="40"/>
+        <v>Shaw Brothers</v>
+      </c>
+      <c r="O861">
+        <v>1</v>
+      </c>
+      <c r="P861">
+        <v>1</v>
+      </c>
+      <c r="Q861">
+        <v>0</v>
+      </c>
+      <c r="R861" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S861" t="str">
+        <f t="shared" si="41"/>
+        <v>'| Shaw Brothers.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Shaw Brothers| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="862" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B862" t="s">
+        <v>2408</v>
+      </c>
+      <c r="C862">
+        <v>0</v>
+      </c>
+      <c r="D862">
+        <v>1600</v>
+      </c>
+      <c r="E862">
+        <v>0</v>
+      </c>
+      <c r="F862" t="s">
+        <v>18</v>
+      </c>
+      <c r="H862" t="s">
+        <v>19</v>
+      </c>
+      <c r="I862">
+        <v>0</v>
+      </c>
+      <c r="J862">
+        <v>15</v>
+      </c>
+      <c r="K862" t="s">
+        <v>19</v>
+      </c>
+      <c r="M862" t="str">
+        <f t="shared" si="40"/>
+        <v>Studio Live</v>
+      </c>
+      <c r="O862">
+        <v>1</v>
+      </c>
+      <c r="P862">
+        <v>1</v>
+      </c>
+      <c r="Q862">
+        <v>0</v>
+      </c>
+      <c r="R862" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S862" t="str">
+        <f t="shared" si="41"/>
+        <v>'| Studio Live.png| +0| 1600| +0| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Studio Live| | 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="863" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B863" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C863">
+        <v>-500</v>
+      </c>
+      <c r="D863">
+        <v>1500</v>
+      </c>
+      <c r="E863">
+        <v>850</v>
+      </c>
+      <c r="F863" t="s">
+        <v>18</v>
+      </c>
+      <c r="H863" t="s">
+        <v>19</v>
+      </c>
+      <c r="I863">
+        <v>0</v>
+      </c>
+      <c r="J863">
+        <v>15</v>
+      </c>
+      <c r="K863" t="s">
+        <v>19</v>
+      </c>
+      <c r="M863" t="str">
+        <f t="shared" si="40"/>
+        <v>The Stone Quarry</v>
+      </c>
+      <c r="O863">
+        <v>1</v>
+      </c>
+      <c r="P863">
+        <v>1</v>
+      </c>
+      <c r="Q863">
+        <v>0</v>
+      </c>
+      <c r="R863" t="s">
+        <v>1747</v>
+      </c>
+      <c r="S863" t="str">
+        <f t="shared" si="41"/>
+        <v>'| The Stone Quarry.png| +-500| 1500| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | The Stone Quarry| | 1| 1| 0| 1',</v>
       </c>
     </row>
   </sheetData>

--- a/create_defaults/template.xlsx
+++ b/create_defaults/template.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\TEST\create_defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2B803E-9730-4016-A147-F4939602421B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80376B2-44B4-4936-903D-69B686BDB9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26880" windowHeight="12465" xr2:uid="{C0516283-7CFC-4E92-8F0B-F8DC43661E92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26880" windowHeight="12465" activeTab="2" xr2:uid="{C0516283-7CFC-4E92-8F0B-F8DC43661E92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="10" r:id="rId2"/>
+    <sheet name="Sheet9" sheetId="11" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet7" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$276</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet5!$A$1:$T$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet6!$A$1:$B$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet5!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sheet6!$A$1:$B$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12020" uniqueCount="2410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12885" uniqueCount="2449">
   <si>
     <t>key_name</t>
   </si>
@@ -7277,6 +7279,123 @@
   </si>
   <si>
     <t>The Stone Quarry.png</t>
+  </si>
+  <si>
+    <t>Acción</t>
+  </si>
+  <si>
+    <t>Actie</t>
+  </si>
+  <si>
+    <t>Acțiune</t>
+  </si>
+  <si>
+    <t>Akcija</t>
+  </si>
+  <si>
+    <t>Akció</t>
+  </si>
+  <si>
+    <t>Akcja</t>
+  </si>
+  <si>
+    <t>Aksi</t>
+  </si>
+  <si>
+    <t>Aksiyon</t>
+  </si>
+  <si>
+    <t>Akční</t>
+  </si>
+  <si>
+    <t>Akčný</t>
+  </si>
+  <si>
+    <t>Azione</t>
+  </si>
+  <si>
+    <t>Ação</t>
+  </si>
+  <si>
+    <t>Phim Hành Động</t>
+  </si>
+  <si>
+    <t>Toiminta</t>
+  </si>
+  <si>
+    <t>Veiksmo</t>
+  </si>
+  <si>
+    <t>Δράση</t>
+  </si>
+  <si>
+    <t>Акциони</t>
+  </si>
+  <si>
+    <t>Баявік</t>
+  </si>
+  <si>
+    <t>Бойовик</t>
+  </si>
+  <si>
+    <t>Екшън</t>
+  </si>
+  <si>
+    <t>боевик</t>
+  </si>
+  <si>
+    <t>אקשן</t>
+  </si>
+  <si>
+    <t>حركة</t>
+  </si>
+  <si>
+    <t>บู๊</t>
+  </si>
+  <si>
+    <t>მძაფრსიუჟეტიანი</t>
+  </si>
+  <si>
+    <t>アクション</t>
+  </si>
+  <si>
+    <t>动作</t>
+  </si>
+  <si>
+    <t>액션</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>| +</t>
+  </si>
+  <si>
+    <t>Action.png</t>
+  </si>
+  <si>
+    <t>ComfortAa-Medium</t>
+  </si>
+  <si>
+    <t>#FFFFFF</t>
+  </si>
+  <si>
+    <t>#387DBF</t>
+  </si>
+  <si>
+    <t>1',</t>
+  </si>
+  <si>
+    <t>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "</t>
+  </si>
+  <si>
+    <t>" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "</t>
+  </si>
+  <si>
+    <t>" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</t>
+  </si>
+  <si>
+    <t>" -text_offset +850 -font "Noto-Sans-Regular" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "</t>
   </si>
 </sst>
 </file>
@@ -7694,8 +7813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185220E8-1934-454F-B9D7-C7470B861D27}">
   <dimension ref="A1:S863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N836" workbookViewId="0">
-      <selection activeCell="S841" sqref="S838:S841"/>
+    <sheetView topLeftCell="A844" workbookViewId="0">
+      <selection activeCell="A864" sqref="A864"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54741,11 +54860,3769 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B1406B-7696-400B-906B-4C53B8C5EF41}">
+  <dimension ref="A1:AJ29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="34" width="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>"        '" &amp; UPPER(Y1)</f>
+        <v xml:space="preserve">        'ACTION</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E1">
+        <v>-500</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G1">
+        <v>1800</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I1">
+        <v>850</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S1">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC1">
+        <v>1</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE1">
+        <v>1</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG1">
+        <v>0</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ1" t="str">
+        <f>A1&amp;B1&amp;C1&amp;D1&amp;E1&amp;F1&amp;G1&amp;H1&amp;I1&amp;J1&amp;K1&amp;L1&amp;M1&amp;N1&amp;O1&amp;P1&amp;Q1&amp;R1&amp;S1&amp;T1&amp;U1&amp;V1&amp;W1&amp;X1&amp;Y1&amp;Z1&amp;AA1&amp;AB1&amp;AC1&amp;AD1&amp;AE1&amp;AF1&amp;AG1&amp;AH1&amp;AI1</f>
+        <v xml:space="preserve">        'ACTION| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Action| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f t="shared" ref="A2:A29" si="0">"        '" &amp; UPPER(Y2)</f>
+        <v xml:space="preserve">        'ACCIÓN</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E2">
+        <v>-500</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G2">
+        <v>1800</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I2">
+        <v>850</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S2">
+        <v>15</v>
+      </c>
+      <c r="T2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>2410</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ2" t="str">
+        <f t="shared" ref="AJ2:AJ29" si="1">A2&amp;B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2&amp;K2&amp;L2&amp;M2&amp;N2&amp;O2&amp;P2&amp;Q2&amp;R2&amp;S2&amp;T2&amp;U2&amp;V2&amp;W2&amp;X2&amp;Y2&amp;Z2&amp;AA2&amp;AB2&amp;AC2&amp;AD2&amp;AE2&amp;AF2&amp;AG2&amp;AH2&amp;AI2</f>
+        <v xml:space="preserve">        'ACCIÓN| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Acción| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        'ACTIE</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E3">
+        <v>-500</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G3">
+        <v>1800</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I3">
+        <v>850</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S3">
+        <v>15</v>
+      </c>
+      <c r="T3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U3" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>2411</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        'ACTIE| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Actie| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        'ACȚIUNE</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E4">
+        <v>-500</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G4">
+        <v>1800</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I4">
+        <v>850</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S4">
+        <v>15</v>
+      </c>
+      <c r="T4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U4" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>2412</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        'ACȚIUNE| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Acțiune| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        'AKCIJA</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E5">
+        <v>-500</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G5">
+        <v>1800</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I5">
+        <v>850</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N5" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S5">
+        <v>15</v>
+      </c>
+      <c r="T5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U5" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>2413</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        'AKCIJA| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Akcija| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        'AKCIÓ</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E6">
+        <v>-500</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G6">
+        <v>1800</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I6">
+        <v>850</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N6" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P6" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S6">
+        <v>15</v>
+      </c>
+      <c r="T6" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U6" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V6" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X6" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>2414</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        'AKCIÓ| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Akció| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        'AKCJA</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E7">
+        <v>-500</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G7">
+        <v>1800</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I7">
+        <v>850</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L7" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N7" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P7" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S7">
+        <v>15</v>
+      </c>
+      <c r="T7" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U7" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V7" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X7" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>2415</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        'AKCJA| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Akcja| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        'AKSI</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E8">
+        <v>-500</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G8">
+        <v>1800</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I8">
+        <v>850</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M8" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P8" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S8">
+        <v>15</v>
+      </c>
+      <c r="T8" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U8" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V8" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X8" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>2416</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        'AKSI| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Aksi| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        'AKSIYON</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E9">
+        <v>-500</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G9">
+        <v>1800</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I9">
+        <v>850</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N9" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P9" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S9">
+        <v>15</v>
+      </c>
+      <c r="T9" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U9" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V9" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X9" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>2417</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        'AKSIYON| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Aksiyon| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        'AKČNÍ</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E10">
+        <v>-500</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G10">
+        <v>1800</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I10">
+        <v>850</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L10" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N10" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P10" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S10">
+        <v>15</v>
+      </c>
+      <c r="T10" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U10" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V10" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X10" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>2418</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        'AKČNÍ| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Akční| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        'AKČNÝ</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E11">
+        <v>-500</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G11">
+        <v>1800</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I11">
+        <v>850</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M11" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N11" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P11" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S11">
+        <v>15</v>
+      </c>
+      <c r="T11" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U11" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V11" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X11" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>2419</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        'AKČNÝ| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Akčný| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        'AZIONE</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E12">
+        <v>-500</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G12">
+        <v>1800</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I12">
+        <v>850</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L12" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M12" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N12" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P12" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S12">
+        <v>15</v>
+      </c>
+      <c r="T12" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U12" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V12" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X12" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>2420</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        'AZIONE| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Azione| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        'AÇÃO</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E13">
+        <v>-500</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G13">
+        <v>1800</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I13">
+        <v>850</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M13" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N13" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S13">
+        <v>15</v>
+      </c>
+      <c r="T13" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U13" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V13" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X13" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>2421</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        'AÇÃO| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Ação| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        'PHIM HÀNH ĐỘNG</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E14">
+        <v>-500</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G14">
+        <v>1800</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I14">
+        <v>850</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L14" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M14" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N14" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P14" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S14">
+        <v>15</v>
+      </c>
+      <c r="T14" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U14" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V14" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X14" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>2422</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        'PHIM HÀNH ĐỘNG| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Phim Hành Động| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        'TOIMINTA</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E15">
+        <v>-500</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G15">
+        <v>1800</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I15">
+        <v>850</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L15" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M15" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N15" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P15" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S15">
+        <v>15</v>
+      </c>
+      <c r="T15" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U15" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V15" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X15" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>2423</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        'TOIMINTA| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Toiminta| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        'VEIKSMO</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E16">
+        <v>-500</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G16">
+        <v>1800</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I16">
+        <v>850</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L16" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M16" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N16" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S16">
+        <v>15</v>
+      </c>
+      <c r="T16" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U16" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V16" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X16" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>2424</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        'VEIKSMO| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Veiksmo| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        'ΔΡΑΣΗ</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E17">
+        <v>-500</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G17">
+        <v>1800</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I17">
+        <v>850</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L17" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M17" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N17" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P17" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S17">
+        <v>15</v>
+      </c>
+      <c r="T17" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U17" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V17" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X17" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>2425</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        'ΔΡΑΣΗ| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Δράση| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        'АКЦИОНИ</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E18">
+        <v>-500</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G18">
+        <v>1800</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I18">
+        <v>850</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L18" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M18" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N18" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P18" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S18">
+        <v>15</v>
+      </c>
+      <c r="T18" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U18" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V18" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X18" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>2426</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        'АКЦИОНИ| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Акциони| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        'БАЯВІК</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E19">
+        <v>-500</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G19">
+        <v>1800</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I19">
+        <v>850</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L19" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M19" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N19" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P19" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S19">
+        <v>15</v>
+      </c>
+      <c r="T19" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U19" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V19" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X19" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>2427</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        'БАЯВІК| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Баявік| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        'БОЙОВИК</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E20">
+        <v>-500</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G20">
+        <v>1800</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I20">
+        <v>850</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L20" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M20" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N20" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P20" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S20">
+        <v>15</v>
+      </c>
+      <c r="T20" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U20" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V20" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X20" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>2428</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        'БОЙОВИК| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Бойовик| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        'ЕКШЪН</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E21">
+        <v>-500</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G21">
+        <v>1800</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I21">
+        <v>850</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K21" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L21" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M21" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N21" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P21" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S21">
+        <v>15</v>
+      </c>
+      <c r="T21" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U21" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V21" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X21" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>2429</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        'ЕКШЪН| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | Екшън| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        'БОЕВИК</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E22">
+        <v>-500</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G22">
+        <v>1800</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I22">
+        <v>850</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K22" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L22" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M22" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N22" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P22" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S22">
+        <v>15</v>
+      </c>
+      <c r="T22" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U22" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V22" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X22" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>2430</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        'БОЕВИК| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | боевик| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        'אקשן</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E23">
+        <v>-500</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G23">
+        <v>1800</v>
+      </c>
+      <c r="H23" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I23">
+        <v>850</v>
+      </c>
+      <c r="J23" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K23" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L23" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M23" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N23" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P23" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S23">
+        <v>15</v>
+      </c>
+      <c r="T23" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U23" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V23" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X23" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>2431</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        'אקשן| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | אקשן| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        'حركة</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E24">
+        <v>-500</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G24">
+        <v>1800</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I24">
+        <v>850</v>
+      </c>
+      <c r="J24" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K24" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L24" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M24" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N24" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P24" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S24">
+        <v>15</v>
+      </c>
+      <c r="T24" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U24" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V24" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X24" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>2432</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        'حركة| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | حركة| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        'บู๊</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E25">
+        <v>-500</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G25">
+        <v>1800</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I25">
+        <v>850</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K25" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L25" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M25" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N25" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P25" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S25">
+        <v>15</v>
+      </c>
+      <c r="T25" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U25" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V25" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X25" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>2433</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        'บู๊| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | บู๊| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        'მძაფრსიუჟეტიანი</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E26">
+        <v>-500</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G26">
+        <v>1800</v>
+      </c>
+      <c r="H26" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I26">
+        <v>850</v>
+      </c>
+      <c r="J26" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L26" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M26" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N26" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P26" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S26">
+        <v>15</v>
+      </c>
+      <c r="T26" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U26" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V26" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X26" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>2434</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        'მძაფრსიუჟეტიანი| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | მძაფრსიუჟეტიანი| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        'アクション</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E27">
+        <v>-500</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G27">
+        <v>1800</v>
+      </c>
+      <c r="H27" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I27">
+        <v>850</v>
+      </c>
+      <c r="J27" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K27" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L27" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M27" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N27" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P27" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S27">
+        <v>15</v>
+      </c>
+      <c r="T27" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U27" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V27" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X27" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>2435</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC27">
+        <v>1</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        'アクション| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | アクション| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        '动作</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E28">
+        <v>-500</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G28">
+        <v>1800</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I28">
+        <v>850</v>
+      </c>
+      <c r="J28" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K28" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L28" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M28" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N28" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P28" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S28">
+        <v>15</v>
+      </c>
+      <c r="T28" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U28" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V28" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X28" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>2436</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        '动作| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | 动作| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        '액션</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E29">
+        <v>-500</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G29">
+        <v>1800</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I29">
+        <v>850</v>
+      </c>
+      <c r="J29" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K29" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L29" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M29" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N29" t="s">
+        <v>2442</v>
+      </c>
+      <c r="P29" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29" t="s">
+        <v>2225</v>
+      </c>
+      <c r="S29">
+        <v>15</v>
+      </c>
+      <c r="T29" t="s">
+        <v>2225</v>
+      </c>
+      <c r="U29" t="s">
+        <v>2442</v>
+      </c>
+      <c r="V29" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X29" t="s">
+        <v>2225</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>2437</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AJ29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        '액션| Action.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | 액션| #387DBF| 1| 1| 0| 1',</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2439976D-4F00-4032-88F8-CA79D546D00F}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="115.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="152.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B1" t="str">
+        <f>UPPER(D1)</f>
+        <v>ACCIÓN</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F1" t="str">
+        <f>A1&amp;B1&amp;C1&amp;D1&amp;E1</f>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "ACCIÓN" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "Acción" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B28" si="0">UPPER(D2)</f>
+        <v>ACTIE</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F28" si="1">A2&amp;B2&amp;C2&amp;D2&amp;E2</f>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "ACTIE" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "Actie" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>ACȚIUNE</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2412</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="1"/>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "ACȚIUNE" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "Acțiune" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>AKCIJA</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2413</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "AKCIJA" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "Akcija" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>AKCIÓ</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2414</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "AKCIÓ" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "Akció" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>AKCJA</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2415</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "AKCJA" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "Akcja" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>AKSI</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2416</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "AKSI" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "Aksi" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>AKSIYON</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2417</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "AKSIYON" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "Aksiyon" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>AKČNÍ</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2418</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "AKČNÍ" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "Akční" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>AKČNÝ</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2419</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "AKČNÝ" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "Akčný" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>AZIONE</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2420</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "AZIONE" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "Azione" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>AÇÃO</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "AÇÃO" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "Ação" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>PHIM HÀNH ĐỘNG</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2422</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "PHIM HÀNH ĐỘNG" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "Phim Hành Động" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>TOIMINTA</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2423</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "TOIMINTA" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "Toiminta" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>VEIKSMO</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2424</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "VEIKSMO" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "Veiksmo" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>ΔΡΑΣΗ</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2425</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "ΔΡΑΣΗ" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "Δράση" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>АКЦИОНИ</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2426</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "АКЦИОНИ" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "Акциони" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>БАЯВІК</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2427</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "БАЯВІК" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "Баявік" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>БОЙОВИК</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2428</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "БОЙОВИК" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "Бойовик" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>ЕКШЪН</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2429</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "ЕКШЪН" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "Екшън" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>БОЕВИК</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "БОЕВИК" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "боевик" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>אקשן</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2431</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F22" t="str">
+        <f>A22&amp;B22&amp;C22&amp;D22&amp;E22</f>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "אקשן" -text_offset +850 -font "Noto-Sans-Regular" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "אקשן" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>حركة</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2432</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "حركة" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "حركة" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>บู๊</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2433</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "บู๊" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "บู๊" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>მძაფრსიუჟეტიანი</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2434</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "მძაფრსიუჟეტიანი" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "მძაფრსიუჟეტიანი" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>アクション</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2435</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "アクション" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "アクション" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>动作</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2436</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "动作" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "动作" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>액션</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2437</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>.\create_poster.ps1 -logo "D:\temp\TEST\create_defaults\logos_genre\Action.png" -logo_offset -500 -logo_resize 1800 -text "액션" -text_offset +850 -font "ComfortAa-Medium" -font_size 241 -font_color "#FFFFFF" -border 0 -border_width 15 -border_color "#FFFFFF" -avg_color_image "" -out_name "액션" -base_color "#387DBF" -gradient 1 -clean 1 -avg_color 0 -white_wash 1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F986B964-1FA2-4A72-AED6-CEE70733019A}">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L74"/>
+    <sheetView topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57689,13 +61566,242 @@
         <v>'WORLD_WAR| World War.png| -500| 1800| +850| ComfortAa-Medium| | #FFFFFF| 0| 15| #FFFFFF| | World War| #336188| 1| 1| 0| 1',</v>
       </c>
     </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>2410</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>2412</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>2413</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>2416</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>2419</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>2420</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>2422</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>2423</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>2426</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>2429</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>2431</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>2432</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>2433</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>2434</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D101" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D102" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>2437</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FB8509-23FA-4F7F-8890-7CFCBADCF30A}">
   <dimension ref="A1:E44"/>
   <sheetViews>
@@ -58446,7 +62552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604772D3-E6A1-4195-B50F-D445224401E2}">
   <dimension ref="A1:D177"/>
   <sheetViews>
@@ -60945,7 +65051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6200E9-CEA8-4731-90C9-DABDBA046934}">
   <dimension ref="A2:R238"/>
   <sheetViews>
@@ -74247,7 +78353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38768033-9AE9-460B-9E80-170D125A9D1D}">
   <dimension ref="A2:E111"/>
   <sheetViews>
@@ -75801,7 +79907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF904EA0-0C3D-4E04-838B-12EAD385F948}">
   <dimension ref="A1:R13"/>
   <sheetViews>
